--- a/ProjectFiles/Mikilua/PyDSS Settings/HP-VV-B2/pyControllerList/PV Controller.xlsx
+++ b/ProjectFiles/Mikilua/PyDSS Settings/HP-VV-B2/pyControllerList/PV Controller.xlsx
@@ -1,31 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28502"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10523"/>
   <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mblonsky/Desktop/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2594E122-D933-5444-8B1A-5C7CAAF67BA8}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4240" yWindow="4880" windowWidth="28080" windowHeight="12640"/>
+    <workbookView xWindow="4240" yWindow="4880" windowWidth="28080" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Controllers" sheetId="1" r:id="rId1"/>
     <sheet name="Settings" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="150001"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -1744,7 +1740,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2004,7 +2000,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2069,6 +2065,7 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="15">
     <cellStyle name="20% - Accent1" xfId="11" builtinId="30"/>
@@ -2087,7 +2084,7 @@
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="27">
     <dxf>
       <font>
         <b val="0"/>
@@ -2100,49 +2097,12 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FFFFFFFF"/>
         <name val="Courier New"/>
+        <family val="1"/>
         <scheme val="none"/>
       </font>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Courier New"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -2569,12 +2529,40 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Courier New"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
         <sz val="13.2"/>
         <color theme="1"/>
         <name val="Courier New"/>
         <scheme val="none"/>
       </font>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2590,33 +2578,33 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:X533" insertRowShift="1" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
-  <autoFilter ref="A2:X533"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A2:X533" insertRowShift="1" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
+  <autoFilter ref="A2:X533" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="24">
-    <tableColumn id="1" name="Controlled PV" dataDxfId="25"/>
-    <tableColumn id="2" name="Qcontrol" dataDxfId="0"/>
-    <tableColumn id="3" name="Pcontrol" dataDxfId="1"/>
-    <tableColumn id="4" name="pf" dataDxfId="24"/>
-    <tableColumn id="5" name="pfMin" dataDxfId="23"/>
-    <tableColumn id="6" name="pfMax" dataDxfId="22"/>
-    <tableColumn id="7" name="Pmin" dataDxfId="21"/>
-    <tableColumn id="8" name="Pmax" dataDxfId="20"/>
-    <tableColumn id="9" name="uMin" dataDxfId="19"/>
-    <tableColumn id="10" name="uDbMin" dataDxfId="18"/>
-    <tableColumn id="11" name="uDbMax" dataDxfId="17"/>
-    <tableColumn id="12" name="uMax" dataDxfId="16"/>
-    <tableColumn id="13" name="QlimPU" dataDxfId="15"/>
-    <tableColumn id="14" name="PFlim" dataDxfId="14"/>
-    <tableColumn id="23" name="Enable PF limit" dataDxfId="13"/>
-    <tableColumn id="21" name="uMinC" dataDxfId="12"/>
-    <tableColumn id="22" name="uMaxC" dataDxfId="11"/>
-    <tableColumn id="15" name="PminVW" dataDxfId="10"/>
-    <tableColumn id="16" name="VWtype" dataDxfId="9"/>
-    <tableColumn id="17" name="%PCutin" dataDxfId="8"/>
-    <tableColumn id="18" name="%PCutout" dataDxfId="7"/>
-    <tableColumn id="19" name="Efficiency" dataDxfId="6"/>
-    <tableColumn id="24" name="Priority" dataDxfId="5"/>
-    <tableColumn id="20" name="pDampCoef" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Controlled PV" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Qcontrol" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Pcontrol" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="pf" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="pfMin" dataDxfId="20"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="pfMax" dataDxfId="19"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Pmin" dataDxfId="18"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Pmax" dataDxfId="17"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="uMin" dataDxfId="16"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="uDbMin" dataDxfId="15"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="uDbMax" dataDxfId="14"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="uMax" dataDxfId="13"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="QlimPU" dataDxfId="12"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="PFlim" dataDxfId="11"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="Enable PF limit" dataDxfId="10"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="uMinC" dataDxfId="9"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="uMaxC" dataDxfId="8"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="PminVW" dataDxfId="7"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="VWtype" dataDxfId="6"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="%PCutin" dataDxfId="5"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="%PCutout" dataDxfId="4"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Efficiency" dataDxfId="3"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="Priority" dataDxfId="2"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="pDampCoef" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2884,11 +2872,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y533"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="111" zoomScaleNormal="111" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A510" zoomScale="111" zoomScaleNormal="111" workbookViewId="0">
+      <selection activeCell="B533" sqref="B533"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3033,8 +3021,8 @@
       <c r="A3" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>18</v>
+      <c r="B3" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>3</v>
@@ -3110,8 +3098,8 @@
       <c r="A4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>18</v>
+      <c r="B4" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>3</v>
@@ -3187,8 +3175,8 @@
       <c r="A5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>18</v>
+      <c r="B5" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>3</v>
@@ -3264,8 +3252,8 @@
       <c r="A6" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>18</v>
+      <c r="B6" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>3</v>
@@ -3341,8 +3329,8 @@
       <c r="A7" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>18</v>
+      <c r="B7" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>3</v>
@@ -3418,8 +3406,8 @@
       <c r="A8" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>18</v>
+      <c r="B8" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>3</v>
@@ -3495,8 +3483,8 @@
       <c r="A9" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>18</v>
+      <c r="B9" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>3</v>
@@ -3572,8 +3560,8 @@
       <c r="A10" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>18</v>
+      <c r="B10" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>3</v>
@@ -3649,8 +3637,8 @@
       <c r="A11" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>18</v>
+      <c r="B11" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>3</v>
@@ -3726,8 +3714,8 @@
       <c r="A12" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>18</v>
+      <c r="B12" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C12" s="11" t="s">
         <v>3</v>
@@ -3803,8 +3791,8 @@
       <c r="A13" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="11" t="s">
-        <v>18</v>
+      <c r="B13" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>3</v>
@@ -3880,8 +3868,8 @@
       <c r="A14" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>18</v>
+      <c r="B14" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>3</v>
@@ -3957,8 +3945,8 @@
       <c r="A15" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="11" t="s">
-        <v>18</v>
+      <c r="B15" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>3</v>
@@ -4034,8 +4022,8 @@
       <c r="A16" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B16" s="11" t="s">
-        <v>18</v>
+      <c r="B16" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C16" s="11" t="s">
         <v>3</v>
@@ -4111,8 +4099,8 @@
       <c r="A17" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B17" s="11" t="s">
-        <v>18</v>
+      <c r="B17" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>3</v>
@@ -4188,8 +4176,8 @@
       <c r="A18" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="11" t="s">
-        <v>18</v>
+      <c r="B18" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C18" s="11" t="s">
         <v>3</v>
@@ -4265,8 +4253,8 @@
       <c r="A19" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="11" t="s">
-        <v>18</v>
+      <c r="B19" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>3</v>
@@ -4342,8 +4330,8 @@
       <c r="A20" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B20" s="11" t="s">
-        <v>18</v>
+      <c r="B20" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C20" s="11" t="s">
         <v>3</v>
@@ -4419,8 +4407,8 @@
       <c r="A21" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B21" s="11" t="s">
-        <v>18</v>
+      <c r="B21" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C21" s="11" t="s">
         <v>3</v>
@@ -4496,8 +4484,8 @@
       <c r="A22" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B22" s="11" t="s">
-        <v>18</v>
+      <c r="B22" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C22" s="11" t="s">
         <v>3</v>
@@ -4573,8 +4561,8 @@
       <c r="A23" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B23" s="11" t="s">
-        <v>18</v>
+      <c r="B23" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C23" s="11" t="s">
         <v>3</v>
@@ -4650,8 +4638,8 @@
       <c r="A24" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B24" s="11" t="s">
-        <v>18</v>
+      <c r="B24" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C24" s="11" t="s">
         <v>3</v>
@@ -4727,8 +4715,8 @@
       <c r="A25" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="11" t="s">
-        <v>18</v>
+      <c r="B25" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C25" s="11" t="s">
         <v>3</v>
@@ -4804,8 +4792,8 @@
       <c r="A26" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B26" s="11" t="s">
-        <v>18</v>
+      <c r="B26" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>3</v>
@@ -4881,8 +4869,8 @@
       <c r="A27" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B27" s="11" t="s">
-        <v>18</v>
+      <c r="B27" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C27" s="11" t="s">
         <v>3</v>
@@ -4958,8 +4946,8 @@
       <c r="A28" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B28" s="11" t="s">
-        <v>18</v>
+      <c r="B28" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C28" s="11" t="s">
         <v>3</v>
@@ -5035,8 +5023,8 @@
       <c r="A29" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B29" s="11" t="s">
-        <v>18</v>
+      <c r="B29" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>3</v>
@@ -5112,8 +5100,8 @@
       <c r="A30" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B30" s="11" t="s">
-        <v>18</v>
+      <c r="B30" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C30" s="11" t="s">
         <v>3</v>
@@ -5189,8 +5177,8 @@
       <c r="A31" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B31" s="11" t="s">
-        <v>18</v>
+      <c r="B31" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C31" s="11" t="s">
         <v>3</v>
@@ -5266,8 +5254,8 @@
       <c r="A32" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B32" s="11" t="s">
-        <v>18</v>
+      <c r="B32" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C32" s="11" t="s">
         <v>3</v>
@@ -5343,8 +5331,8 @@
       <c r="A33" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B33" s="11" t="s">
-        <v>18</v>
+      <c r="B33" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C33" s="11" t="s">
         <v>3</v>
@@ -5420,8 +5408,8 @@
       <c r="A34" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B34" s="11" t="s">
-        <v>18</v>
+      <c r="B34" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C34" s="11" t="s">
         <v>3</v>
@@ -5497,8 +5485,8 @@
       <c r="A35" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B35" s="11" t="s">
-        <v>18</v>
+      <c r="B35" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C35" s="11" t="s">
         <v>3</v>
@@ -5574,8 +5562,8 @@
       <c r="A36" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B36" s="11" t="s">
-        <v>18</v>
+      <c r="B36" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>3</v>
@@ -5651,8 +5639,8 @@
       <c r="A37" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B37" s="11" t="s">
-        <v>18</v>
+      <c r="B37" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C37" s="11" t="s">
         <v>3</v>
@@ -5728,8 +5716,8 @@
       <c r="A38" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B38" s="11" t="s">
-        <v>18</v>
+      <c r="B38" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C38" s="11" t="s">
         <v>3</v>
@@ -5805,8 +5793,8 @@
       <c r="A39" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B39" s="11" t="s">
-        <v>18</v>
+      <c r="B39" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C39" s="11" t="s">
         <v>3</v>
@@ -5882,8 +5870,8 @@
       <c r="A40" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B40" s="11" t="s">
-        <v>18</v>
+      <c r="B40" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C40" s="11" t="s">
         <v>3</v>
@@ -5959,8 +5947,8 @@
       <c r="A41" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B41" s="11" t="s">
-        <v>18</v>
+      <c r="B41" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C41" s="11" t="s">
         <v>3</v>
@@ -6036,8 +6024,8 @@
       <c r="A42" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B42" s="11" t="s">
-        <v>18</v>
+      <c r="B42" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C42" s="11" t="s">
         <v>3</v>
@@ -6113,8 +6101,8 @@
       <c r="A43" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B43" s="11" t="s">
-        <v>18</v>
+      <c r="B43" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C43" s="11" t="s">
         <v>3</v>
@@ -6190,8 +6178,8 @@
       <c r="A44" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B44" s="11" t="s">
-        <v>18</v>
+      <c r="B44" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C44" s="11" t="s">
         <v>3</v>
@@ -6267,8 +6255,8 @@
       <c r="A45" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B45" s="11" t="s">
-        <v>18</v>
+      <c r="B45" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C45" s="11" t="s">
         <v>3</v>
@@ -6344,8 +6332,8 @@
       <c r="A46" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B46" s="11" t="s">
-        <v>18</v>
+      <c r="B46" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C46" s="11" t="s">
         <v>3</v>
@@ -6421,8 +6409,8 @@
       <c r="A47" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B47" s="11" t="s">
-        <v>18</v>
+      <c r="B47" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C47" s="11" t="s">
         <v>3</v>
@@ -6498,8 +6486,8 @@
       <c r="A48" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B48" s="11" t="s">
-        <v>18</v>
+      <c r="B48" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C48" s="11" t="s">
         <v>3</v>
@@ -6575,8 +6563,8 @@
       <c r="A49" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B49" s="11" t="s">
-        <v>18</v>
+      <c r="B49" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C49" s="11" t="s">
         <v>3</v>
@@ -6652,8 +6640,8 @@
       <c r="A50" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B50" s="11" t="s">
-        <v>18</v>
+      <c r="B50" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C50" s="11" t="s">
         <v>3</v>
@@ -6729,8 +6717,8 @@
       <c r="A51" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B51" s="11" t="s">
-        <v>18</v>
+      <c r="B51" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C51" s="11" t="s">
         <v>3</v>
@@ -6806,8 +6794,8 @@
       <c r="A52" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B52" s="11" t="s">
-        <v>18</v>
+      <c r="B52" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C52" s="11" t="s">
         <v>3</v>
@@ -6883,8 +6871,8 @@
       <c r="A53" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B53" s="11" t="s">
-        <v>18</v>
+      <c r="B53" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C53" s="11" t="s">
         <v>3</v>
@@ -6960,8 +6948,8 @@
       <c r="A54" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B54" s="11" t="s">
-        <v>18</v>
+      <c r="B54" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C54" s="11" t="s">
         <v>3</v>
@@ -7037,8 +7025,8 @@
       <c r="A55" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B55" s="11" t="s">
-        <v>18</v>
+      <c r="B55" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C55" s="11" t="s">
         <v>3</v>
@@ -7114,8 +7102,8 @@
       <c r="A56" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B56" s="11" t="s">
-        <v>18</v>
+      <c r="B56" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C56" s="11" t="s">
         <v>3</v>
@@ -7191,8 +7179,8 @@
       <c r="A57" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B57" s="11" t="s">
-        <v>18</v>
+      <c r="B57" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C57" s="11" t="s">
         <v>3</v>
@@ -7268,8 +7256,8 @@
       <c r="A58" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B58" s="11" t="s">
-        <v>18</v>
+      <c r="B58" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C58" s="11" t="s">
         <v>3</v>
@@ -7345,8 +7333,8 @@
       <c r="A59" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B59" s="11" t="s">
-        <v>18</v>
+      <c r="B59" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C59" s="11" t="s">
         <v>3</v>
@@ -7422,8 +7410,8 @@
       <c r="A60" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B60" s="11" t="s">
-        <v>18</v>
+      <c r="B60" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C60" s="11" t="s">
         <v>3</v>
@@ -7499,8 +7487,8 @@
       <c r="A61" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B61" s="11" t="s">
-        <v>18</v>
+      <c r="B61" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C61" s="11" t="s">
         <v>3</v>
@@ -7576,8 +7564,8 @@
       <c r="A62" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B62" s="11" t="s">
-        <v>18</v>
+      <c r="B62" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C62" s="11" t="s">
         <v>3</v>
@@ -7653,8 +7641,8 @@
       <c r="A63" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B63" s="11" t="s">
-        <v>18</v>
+      <c r="B63" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C63" s="11" t="s">
         <v>3</v>
@@ -7730,8 +7718,8 @@
       <c r="A64" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B64" s="11" t="s">
-        <v>18</v>
+      <c r="B64" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C64" s="11" t="s">
         <v>3</v>
@@ -7807,8 +7795,8 @@
       <c r="A65" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B65" s="11" t="s">
-        <v>18</v>
+      <c r="B65" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C65" s="11" t="s">
         <v>3</v>
@@ -7884,8 +7872,8 @@
       <c r="A66" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B66" s="11" t="s">
-        <v>18</v>
+      <c r="B66" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C66" s="11" t="s">
         <v>3</v>
@@ -7961,8 +7949,8 @@
       <c r="A67" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B67" s="11" t="s">
-        <v>18</v>
+      <c r="B67" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C67" s="11" t="s">
         <v>3</v>
@@ -8038,8 +8026,8 @@
       <c r="A68" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B68" s="11" t="s">
-        <v>18</v>
+      <c r="B68" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C68" s="11" t="s">
         <v>3</v>
@@ -8115,8 +8103,8 @@
       <c r="A69" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B69" s="11" t="s">
-        <v>18</v>
+      <c r="B69" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C69" s="11" t="s">
         <v>3</v>
@@ -8192,8 +8180,8 @@
       <c r="A70" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B70" s="11" t="s">
-        <v>18</v>
+      <c r="B70" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C70" s="11" t="s">
         <v>3</v>
@@ -8269,8 +8257,8 @@
       <c r="A71" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B71" s="11" t="s">
-        <v>18</v>
+      <c r="B71" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C71" s="11" t="s">
         <v>3</v>
@@ -8346,8 +8334,8 @@
       <c r="A72" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B72" s="11" t="s">
-        <v>18</v>
+      <c r="B72" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C72" s="11" t="s">
         <v>3</v>
@@ -8423,8 +8411,8 @@
       <c r="A73" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B73" s="11" t="s">
-        <v>18</v>
+      <c r="B73" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C73" s="11" t="s">
         <v>3</v>
@@ -8500,8 +8488,8 @@
       <c r="A74" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B74" s="11" t="s">
-        <v>18</v>
+      <c r="B74" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C74" s="11" t="s">
         <v>3</v>
@@ -8577,8 +8565,8 @@
       <c r="A75" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B75" s="11" t="s">
-        <v>18</v>
+      <c r="B75" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C75" s="11" t="s">
         <v>3</v>
@@ -8654,8 +8642,8 @@
       <c r="A76" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B76" s="11" t="s">
-        <v>18</v>
+      <c r="B76" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C76" s="11" t="s">
         <v>3</v>
@@ -8731,8 +8719,8 @@
       <c r="A77" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B77" s="11" t="s">
-        <v>18</v>
+      <c r="B77" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C77" s="11" t="s">
         <v>3</v>
@@ -8808,8 +8796,8 @@
       <c r="A78" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B78" s="11" t="s">
-        <v>18</v>
+      <c r="B78" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C78" s="11" t="s">
         <v>3</v>
@@ -8885,8 +8873,8 @@
       <c r="A79" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B79" s="11" t="s">
-        <v>18</v>
+      <c r="B79" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C79" s="11" t="s">
         <v>3</v>
@@ -8962,8 +8950,8 @@
       <c r="A80" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B80" s="11" t="s">
-        <v>18</v>
+      <c r="B80" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C80" s="11" t="s">
         <v>3</v>
@@ -9039,8 +9027,8 @@
       <c r="A81" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B81" s="11" t="s">
-        <v>18</v>
+      <c r="B81" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C81" s="11" t="s">
         <v>3</v>
@@ -9116,8 +9104,8 @@
       <c r="A82" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B82" s="11" t="s">
-        <v>18</v>
+      <c r="B82" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C82" s="11" t="s">
         <v>3</v>
@@ -9193,8 +9181,8 @@
       <c r="A83" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B83" s="11" t="s">
-        <v>18</v>
+      <c r="B83" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C83" s="11" t="s">
         <v>3</v>
@@ -9270,8 +9258,8 @@
       <c r="A84" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B84" s="11" t="s">
-        <v>18</v>
+      <c r="B84" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C84" s="11" t="s">
         <v>3</v>
@@ -9347,8 +9335,8 @@
       <c r="A85" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B85" s="11" t="s">
-        <v>18</v>
+      <c r="B85" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C85" s="11" t="s">
         <v>3</v>
@@ -9424,8 +9412,8 @@
       <c r="A86" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B86" s="11" t="s">
-        <v>18</v>
+      <c r="B86" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C86" s="11" t="s">
         <v>3</v>
@@ -9501,8 +9489,8 @@
       <c r="A87" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B87" s="11" t="s">
-        <v>18</v>
+      <c r="B87" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C87" s="11" t="s">
         <v>3</v>
@@ -9578,8 +9566,8 @@
       <c r="A88" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B88" s="11" t="s">
-        <v>18</v>
+      <c r="B88" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C88" s="11" t="s">
         <v>3</v>
@@ -9655,8 +9643,8 @@
       <c r="A89" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B89" s="11" t="s">
-        <v>18</v>
+      <c r="B89" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C89" s="11" t="s">
         <v>3</v>
@@ -9732,8 +9720,8 @@
       <c r="A90" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B90" s="11" t="s">
-        <v>18</v>
+      <c r="B90" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C90" s="11" t="s">
         <v>3</v>
@@ -9809,8 +9797,8 @@
       <c r="A91" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="B91" s="11" t="s">
-        <v>18</v>
+      <c r="B91" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C91" s="11" t="s">
         <v>3</v>
@@ -9886,8 +9874,8 @@
       <c r="A92" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B92" s="11" t="s">
-        <v>18</v>
+      <c r="B92" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C92" s="11" t="s">
         <v>3</v>
@@ -9963,8 +9951,8 @@
       <c r="A93" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B93" s="11" t="s">
-        <v>18</v>
+      <c r="B93" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C93" s="11" t="s">
         <v>3</v>
@@ -10040,8 +10028,8 @@
       <c r="A94" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B94" s="11" t="s">
-        <v>18</v>
+      <c r="B94" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C94" s="11" t="s">
         <v>3</v>
@@ -10117,8 +10105,8 @@
       <c r="A95" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B95" s="11" t="s">
-        <v>18</v>
+      <c r="B95" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C95" s="11" t="s">
         <v>3</v>
@@ -10194,8 +10182,8 @@
       <c r="A96" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="B96" s="11" t="s">
-        <v>18</v>
+      <c r="B96" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C96" s="11" t="s">
         <v>3</v>
@@ -10271,8 +10259,8 @@
       <c r="A97" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="B97" s="11" t="s">
-        <v>18</v>
+      <c r="B97" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C97" s="11" t="s">
         <v>3</v>
@@ -10348,8 +10336,8 @@
       <c r="A98" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B98" s="11" t="s">
-        <v>18</v>
+      <c r="B98" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C98" s="11" t="s">
         <v>3</v>
@@ -10425,8 +10413,8 @@
       <c r="A99" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="B99" s="11" t="s">
-        <v>18</v>
+      <c r="B99" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C99" s="11" t="s">
         <v>3</v>
@@ -10502,8 +10490,8 @@
       <c r="A100" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B100" s="11" t="s">
-        <v>18</v>
+      <c r="B100" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C100" s="11" t="s">
         <v>3</v>
@@ -10579,8 +10567,8 @@
       <c r="A101" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="B101" s="11" t="s">
-        <v>18</v>
+      <c r="B101" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C101" s="11" t="s">
         <v>3</v>
@@ -10656,8 +10644,8 @@
       <c r="A102" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="B102" s="11" t="s">
-        <v>18</v>
+      <c r="B102" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C102" s="11" t="s">
         <v>3</v>
@@ -10733,8 +10721,8 @@
       <c r="A103" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="B103" s="11" t="s">
-        <v>18</v>
+      <c r="B103" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C103" s="11" t="s">
         <v>3</v>
@@ -10810,8 +10798,8 @@
       <c r="A104" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="B104" s="11" t="s">
-        <v>18</v>
+      <c r="B104" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C104" s="11" t="s">
         <v>3</v>
@@ -10887,8 +10875,8 @@
       <c r="A105" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="B105" s="11" t="s">
-        <v>18</v>
+      <c r="B105" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C105" s="11" t="s">
         <v>3</v>
@@ -10964,8 +10952,8 @@
       <c r="A106" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="B106" s="11" t="s">
-        <v>18</v>
+      <c r="B106" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C106" s="11" t="s">
         <v>3</v>
@@ -11041,8 +11029,8 @@
       <c r="A107" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="B107" s="11" t="s">
-        <v>18</v>
+      <c r="B107" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C107" s="11" t="s">
         <v>3</v>
@@ -11118,8 +11106,8 @@
       <c r="A108" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="B108" s="11" t="s">
-        <v>18</v>
+      <c r="B108" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C108" s="11" t="s">
         <v>3</v>
@@ -11195,8 +11183,8 @@
       <c r="A109" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="B109" s="11" t="s">
-        <v>18</v>
+      <c r="B109" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C109" s="11" t="s">
         <v>3</v>
@@ -11272,8 +11260,8 @@
       <c r="A110" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="B110" s="11" t="s">
-        <v>18</v>
+      <c r="B110" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C110" s="11" t="s">
         <v>3</v>
@@ -11349,8 +11337,8 @@
       <c r="A111" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="B111" s="11" t="s">
-        <v>18</v>
+      <c r="B111" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C111" s="11" t="s">
         <v>3</v>
@@ -11426,8 +11414,8 @@
       <c r="A112" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="B112" s="11" t="s">
-        <v>18</v>
+      <c r="B112" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C112" s="11" t="s">
         <v>3</v>
@@ -11503,8 +11491,8 @@
       <c r="A113" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="B113" s="11" t="s">
-        <v>18</v>
+      <c r="B113" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C113" s="11" t="s">
         <v>3</v>
@@ -11580,8 +11568,8 @@
       <c r="A114" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="B114" s="11" t="s">
-        <v>18</v>
+      <c r="B114" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C114" s="11" t="s">
         <v>3</v>
@@ -11657,8 +11645,8 @@
       <c r="A115" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="B115" s="11" t="s">
-        <v>18</v>
+      <c r="B115" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C115" s="11" t="s">
         <v>3</v>
@@ -11734,8 +11722,8 @@
       <c r="A116" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="B116" s="11" t="s">
-        <v>18</v>
+      <c r="B116" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C116" s="11" t="s">
         <v>3</v>
@@ -11811,8 +11799,8 @@
       <c r="A117" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="B117" s="11" t="s">
-        <v>18</v>
+      <c r="B117" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C117" s="11" t="s">
         <v>3</v>
@@ -11888,8 +11876,8 @@
       <c r="A118" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="B118" s="11" t="s">
-        <v>18</v>
+      <c r="B118" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C118" s="11" t="s">
         <v>3</v>
@@ -11965,8 +11953,8 @@
       <c r="A119" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="B119" s="11" t="s">
-        <v>18</v>
+      <c r="B119" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C119" s="11" t="s">
         <v>3</v>
@@ -12042,8 +12030,8 @@
       <c r="A120" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="B120" s="11" t="s">
-        <v>18</v>
+      <c r="B120" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C120" s="11" t="s">
         <v>3</v>
@@ -12119,8 +12107,8 @@
       <c r="A121" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="B121" s="11" t="s">
-        <v>18</v>
+      <c r="B121" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C121" s="11" t="s">
         <v>3</v>
@@ -12196,8 +12184,8 @@
       <c r="A122" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="B122" s="11" t="s">
-        <v>18</v>
+      <c r="B122" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C122" s="11" t="s">
         <v>3</v>
@@ -12273,8 +12261,8 @@
       <c r="A123" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="B123" s="11" t="s">
-        <v>18</v>
+      <c r="B123" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C123" s="11" t="s">
         <v>3</v>
@@ -12350,8 +12338,8 @@
       <c r="A124" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="B124" s="11" t="s">
-        <v>18</v>
+      <c r="B124" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C124" s="11" t="s">
         <v>3</v>
@@ -12427,8 +12415,8 @@
       <c r="A125" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="B125" s="11" t="s">
-        <v>18</v>
+      <c r="B125" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C125" s="11" t="s">
         <v>3</v>
@@ -12504,8 +12492,8 @@
       <c r="A126" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="B126" s="11" t="s">
-        <v>18</v>
+      <c r="B126" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C126" s="11" t="s">
         <v>3</v>
@@ -12581,8 +12569,8 @@
       <c r="A127" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="B127" s="11" t="s">
-        <v>18</v>
+      <c r="B127" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C127" s="11" t="s">
         <v>3</v>
@@ -12658,8 +12646,8 @@
       <c r="A128" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="B128" s="11" t="s">
-        <v>18</v>
+      <c r="B128" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C128" s="11" t="s">
         <v>3</v>
@@ -12735,8 +12723,8 @@
       <c r="A129" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="B129" s="11" t="s">
-        <v>18</v>
+      <c r="B129" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C129" s="11" t="s">
         <v>3</v>
@@ -12812,8 +12800,8 @@
       <c r="A130" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="B130" s="11" t="s">
-        <v>18</v>
+      <c r="B130" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C130" s="11" t="s">
         <v>3</v>
@@ -12889,8 +12877,8 @@
       <c r="A131" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="B131" s="11" t="s">
-        <v>18</v>
+      <c r="B131" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C131" s="11" t="s">
         <v>3</v>
@@ -12966,8 +12954,8 @@
       <c r="A132" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="B132" s="11" t="s">
-        <v>18</v>
+      <c r="B132" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C132" s="11" t="s">
         <v>3</v>
@@ -13043,8 +13031,8 @@
       <c r="A133" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="B133" s="11" t="s">
-        <v>18</v>
+      <c r="B133" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C133" s="11" t="s">
         <v>3</v>
@@ -13120,8 +13108,8 @@
       <c r="A134" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="B134" s="11" t="s">
-        <v>18</v>
+      <c r="B134" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C134" s="11" t="s">
         <v>3</v>
@@ -13197,8 +13185,8 @@
       <c r="A135" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="B135" s="11" t="s">
-        <v>18</v>
+      <c r="B135" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C135" s="11" t="s">
         <v>3</v>
@@ -13274,8 +13262,8 @@
       <c r="A136" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="B136" s="11" t="s">
-        <v>18</v>
+      <c r="B136" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C136" s="11" t="s">
         <v>3</v>
@@ -13351,8 +13339,8 @@
       <c r="A137" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="B137" s="11" t="s">
-        <v>18</v>
+      <c r="B137" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C137" s="11" t="s">
         <v>3</v>
@@ -13428,8 +13416,8 @@
       <c r="A138" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="B138" s="11" t="s">
-        <v>18</v>
+      <c r="B138" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C138" s="11" t="s">
         <v>3</v>
@@ -13505,8 +13493,8 @@
       <c r="A139" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="B139" s="11" t="s">
-        <v>18</v>
+      <c r="B139" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C139" s="11" t="s">
         <v>3</v>
@@ -13582,8 +13570,8 @@
       <c r="A140" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="B140" s="11" t="s">
-        <v>18</v>
+      <c r="B140" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C140" s="11" t="s">
         <v>3</v>
@@ -13659,8 +13647,8 @@
       <c r="A141" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="B141" s="11" t="s">
-        <v>18</v>
+      <c r="B141" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C141" s="11" t="s">
         <v>3</v>
@@ -13736,8 +13724,8 @@
       <c r="A142" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="B142" s="11" t="s">
-        <v>18</v>
+      <c r="B142" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C142" s="11" t="s">
         <v>3</v>
@@ -13813,8 +13801,8 @@
       <c r="A143" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="B143" s="11" t="s">
-        <v>18</v>
+      <c r="B143" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C143" s="11" t="s">
         <v>3</v>
@@ -13890,8 +13878,8 @@
       <c r="A144" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="B144" s="11" t="s">
-        <v>18</v>
+      <c r="B144" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C144" s="11" t="s">
         <v>3</v>
@@ -13967,8 +13955,8 @@
       <c r="A145" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="B145" s="11" t="s">
-        <v>18</v>
+      <c r="B145" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C145" s="11" t="s">
         <v>3</v>
@@ -14044,8 +14032,8 @@
       <c r="A146" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="B146" s="11" t="s">
-        <v>18</v>
+      <c r="B146" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C146" s="11" t="s">
         <v>3</v>
@@ -14121,8 +14109,8 @@
       <c r="A147" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="B147" s="11" t="s">
-        <v>18</v>
+      <c r="B147" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C147" s="11" t="s">
         <v>3</v>
@@ -14198,8 +14186,8 @@
       <c r="A148" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="B148" s="11" t="s">
-        <v>18</v>
+      <c r="B148" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C148" s="11" t="s">
         <v>3</v>
@@ -14275,8 +14263,8 @@
       <c r="A149" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="B149" s="11" t="s">
-        <v>18</v>
+      <c r="B149" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C149" s="11" t="s">
         <v>3</v>
@@ -14352,8 +14340,8 @@
       <c r="A150" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="B150" s="11" t="s">
-        <v>18</v>
+      <c r="B150" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C150" s="11" t="s">
         <v>3</v>
@@ -14429,8 +14417,8 @@
       <c r="A151" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="B151" s="11" t="s">
-        <v>18</v>
+      <c r="B151" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C151" s="11" t="s">
         <v>3</v>
@@ -14506,8 +14494,8 @@
       <c r="A152" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="B152" s="11" t="s">
-        <v>18</v>
+      <c r="B152" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C152" s="11" t="s">
         <v>3</v>
@@ -14583,8 +14571,8 @@
       <c r="A153" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="B153" s="11" t="s">
-        <v>18</v>
+      <c r="B153" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C153" s="11" t="s">
         <v>3</v>
@@ -14660,8 +14648,8 @@
       <c r="A154" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="B154" s="11" t="s">
-        <v>18</v>
+      <c r="B154" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C154" s="11" t="s">
         <v>3</v>
@@ -14737,8 +14725,8 @@
       <c r="A155" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="B155" s="11" t="s">
-        <v>18</v>
+      <c r="B155" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C155" s="11" t="s">
         <v>3</v>
@@ -14814,8 +14802,8 @@
       <c r="A156" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="B156" s="11" t="s">
-        <v>18</v>
+      <c r="B156" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C156" s="11" t="s">
         <v>3</v>
@@ -14891,8 +14879,8 @@
       <c r="A157" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="B157" s="11" t="s">
-        <v>18</v>
+      <c r="B157" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C157" s="11" t="s">
         <v>3</v>
@@ -14968,8 +14956,8 @@
       <c r="A158" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="B158" s="11" t="s">
-        <v>18</v>
+      <c r="B158" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C158" s="11" t="s">
         <v>3</v>
@@ -15045,8 +15033,8 @@
       <c r="A159" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="B159" s="11" t="s">
-        <v>18</v>
+      <c r="B159" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C159" s="11" t="s">
         <v>3</v>
@@ -15122,8 +15110,8 @@
       <c r="A160" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="B160" s="11" t="s">
-        <v>18</v>
+      <c r="B160" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C160" s="11" t="s">
         <v>3</v>
@@ -15199,8 +15187,8 @@
       <c r="A161" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="B161" s="11" t="s">
-        <v>18</v>
+      <c r="B161" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C161" s="11" t="s">
         <v>3</v>
@@ -15276,8 +15264,8 @@
       <c r="A162" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="B162" s="11" t="s">
-        <v>18</v>
+      <c r="B162" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C162" s="11" t="s">
         <v>3</v>
@@ -15353,8 +15341,8 @@
       <c r="A163" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="B163" s="11" t="s">
-        <v>18</v>
+      <c r="B163" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C163" s="11" t="s">
         <v>3</v>
@@ -15430,8 +15418,8 @@
       <c r="A164" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="B164" s="11" t="s">
-        <v>18</v>
+      <c r="B164" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C164" s="11" t="s">
         <v>3</v>
@@ -15507,8 +15495,8 @@
       <c r="A165" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="B165" s="11" t="s">
-        <v>18</v>
+      <c r="B165" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C165" s="11" t="s">
         <v>3</v>
@@ -15584,8 +15572,8 @@
       <c r="A166" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="B166" s="11" t="s">
-        <v>18</v>
+      <c r="B166" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C166" s="11" t="s">
         <v>3</v>
@@ -15661,8 +15649,8 @@
       <c r="A167" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="B167" s="11" t="s">
-        <v>18</v>
+      <c r="B167" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C167" s="11" t="s">
         <v>3</v>
@@ -15738,8 +15726,8 @@
       <c r="A168" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="B168" s="11" t="s">
-        <v>18</v>
+      <c r="B168" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C168" s="11" t="s">
         <v>3</v>
@@ -15815,8 +15803,8 @@
       <c r="A169" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="B169" s="11" t="s">
-        <v>18</v>
+      <c r="B169" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C169" s="11" t="s">
         <v>3</v>
@@ -15892,8 +15880,8 @@
       <c r="A170" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="B170" s="11" t="s">
-        <v>18</v>
+      <c r="B170" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C170" s="11" t="s">
         <v>3</v>
@@ -15969,8 +15957,8 @@
       <c r="A171" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="B171" s="11" t="s">
-        <v>18</v>
+      <c r="B171" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C171" s="11" t="s">
         <v>3</v>
@@ -16046,8 +16034,8 @@
       <c r="A172" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="B172" s="11" t="s">
-        <v>18</v>
+      <c r="B172" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C172" s="11" t="s">
         <v>3</v>
@@ -16123,8 +16111,8 @@
       <c r="A173" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="B173" s="11" t="s">
-        <v>18</v>
+      <c r="B173" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C173" s="11" t="s">
         <v>3</v>
@@ -16200,8 +16188,8 @@
       <c r="A174" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="B174" s="11" t="s">
-        <v>18</v>
+      <c r="B174" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C174" s="11" t="s">
         <v>3</v>
@@ -16277,8 +16265,8 @@
       <c r="A175" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="B175" s="11" t="s">
-        <v>18</v>
+      <c r="B175" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C175" s="11" t="s">
         <v>3</v>
@@ -16354,8 +16342,8 @@
       <c r="A176" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="B176" s="11" t="s">
-        <v>18</v>
+      <c r="B176" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C176" s="11" t="s">
         <v>3</v>
@@ -16431,8 +16419,8 @@
       <c r="A177" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="B177" s="11" t="s">
-        <v>18</v>
+      <c r="B177" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C177" s="11" t="s">
         <v>3</v>
@@ -16508,8 +16496,8 @@
       <c r="A178" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="B178" s="11" t="s">
-        <v>18</v>
+      <c r="B178" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C178" s="11" t="s">
         <v>3</v>
@@ -16585,8 +16573,8 @@
       <c r="A179" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="B179" s="11" t="s">
-        <v>18</v>
+      <c r="B179" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C179" s="11" t="s">
         <v>3</v>
@@ -16662,8 +16650,8 @@
       <c r="A180" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="B180" s="11" t="s">
-        <v>18</v>
+      <c r="B180" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C180" s="11" t="s">
         <v>3</v>
@@ -16739,8 +16727,8 @@
       <c r="A181" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="B181" s="11" t="s">
-        <v>18</v>
+      <c r="B181" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C181" s="11" t="s">
         <v>3</v>
@@ -16816,8 +16804,8 @@
       <c r="A182" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="B182" s="11" t="s">
-        <v>18</v>
+      <c r="B182" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C182" s="11" t="s">
         <v>3</v>
@@ -16893,8 +16881,8 @@
       <c r="A183" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="B183" s="11" t="s">
-        <v>18</v>
+      <c r="B183" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C183" s="11" t="s">
         <v>3</v>
@@ -16970,8 +16958,8 @@
       <c r="A184" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="B184" s="11" t="s">
-        <v>18</v>
+      <c r="B184" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C184" s="11" t="s">
         <v>3</v>
@@ -17047,8 +17035,8 @@
       <c r="A185" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="B185" s="11" t="s">
-        <v>18</v>
+      <c r="B185" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C185" s="11" t="s">
         <v>3</v>
@@ -17124,8 +17112,8 @@
       <c r="A186" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="B186" s="11" t="s">
-        <v>18</v>
+      <c r="B186" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C186" s="11" t="s">
         <v>3</v>
@@ -17201,8 +17189,8 @@
       <c r="A187" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="B187" s="11" t="s">
-        <v>18</v>
+      <c r="B187" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C187" s="11" t="s">
         <v>3</v>
@@ -17278,8 +17266,8 @@
       <c r="A188" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="B188" s="11" t="s">
-        <v>18</v>
+      <c r="B188" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C188" s="11" t="s">
         <v>3</v>
@@ -17355,8 +17343,8 @@
       <c r="A189" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="B189" s="11" t="s">
-        <v>18</v>
+      <c r="B189" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C189" s="11" t="s">
         <v>3</v>
@@ -17432,8 +17420,8 @@
       <c r="A190" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="B190" s="11" t="s">
-        <v>18</v>
+      <c r="B190" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C190" s="11" t="s">
         <v>3</v>
@@ -17509,8 +17497,8 @@
       <c r="A191" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="B191" s="11" t="s">
-        <v>18</v>
+      <c r="B191" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C191" s="11" t="s">
         <v>3</v>
@@ -17586,8 +17574,8 @@
       <c r="A192" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="B192" s="11" t="s">
-        <v>18</v>
+      <c r="B192" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C192" s="11" t="s">
         <v>3</v>
@@ -17663,8 +17651,8 @@
       <c r="A193" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="B193" s="11" t="s">
-        <v>18</v>
+      <c r="B193" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C193" s="11" t="s">
         <v>3</v>
@@ -17740,8 +17728,8 @@
       <c r="A194" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="B194" s="11" t="s">
-        <v>18</v>
+      <c r="B194" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C194" s="11" t="s">
         <v>3</v>
@@ -17817,8 +17805,8 @@
       <c r="A195" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="B195" s="11" t="s">
-        <v>18</v>
+      <c r="B195" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C195" s="11" t="s">
         <v>3</v>
@@ -17894,8 +17882,8 @@
       <c r="A196" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="B196" s="11" t="s">
-        <v>18</v>
+      <c r="B196" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C196" s="11" t="s">
         <v>3</v>
@@ -17971,8 +17959,8 @@
       <c r="A197" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="B197" s="11" t="s">
-        <v>18</v>
+      <c r="B197" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C197" s="11" t="s">
         <v>3</v>
@@ -18048,8 +18036,8 @@
       <c r="A198" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="B198" s="11" t="s">
-        <v>18</v>
+      <c r="B198" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C198" s="11" t="s">
         <v>3</v>
@@ -18125,8 +18113,8 @@
       <c r="A199" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="B199" s="11" t="s">
-        <v>18</v>
+      <c r="B199" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C199" s="11" t="s">
         <v>3</v>
@@ -18202,8 +18190,8 @@
       <c r="A200" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="B200" s="11" t="s">
-        <v>18</v>
+      <c r="B200" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C200" s="11" t="s">
         <v>3</v>
@@ -18279,8 +18267,8 @@
       <c r="A201" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="B201" s="11" t="s">
-        <v>18</v>
+      <c r="B201" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C201" s="11" t="s">
         <v>3</v>
@@ -18356,8 +18344,8 @@
       <c r="A202" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="B202" s="11" t="s">
-        <v>18</v>
+      <c r="B202" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C202" s="11" t="s">
         <v>3</v>
@@ -18433,8 +18421,8 @@
       <c r="A203" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="B203" s="11" t="s">
-        <v>18</v>
+      <c r="B203" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C203" s="11" t="s">
         <v>3</v>
@@ -18510,8 +18498,8 @@
       <c r="A204" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="B204" s="11" t="s">
-        <v>18</v>
+      <c r="B204" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C204" s="11" t="s">
         <v>3</v>
@@ -18587,8 +18575,8 @@
       <c r="A205" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="B205" s="11" t="s">
-        <v>18</v>
+      <c r="B205" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C205" s="11" t="s">
         <v>3</v>
@@ -18664,8 +18652,8 @@
       <c r="A206" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="B206" s="11" t="s">
-        <v>18</v>
+      <c r="B206" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C206" s="11" t="s">
         <v>3</v>
@@ -18741,8 +18729,8 @@
       <c r="A207" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="B207" s="11" t="s">
-        <v>18</v>
+      <c r="B207" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C207" s="11" t="s">
         <v>3</v>
@@ -18818,8 +18806,8 @@
       <c r="A208" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="B208" s="11" t="s">
-        <v>18</v>
+      <c r="B208" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C208" s="11" t="s">
         <v>3</v>
@@ -18895,8 +18883,8 @@
       <c r="A209" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="B209" s="11" t="s">
-        <v>18</v>
+      <c r="B209" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C209" s="11" t="s">
         <v>3</v>
@@ -18972,8 +18960,8 @@
       <c r="A210" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="B210" s="11" t="s">
-        <v>18</v>
+      <c r="B210" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C210" s="11" t="s">
         <v>3</v>
@@ -19049,8 +19037,8 @@
       <c r="A211" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="B211" s="11" t="s">
-        <v>18</v>
+      <c r="B211" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C211" s="11" t="s">
         <v>3</v>
@@ -19126,8 +19114,8 @@
       <c r="A212" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="B212" s="11" t="s">
-        <v>18</v>
+      <c r="B212" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C212" s="11" t="s">
         <v>3</v>
@@ -19203,8 +19191,8 @@
       <c r="A213" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="B213" s="11" t="s">
-        <v>18</v>
+      <c r="B213" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C213" s="11" t="s">
         <v>3</v>
@@ -19280,8 +19268,8 @@
       <c r="A214" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="B214" s="11" t="s">
-        <v>18</v>
+      <c r="B214" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C214" s="11" t="s">
         <v>3</v>
@@ -19357,8 +19345,8 @@
       <c r="A215" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="B215" s="11" t="s">
-        <v>18</v>
+      <c r="B215" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C215" s="11" t="s">
         <v>3</v>
@@ -19434,8 +19422,8 @@
       <c r="A216" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="B216" s="11" t="s">
-        <v>18</v>
+      <c r="B216" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C216" s="11" t="s">
         <v>3</v>
@@ -19511,8 +19499,8 @@
       <c r="A217" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="B217" s="11" t="s">
-        <v>18</v>
+      <c r="B217" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C217" s="11" t="s">
         <v>3</v>
@@ -19588,8 +19576,8 @@
       <c r="A218" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="B218" s="11" t="s">
-        <v>18</v>
+      <c r="B218" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C218" s="11" t="s">
         <v>3</v>
@@ -19665,8 +19653,8 @@
       <c r="A219" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="B219" s="11" t="s">
-        <v>18</v>
+      <c r="B219" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C219" s="11" t="s">
         <v>3</v>
@@ -19742,8 +19730,8 @@
       <c r="A220" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="B220" s="11" t="s">
-        <v>18</v>
+      <c r="B220" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C220" s="11" t="s">
         <v>3</v>
@@ -19819,8 +19807,8 @@
       <c r="A221" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="B221" s="11" t="s">
-        <v>18</v>
+      <c r="B221" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C221" s="11" t="s">
         <v>3</v>
@@ -19896,8 +19884,8 @@
       <c r="A222" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="B222" s="11" t="s">
-        <v>18</v>
+      <c r="B222" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C222" s="11" t="s">
         <v>3</v>
@@ -19973,8 +19961,8 @@
       <c r="A223" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="B223" s="11" t="s">
-        <v>18</v>
+      <c r="B223" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C223" s="11" t="s">
         <v>3</v>
@@ -20050,8 +20038,8 @@
       <c r="A224" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="B224" s="11" t="s">
-        <v>18</v>
+      <c r="B224" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C224" s="11" t="s">
         <v>3</v>
@@ -20127,8 +20115,8 @@
       <c r="A225" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="B225" s="11" t="s">
-        <v>18</v>
+      <c r="B225" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C225" s="11" t="s">
         <v>3</v>
@@ -20204,8 +20192,8 @@
       <c r="A226" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="B226" s="11" t="s">
-        <v>18</v>
+      <c r="B226" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C226" s="11" t="s">
         <v>3</v>
@@ -20281,8 +20269,8 @@
       <c r="A227" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="B227" s="11" t="s">
-        <v>18</v>
+      <c r="B227" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C227" s="11" t="s">
         <v>3</v>
@@ -20358,8 +20346,8 @@
       <c r="A228" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="B228" s="11" t="s">
-        <v>18</v>
+      <c r="B228" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C228" s="11" t="s">
         <v>3</v>
@@ -20435,8 +20423,8 @@
       <c r="A229" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="B229" s="11" t="s">
-        <v>18</v>
+      <c r="B229" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C229" s="11" t="s">
         <v>3</v>
@@ -20512,8 +20500,8 @@
       <c r="A230" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="B230" s="11" t="s">
-        <v>18</v>
+      <c r="B230" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C230" s="11" t="s">
         <v>3</v>
@@ -20589,8 +20577,8 @@
       <c r="A231" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="B231" s="11" t="s">
-        <v>18</v>
+      <c r="B231" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C231" s="11" t="s">
         <v>3</v>
@@ -20666,8 +20654,8 @@
       <c r="A232" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="B232" s="11" t="s">
-        <v>18</v>
+      <c r="B232" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C232" s="11" t="s">
         <v>3</v>
@@ -20743,8 +20731,8 @@
       <c r="A233" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="B233" s="11" t="s">
-        <v>18</v>
+      <c r="B233" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C233" s="11" t="s">
         <v>3</v>
@@ -20820,8 +20808,8 @@
       <c r="A234" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="B234" s="11" t="s">
-        <v>18</v>
+      <c r="B234" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C234" s="11" t="s">
         <v>3</v>
@@ -20897,8 +20885,8 @@
       <c r="A235" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="B235" s="11" t="s">
-        <v>18</v>
+      <c r="B235" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C235" s="11" t="s">
         <v>3</v>
@@ -20974,8 +20962,8 @@
       <c r="A236" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="B236" s="11" t="s">
-        <v>18</v>
+      <c r="B236" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C236" s="11" t="s">
         <v>3</v>
@@ -21051,8 +21039,8 @@
       <c r="A237" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="B237" s="11" t="s">
-        <v>18</v>
+      <c r="B237" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C237" s="11" t="s">
         <v>3</v>
@@ -21128,8 +21116,8 @@
       <c r="A238" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="B238" s="11" t="s">
-        <v>18</v>
+      <c r="B238" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C238" s="11" t="s">
         <v>3</v>
@@ -21205,8 +21193,8 @@
       <c r="A239" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="B239" s="11" t="s">
-        <v>18</v>
+      <c r="B239" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C239" s="11" t="s">
         <v>3</v>
@@ -21282,8 +21270,8 @@
       <c r="A240" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="B240" s="11" t="s">
-        <v>18</v>
+      <c r="B240" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C240" s="11" t="s">
         <v>3</v>
@@ -21359,8 +21347,8 @@
       <c r="A241" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="B241" s="11" t="s">
-        <v>18</v>
+      <c r="B241" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C241" s="11" t="s">
         <v>3</v>
@@ -21436,8 +21424,8 @@
       <c r="A242" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="B242" s="11" t="s">
-        <v>18</v>
+      <c r="B242" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C242" s="11" t="s">
         <v>3</v>
@@ -21513,8 +21501,8 @@
       <c r="A243" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="B243" s="11" t="s">
-        <v>18</v>
+      <c r="B243" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C243" s="11" t="s">
         <v>3</v>
@@ -21590,8 +21578,8 @@
       <c r="A244" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="B244" s="11" t="s">
-        <v>18</v>
+      <c r="B244" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C244" s="11" t="s">
         <v>3</v>
@@ -21667,8 +21655,8 @@
       <c r="A245" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="B245" s="11" t="s">
-        <v>18</v>
+      <c r="B245" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C245" s="11" t="s">
         <v>3</v>
@@ -21744,8 +21732,8 @@
       <c r="A246" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="B246" s="11" t="s">
-        <v>18</v>
+      <c r="B246" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C246" s="11" t="s">
         <v>3</v>
@@ -21821,8 +21809,8 @@
       <c r="A247" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="B247" s="11" t="s">
-        <v>18</v>
+      <c r="B247" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C247" s="11" t="s">
         <v>3</v>
@@ -21898,8 +21886,8 @@
       <c r="A248" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="B248" s="11" t="s">
-        <v>18</v>
+      <c r="B248" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C248" s="11" t="s">
         <v>3</v>
@@ -21975,8 +21963,8 @@
       <c r="A249" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="B249" s="11" t="s">
-        <v>18</v>
+      <c r="B249" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C249" s="11" t="s">
         <v>3</v>
@@ -22052,8 +22040,8 @@
       <c r="A250" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="B250" s="11" t="s">
-        <v>18</v>
+      <c r="B250" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C250" s="11" t="s">
         <v>3</v>
@@ -22129,8 +22117,8 @@
       <c r="A251" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="B251" s="11" t="s">
-        <v>18</v>
+      <c r="B251" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C251" s="11" t="s">
         <v>3</v>
@@ -22206,8 +22194,8 @@
       <c r="A252" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="B252" s="11" t="s">
-        <v>18</v>
+      <c r="B252" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C252" s="11" t="s">
         <v>3</v>
@@ -22283,8 +22271,8 @@
       <c r="A253" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="B253" s="11" t="s">
-        <v>18</v>
+      <c r="B253" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C253" s="11" t="s">
         <v>3</v>
@@ -22360,8 +22348,8 @@
       <c r="A254" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="B254" s="11" t="s">
-        <v>18</v>
+      <c r="B254" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C254" s="11" t="s">
         <v>3</v>
@@ -22437,8 +22425,8 @@
       <c r="A255" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="B255" s="11" t="s">
-        <v>18</v>
+      <c r="B255" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C255" s="11" t="s">
         <v>3</v>
@@ -22514,8 +22502,8 @@
       <c r="A256" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="B256" s="11" t="s">
-        <v>18</v>
+      <c r="B256" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C256" s="11" t="s">
         <v>3</v>
@@ -22591,8 +22579,8 @@
       <c r="A257" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="B257" s="11" t="s">
-        <v>18</v>
+      <c r="B257" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C257" s="11" t="s">
         <v>3</v>
@@ -22668,8 +22656,8 @@
       <c r="A258" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="B258" s="11" t="s">
-        <v>18</v>
+      <c r="B258" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C258" s="11" t="s">
         <v>3</v>
@@ -22745,8 +22733,8 @@
       <c r="A259" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="B259" s="11" t="s">
-        <v>18</v>
+      <c r="B259" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C259" s="11" t="s">
         <v>3</v>
@@ -22822,8 +22810,8 @@
       <c r="A260" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="B260" s="11" t="s">
-        <v>18</v>
+      <c r="B260" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C260" s="11" t="s">
         <v>3</v>
@@ -22899,8 +22887,8 @@
       <c r="A261" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="B261" s="11" t="s">
-        <v>18</v>
+      <c r="B261" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C261" s="11" t="s">
         <v>3</v>
@@ -22976,8 +22964,8 @@
       <c r="A262" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="B262" s="11" t="s">
-        <v>18</v>
+      <c r="B262" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C262" s="11" t="s">
         <v>3</v>
@@ -23053,8 +23041,8 @@
       <c r="A263" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="B263" s="11" t="s">
-        <v>18</v>
+      <c r="B263" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C263" s="11" t="s">
         <v>3</v>
@@ -23130,8 +23118,8 @@
       <c r="A264" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="B264" s="11" t="s">
-        <v>18</v>
+      <c r="B264" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C264" s="11" t="s">
         <v>3</v>
@@ -23207,8 +23195,8 @@
       <c r="A265" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="B265" s="11" t="s">
-        <v>18</v>
+      <c r="B265" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C265" s="11" t="s">
         <v>3</v>
@@ -23284,8 +23272,8 @@
       <c r="A266" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="B266" s="11" t="s">
-        <v>18</v>
+      <c r="B266" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C266" s="11" t="s">
         <v>3</v>
@@ -23361,8 +23349,8 @@
       <c r="A267" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="B267" s="11" t="s">
-        <v>18</v>
+      <c r="B267" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C267" s="11" t="s">
         <v>3</v>
@@ -23438,8 +23426,8 @@
       <c r="A268" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="B268" s="11" t="s">
-        <v>18</v>
+      <c r="B268" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C268" s="11" t="s">
         <v>3</v>
@@ -23515,8 +23503,8 @@
       <c r="A269" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="B269" s="11" t="s">
-        <v>18</v>
+      <c r="B269" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C269" s="11" t="s">
         <v>3</v>
@@ -23592,8 +23580,8 @@
       <c r="A270" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="B270" s="11" t="s">
-        <v>18</v>
+      <c r="B270" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C270" s="11" t="s">
         <v>3</v>
@@ -23669,8 +23657,8 @@
       <c r="A271" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="B271" s="11" t="s">
-        <v>18</v>
+      <c r="B271" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C271" s="11" t="s">
         <v>3</v>
@@ -23746,8 +23734,8 @@
       <c r="A272" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="B272" s="11" t="s">
-        <v>18</v>
+      <c r="B272" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C272" s="11" t="s">
         <v>3</v>
@@ -23823,8 +23811,8 @@
       <c r="A273" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="B273" s="11" t="s">
-        <v>18</v>
+      <c r="B273" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C273" s="11" t="s">
         <v>3</v>
@@ -23900,8 +23888,8 @@
       <c r="A274" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="B274" s="11" t="s">
-        <v>18</v>
+      <c r="B274" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C274" s="11" t="s">
         <v>3</v>
@@ -23977,8 +23965,8 @@
       <c r="A275" t="s">
         <v>310</v>
       </c>
-      <c r="B275" s="11" t="s">
-        <v>18</v>
+      <c r="B275" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C275" s="11" t="s">
         <v>3</v>
@@ -24054,8 +24042,8 @@
       <c r="A276" t="s">
         <v>311</v>
       </c>
-      <c r="B276" s="11" t="s">
-        <v>18</v>
+      <c r="B276" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C276" s="11" t="s">
         <v>3</v>
@@ -24131,8 +24119,8 @@
       <c r="A277" t="s">
         <v>312</v>
       </c>
-      <c r="B277" s="11" t="s">
-        <v>18</v>
+      <c r="B277" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C277" s="11" t="s">
         <v>3</v>
@@ -24208,8 +24196,8 @@
       <c r="A278" t="s">
         <v>313</v>
       </c>
-      <c r="B278" s="11" t="s">
-        <v>18</v>
+      <c r="B278" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C278" s="11" t="s">
         <v>3</v>
@@ -24285,8 +24273,8 @@
       <c r="A279" t="s">
         <v>314</v>
       </c>
-      <c r="B279" s="11" t="s">
-        <v>18</v>
+      <c r="B279" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C279" s="11" t="s">
         <v>3</v>
@@ -24362,8 +24350,8 @@
       <c r="A280" t="s">
         <v>315</v>
       </c>
-      <c r="B280" s="11" t="s">
-        <v>18</v>
+      <c r="B280" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C280" s="11" t="s">
         <v>3</v>
@@ -24439,8 +24427,8 @@
       <c r="A281" t="s">
         <v>316</v>
       </c>
-      <c r="B281" s="11" t="s">
-        <v>18</v>
+      <c r="B281" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C281" s="11" t="s">
         <v>3</v>
@@ -24516,8 +24504,8 @@
       <c r="A282" t="s">
         <v>317</v>
       </c>
-      <c r="B282" s="11" t="s">
-        <v>18</v>
+      <c r="B282" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C282" s="11" t="s">
         <v>3</v>
@@ -24593,8 +24581,8 @@
       <c r="A283" t="s">
         <v>318</v>
       </c>
-      <c r="B283" s="11" t="s">
-        <v>18</v>
+      <c r="B283" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C283" s="11" t="s">
         <v>3</v>
@@ -24670,8 +24658,8 @@
       <c r="A284" t="s">
         <v>319</v>
       </c>
-      <c r="B284" s="11" t="s">
-        <v>18</v>
+      <c r="B284" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C284" s="11" t="s">
         <v>3</v>
@@ -24747,8 +24735,8 @@
       <c r="A285" t="s">
         <v>320</v>
       </c>
-      <c r="B285" s="11" t="s">
-        <v>18</v>
+      <c r="B285" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C285" s="11" t="s">
         <v>3</v>
@@ -24824,8 +24812,8 @@
       <c r="A286" t="s">
         <v>321</v>
       </c>
-      <c r="B286" s="11" t="s">
-        <v>18</v>
+      <c r="B286" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C286" s="11" t="s">
         <v>3</v>
@@ -24901,8 +24889,8 @@
       <c r="A287" t="s">
         <v>322</v>
       </c>
-      <c r="B287" s="11" t="s">
-        <v>18</v>
+      <c r="B287" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C287" s="11" t="s">
         <v>3</v>
@@ -24978,8 +24966,8 @@
       <c r="A288" t="s">
         <v>323</v>
       </c>
-      <c r="B288" s="11" t="s">
-        <v>18</v>
+      <c r="B288" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C288" s="11" t="s">
         <v>3</v>
@@ -25055,8 +25043,8 @@
       <c r="A289" t="s">
         <v>324</v>
       </c>
-      <c r="B289" s="11" t="s">
-        <v>18</v>
+      <c r="B289" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C289" s="11" t="s">
         <v>3</v>
@@ -25132,8 +25120,8 @@
       <c r="A290" t="s">
         <v>325</v>
       </c>
-      <c r="B290" s="11" t="s">
-        <v>18</v>
+      <c r="B290" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C290" s="11" t="s">
         <v>3</v>
@@ -25209,8 +25197,8 @@
       <c r="A291" t="s">
         <v>326</v>
       </c>
-      <c r="B291" s="11" t="s">
-        <v>18</v>
+      <c r="B291" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C291" s="11" t="s">
         <v>3</v>
@@ -25286,8 +25274,8 @@
       <c r="A292" t="s">
         <v>327</v>
       </c>
-      <c r="B292" s="11" t="s">
-        <v>18</v>
+      <c r="B292" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C292" s="11" t="s">
         <v>3</v>
@@ -25363,8 +25351,8 @@
       <c r="A293" t="s">
         <v>328</v>
       </c>
-      <c r="B293" s="11" t="s">
-        <v>18</v>
+      <c r="B293" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C293" s="11" t="s">
         <v>3</v>
@@ -25440,8 +25428,8 @@
       <c r="A294" t="s">
         <v>329</v>
       </c>
-      <c r="B294" s="11" t="s">
-        <v>18</v>
+      <c r="B294" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C294" s="11" t="s">
         <v>3</v>
@@ -25517,8 +25505,8 @@
       <c r="A295" t="s">
         <v>330</v>
       </c>
-      <c r="B295" s="11" t="s">
-        <v>18</v>
+      <c r="B295" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C295" s="11" t="s">
         <v>3</v>
@@ -25594,8 +25582,8 @@
       <c r="A296" t="s">
         <v>331</v>
       </c>
-      <c r="B296" s="11" t="s">
-        <v>18</v>
+      <c r="B296" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C296" s="11" t="s">
         <v>3</v>
@@ -25671,8 +25659,8 @@
       <c r="A297" t="s">
         <v>332</v>
       </c>
-      <c r="B297" s="11" t="s">
-        <v>18</v>
+      <c r="B297" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C297" s="11" t="s">
         <v>3</v>
@@ -25748,8 +25736,8 @@
       <c r="A298" t="s">
         <v>333</v>
       </c>
-      <c r="B298" s="11" t="s">
-        <v>18</v>
+      <c r="B298" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C298" s="11" t="s">
         <v>3</v>
@@ -25825,8 +25813,8 @@
       <c r="A299" t="s">
         <v>334</v>
       </c>
-      <c r="B299" s="11" t="s">
-        <v>18</v>
+      <c r="B299" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C299" s="11" t="s">
         <v>3</v>
@@ -25902,8 +25890,8 @@
       <c r="A300" t="s">
         <v>335</v>
       </c>
-      <c r="B300" s="11" t="s">
-        <v>18</v>
+      <c r="B300" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C300" s="11" t="s">
         <v>3</v>
@@ -25979,8 +25967,8 @@
       <c r="A301" t="s">
         <v>336</v>
       </c>
-      <c r="B301" s="11" t="s">
-        <v>18</v>
+      <c r="B301" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C301" s="11" t="s">
         <v>3</v>
@@ -26056,8 +26044,8 @@
       <c r="A302" t="s">
         <v>337</v>
       </c>
-      <c r="B302" s="11" t="s">
-        <v>18</v>
+      <c r="B302" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C302" s="11" t="s">
         <v>3</v>
@@ -26133,8 +26121,8 @@
       <c r="A303" t="s">
         <v>338</v>
       </c>
-      <c r="B303" s="11" t="s">
-        <v>18</v>
+      <c r="B303" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C303" s="11" t="s">
         <v>3</v>
@@ -26210,8 +26198,8 @@
       <c r="A304" t="s">
         <v>339</v>
       </c>
-      <c r="B304" s="11" t="s">
-        <v>18</v>
+      <c r="B304" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C304" s="11" t="s">
         <v>3</v>
@@ -26287,8 +26275,8 @@
       <c r="A305" t="s">
         <v>340</v>
       </c>
-      <c r="B305" s="11" t="s">
-        <v>18</v>
+      <c r="B305" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C305" s="11" t="s">
         <v>3</v>
@@ -26364,8 +26352,8 @@
       <c r="A306" t="s">
         <v>341</v>
       </c>
-      <c r="B306" s="11" t="s">
-        <v>18</v>
+      <c r="B306" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C306" s="11" t="s">
         <v>3</v>
@@ -26441,8 +26429,8 @@
       <c r="A307" t="s">
         <v>342</v>
       </c>
-      <c r="B307" s="11" t="s">
-        <v>18</v>
+      <c r="B307" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C307" s="11" t="s">
         <v>3</v>
@@ -26518,8 +26506,8 @@
       <c r="A308" t="s">
         <v>343</v>
       </c>
-      <c r="B308" s="11" t="s">
-        <v>18</v>
+      <c r="B308" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C308" s="11" t="s">
         <v>3</v>
@@ -26595,8 +26583,8 @@
       <c r="A309" t="s">
         <v>344</v>
       </c>
-      <c r="B309" s="11" t="s">
-        <v>18</v>
+      <c r="B309" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C309" s="11" t="s">
         <v>3</v>
@@ -26672,8 +26660,8 @@
       <c r="A310" t="s">
         <v>345</v>
       </c>
-      <c r="B310" s="11" t="s">
-        <v>18</v>
+      <c r="B310" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C310" s="11" t="s">
         <v>3</v>
@@ -26749,8 +26737,8 @@
       <c r="A311" t="s">
         <v>346</v>
       </c>
-      <c r="B311" s="11" t="s">
-        <v>18</v>
+      <c r="B311" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C311" s="11" t="s">
         <v>3</v>
@@ -26826,8 +26814,8 @@
       <c r="A312" t="s">
         <v>347</v>
       </c>
-      <c r="B312" s="11" t="s">
-        <v>18</v>
+      <c r="B312" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C312" s="11" t="s">
         <v>3</v>
@@ -26903,8 +26891,8 @@
       <c r="A313" t="s">
         <v>348</v>
       </c>
-      <c r="B313" s="11" t="s">
-        <v>18</v>
+      <c r="B313" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C313" s="11" t="s">
         <v>3</v>
@@ -26980,8 +26968,8 @@
       <c r="A314" t="s">
         <v>349</v>
       </c>
-      <c r="B314" s="11" t="s">
-        <v>18</v>
+      <c r="B314" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C314" s="11" t="s">
         <v>3</v>
@@ -27057,8 +27045,8 @@
       <c r="A315" t="s">
         <v>350</v>
       </c>
-      <c r="B315" s="11" t="s">
-        <v>18</v>
+      <c r="B315" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C315" s="11" t="s">
         <v>3</v>
@@ -27134,8 +27122,8 @@
       <c r="A316" t="s">
         <v>351</v>
       </c>
-      <c r="B316" s="11" t="s">
-        <v>18</v>
+      <c r="B316" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C316" s="11" t="s">
         <v>3</v>
@@ -27211,8 +27199,8 @@
       <c r="A317" t="s">
         <v>352</v>
       </c>
-      <c r="B317" s="11" t="s">
-        <v>18</v>
+      <c r="B317" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C317" s="11" t="s">
         <v>3</v>
@@ -27288,8 +27276,8 @@
       <c r="A318" t="s">
         <v>353</v>
       </c>
-      <c r="B318" s="11" t="s">
-        <v>18</v>
+      <c r="B318" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C318" s="11" t="s">
         <v>3</v>
@@ -27365,8 +27353,8 @@
       <c r="A319" t="s">
         <v>354</v>
       </c>
-      <c r="B319" s="11" t="s">
-        <v>18</v>
+      <c r="B319" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C319" s="11" t="s">
         <v>3</v>
@@ -27442,8 +27430,8 @@
       <c r="A320" t="s">
         <v>355</v>
       </c>
-      <c r="B320" s="11" t="s">
-        <v>18</v>
+      <c r="B320" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C320" s="11" t="s">
         <v>3</v>
@@ -27519,8 +27507,8 @@
       <c r="A321" t="s">
         <v>356</v>
       </c>
-      <c r="B321" s="11" t="s">
-        <v>18</v>
+      <c r="B321" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C321" s="11" t="s">
         <v>3</v>
@@ -27596,8 +27584,8 @@
       <c r="A322" t="s">
         <v>357</v>
       </c>
-      <c r="B322" s="11" t="s">
-        <v>18</v>
+      <c r="B322" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C322" s="11" t="s">
         <v>3</v>
@@ -27673,8 +27661,8 @@
       <c r="A323" t="s">
         <v>358</v>
       </c>
-      <c r="B323" s="11" t="s">
-        <v>18</v>
+      <c r="B323" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C323" s="11" t="s">
         <v>3</v>
@@ -27750,8 +27738,8 @@
       <c r="A324" t="s">
         <v>359</v>
       </c>
-      <c r="B324" s="11" t="s">
-        <v>18</v>
+      <c r="B324" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C324" s="11" t="s">
         <v>3</v>
@@ -27827,8 +27815,8 @@
       <c r="A325" t="s">
         <v>360</v>
       </c>
-      <c r="B325" s="11" t="s">
-        <v>18</v>
+      <c r="B325" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C325" s="11" t="s">
         <v>3</v>
@@ -27904,8 +27892,8 @@
       <c r="A326" t="s">
         <v>361</v>
       </c>
-      <c r="B326" s="11" t="s">
-        <v>18</v>
+      <c r="B326" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C326" s="11" t="s">
         <v>3</v>
@@ -27981,8 +27969,8 @@
       <c r="A327" t="s">
         <v>362</v>
       </c>
-      <c r="B327" s="11" t="s">
-        <v>18</v>
+      <c r="B327" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C327" s="11" t="s">
         <v>3</v>
@@ -28058,8 +28046,8 @@
       <c r="A328" t="s">
         <v>363</v>
       </c>
-      <c r="B328" s="11" t="s">
-        <v>18</v>
+      <c r="B328" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C328" s="11" t="s">
         <v>3</v>
@@ -28135,8 +28123,8 @@
       <c r="A329" t="s">
         <v>364</v>
       </c>
-      <c r="B329" s="11" t="s">
-        <v>18</v>
+      <c r="B329" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C329" s="11" t="s">
         <v>3</v>
@@ -28212,8 +28200,8 @@
       <c r="A330" t="s">
         <v>365</v>
       </c>
-      <c r="B330" s="11" t="s">
-        <v>18</v>
+      <c r="B330" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C330" s="11" t="s">
         <v>3</v>
@@ -28289,8 +28277,8 @@
       <c r="A331" t="s">
         <v>366</v>
       </c>
-      <c r="B331" s="11" t="s">
-        <v>18</v>
+      <c r="B331" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C331" s="11" t="s">
         <v>3</v>
@@ -28366,8 +28354,8 @@
       <c r="A332" t="s">
         <v>367</v>
       </c>
-      <c r="B332" s="11" t="s">
-        <v>18</v>
+      <c r="B332" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C332" s="11" t="s">
         <v>3</v>
@@ -28443,8 +28431,8 @@
       <c r="A333" t="s">
         <v>368</v>
       </c>
-      <c r="B333" s="11" t="s">
-        <v>18</v>
+      <c r="B333" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C333" s="11" t="s">
         <v>3</v>
@@ -28520,8 +28508,8 @@
       <c r="A334" t="s">
         <v>369</v>
       </c>
-      <c r="B334" s="11" t="s">
-        <v>18</v>
+      <c r="B334" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C334" s="11" t="s">
         <v>3</v>
@@ -28597,8 +28585,8 @@
       <c r="A335" t="s">
         <v>370</v>
       </c>
-      <c r="B335" s="11" t="s">
-        <v>18</v>
+      <c r="B335" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C335" s="11" t="s">
         <v>3</v>
@@ -28674,8 +28662,8 @@
       <c r="A336" t="s">
         <v>371</v>
       </c>
-      <c r="B336" s="11" t="s">
-        <v>18</v>
+      <c r="B336" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C336" s="11" t="s">
         <v>3</v>
@@ -28751,8 +28739,8 @@
       <c r="A337" t="s">
         <v>372</v>
       </c>
-      <c r="B337" s="11" t="s">
-        <v>18</v>
+      <c r="B337" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C337" s="11" t="s">
         <v>3</v>
@@ -28828,8 +28816,8 @@
       <c r="A338" t="s">
         <v>373</v>
       </c>
-      <c r="B338" s="11" t="s">
-        <v>18</v>
+      <c r="B338" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C338" s="11" t="s">
         <v>3</v>
@@ -28905,8 +28893,8 @@
       <c r="A339" t="s">
         <v>374</v>
       </c>
-      <c r="B339" s="11" t="s">
-        <v>18</v>
+      <c r="B339" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C339" s="11" t="s">
         <v>3</v>
@@ -28982,8 +28970,8 @@
       <c r="A340" t="s">
         <v>375</v>
       </c>
-      <c r="B340" s="11" t="s">
-        <v>18</v>
+      <c r="B340" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C340" s="11" t="s">
         <v>3</v>
@@ -29059,8 +29047,8 @@
       <c r="A341" t="s">
         <v>376</v>
       </c>
-      <c r="B341" s="11" t="s">
-        <v>18</v>
+      <c r="B341" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C341" s="11" t="s">
         <v>3</v>
@@ -29136,8 +29124,8 @@
       <c r="A342" t="s">
         <v>377</v>
       </c>
-      <c r="B342" s="11" t="s">
-        <v>18</v>
+      <c r="B342" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C342" s="11" t="s">
         <v>3</v>
@@ -29213,8 +29201,8 @@
       <c r="A343" t="s">
         <v>378</v>
       </c>
-      <c r="B343" s="11" t="s">
-        <v>18</v>
+      <c r="B343" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C343" s="11" t="s">
         <v>3</v>
@@ -29290,8 +29278,8 @@
       <c r="A344" t="s">
         <v>379</v>
       </c>
-      <c r="B344" s="11" t="s">
-        <v>18</v>
+      <c r="B344" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C344" s="11" t="s">
         <v>3</v>
@@ -29367,8 +29355,8 @@
       <c r="A345" t="s">
         <v>380</v>
       </c>
-      <c r="B345" s="11" t="s">
-        <v>18</v>
+      <c r="B345" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C345" s="11" t="s">
         <v>3</v>
@@ -29444,8 +29432,8 @@
       <c r="A346" t="s">
         <v>381</v>
       </c>
-      <c r="B346" s="11" t="s">
-        <v>18</v>
+      <c r="B346" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C346" s="11" t="s">
         <v>3</v>
@@ -29521,8 +29509,8 @@
       <c r="A347" t="s">
         <v>382</v>
       </c>
-      <c r="B347" s="11" t="s">
-        <v>18</v>
+      <c r="B347" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C347" s="11" t="s">
         <v>3</v>
@@ -29598,8 +29586,8 @@
       <c r="A348" t="s">
         <v>383</v>
       </c>
-      <c r="B348" s="11" t="s">
-        <v>18</v>
+      <c r="B348" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C348" s="11" t="s">
         <v>3</v>
@@ -29675,8 +29663,8 @@
       <c r="A349" t="s">
         <v>384</v>
       </c>
-      <c r="B349" s="11" t="s">
-        <v>18</v>
+      <c r="B349" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C349" s="11" t="s">
         <v>3</v>
@@ -29752,8 +29740,8 @@
       <c r="A350" t="s">
         <v>385</v>
       </c>
-      <c r="B350" s="11" t="s">
-        <v>18</v>
+      <c r="B350" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C350" s="11" t="s">
         <v>3</v>
@@ -29829,8 +29817,8 @@
       <c r="A351" t="s">
         <v>386</v>
       </c>
-      <c r="B351" s="11" t="s">
-        <v>18</v>
+      <c r="B351" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C351" s="11" t="s">
         <v>3</v>
@@ -29906,8 +29894,8 @@
       <c r="A352" t="s">
         <v>387</v>
       </c>
-      <c r="B352" s="11" t="s">
-        <v>18</v>
+      <c r="B352" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C352" s="11" t="s">
         <v>3</v>
@@ -29983,8 +29971,8 @@
       <c r="A353" t="s">
         <v>388</v>
       </c>
-      <c r="B353" s="11" t="s">
-        <v>18</v>
+      <c r="B353" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C353" s="11" t="s">
         <v>3</v>
@@ -30060,8 +30048,8 @@
       <c r="A354" t="s">
         <v>389</v>
       </c>
-      <c r="B354" s="11" t="s">
-        <v>18</v>
+      <c r="B354" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C354" s="11" t="s">
         <v>3</v>
@@ -30137,8 +30125,8 @@
       <c r="A355" t="s">
         <v>390</v>
       </c>
-      <c r="B355" s="11" t="s">
-        <v>18</v>
+      <c r="B355" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C355" s="11" t="s">
         <v>3</v>
@@ -30214,8 +30202,8 @@
       <c r="A356" t="s">
         <v>391</v>
       </c>
-      <c r="B356" s="11" t="s">
-        <v>18</v>
+      <c r="B356" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C356" s="11" t="s">
         <v>3</v>
@@ -30291,8 +30279,8 @@
       <c r="A357" t="s">
         <v>392</v>
       </c>
-      <c r="B357" s="11" t="s">
-        <v>18</v>
+      <c r="B357" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C357" s="11" t="s">
         <v>3</v>
@@ -30368,8 +30356,8 @@
       <c r="A358" t="s">
         <v>393</v>
       </c>
-      <c r="B358" s="11" t="s">
-        <v>18</v>
+      <c r="B358" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C358" s="11" t="s">
         <v>3</v>
@@ -30445,8 +30433,8 @@
       <c r="A359" t="s">
         <v>394</v>
       </c>
-      <c r="B359" s="11" t="s">
-        <v>18</v>
+      <c r="B359" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C359" s="11" t="s">
         <v>3</v>
@@ -30522,8 +30510,8 @@
       <c r="A360" t="s">
         <v>395</v>
       </c>
-      <c r="B360" s="11" t="s">
-        <v>18</v>
+      <c r="B360" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C360" s="11" t="s">
         <v>3</v>
@@ -30599,8 +30587,8 @@
       <c r="A361" t="s">
         <v>396</v>
       </c>
-      <c r="B361" s="11" t="s">
-        <v>18</v>
+      <c r="B361" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C361" s="11" t="s">
         <v>3</v>
@@ -30676,8 +30664,8 @@
       <c r="A362" t="s">
         <v>397</v>
       </c>
-      <c r="B362" s="11" t="s">
-        <v>18</v>
+      <c r="B362" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C362" s="11" t="s">
         <v>3</v>
@@ -30753,8 +30741,8 @@
       <c r="A363" t="s">
         <v>398</v>
       </c>
-      <c r="B363" s="11" t="s">
-        <v>18</v>
+      <c r="B363" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C363" s="11" t="s">
         <v>3</v>
@@ -30830,8 +30818,8 @@
       <c r="A364" t="s">
         <v>399</v>
       </c>
-      <c r="B364" s="11" t="s">
-        <v>18</v>
+      <c r="B364" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C364" s="11" t="s">
         <v>3</v>
@@ -30907,8 +30895,8 @@
       <c r="A365" t="s">
         <v>400</v>
       </c>
-      <c r="B365" s="11" t="s">
-        <v>18</v>
+      <c r="B365" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C365" s="11" t="s">
         <v>3</v>
@@ -30984,8 +30972,8 @@
       <c r="A366" t="s">
         <v>401</v>
       </c>
-      <c r="B366" s="11" t="s">
-        <v>18</v>
+      <c r="B366" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C366" s="11" t="s">
         <v>3</v>
@@ -31061,8 +31049,8 @@
       <c r="A367" t="s">
         <v>402</v>
       </c>
-      <c r="B367" s="11" t="s">
-        <v>18</v>
+      <c r="B367" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C367" s="11" t="s">
         <v>3</v>
@@ -31138,8 +31126,8 @@
       <c r="A368" t="s">
         <v>403</v>
       </c>
-      <c r="B368" s="11" t="s">
-        <v>18</v>
+      <c r="B368" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C368" s="11" t="s">
         <v>3</v>
@@ -31215,8 +31203,8 @@
       <c r="A369" t="s">
         <v>404</v>
       </c>
-      <c r="B369" s="11" t="s">
-        <v>18</v>
+      <c r="B369" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C369" s="11" t="s">
         <v>3</v>
@@ -31292,8 +31280,8 @@
       <c r="A370" t="s">
         <v>405</v>
       </c>
-      <c r="B370" s="11" t="s">
-        <v>18</v>
+      <c r="B370" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C370" s="11" t="s">
         <v>3</v>
@@ -31369,8 +31357,8 @@
       <c r="A371" t="s">
         <v>406</v>
       </c>
-      <c r="B371" s="11" t="s">
-        <v>18</v>
+      <c r="B371" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C371" s="11" t="s">
         <v>3</v>
@@ -31446,8 +31434,8 @@
       <c r="A372" t="s">
         <v>407</v>
       </c>
-      <c r="B372" s="11" t="s">
-        <v>18</v>
+      <c r="B372" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C372" s="11" t="s">
         <v>3</v>
@@ -31523,8 +31511,8 @@
       <c r="A373" t="s">
         <v>408</v>
       </c>
-      <c r="B373" s="11" t="s">
-        <v>18</v>
+      <c r="B373" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C373" s="11" t="s">
         <v>3</v>
@@ -31600,8 +31588,8 @@
       <c r="A374" t="s">
         <v>409</v>
       </c>
-      <c r="B374" s="11" t="s">
-        <v>18</v>
+      <c r="B374" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C374" s="11" t="s">
         <v>3</v>
@@ -31677,8 +31665,8 @@
       <c r="A375" t="s">
         <v>410</v>
       </c>
-      <c r="B375" s="11" t="s">
-        <v>18</v>
+      <c r="B375" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C375" s="11" t="s">
         <v>3</v>
@@ -31754,8 +31742,8 @@
       <c r="A376" t="s">
         <v>411</v>
       </c>
-      <c r="B376" s="11" t="s">
-        <v>18</v>
+      <c r="B376" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C376" s="11" t="s">
         <v>3</v>
@@ -31831,8 +31819,8 @@
       <c r="A377" t="s">
         <v>412</v>
       </c>
-      <c r="B377" s="11" t="s">
-        <v>18</v>
+      <c r="B377" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C377" s="11" t="s">
         <v>3</v>
@@ -31908,8 +31896,8 @@
       <c r="A378" t="s">
         <v>413</v>
       </c>
-      <c r="B378" s="11" t="s">
-        <v>18</v>
+      <c r="B378" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C378" s="11" t="s">
         <v>3</v>
@@ -31985,8 +31973,8 @@
       <c r="A379" t="s">
         <v>414</v>
       </c>
-      <c r="B379" s="11" t="s">
-        <v>18</v>
+      <c r="B379" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C379" s="11" t="s">
         <v>3</v>
@@ -32062,8 +32050,8 @@
       <c r="A380" t="s">
         <v>415</v>
       </c>
-      <c r="B380" s="11" t="s">
-        <v>18</v>
+      <c r="B380" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C380" s="11" t="s">
         <v>3</v>
@@ -32139,8 +32127,8 @@
       <c r="A381" t="s">
         <v>416</v>
       </c>
-      <c r="B381" s="11" t="s">
-        <v>18</v>
+      <c r="B381" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C381" s="11" t="s">
         <v>3</v>
@@ -32216,8 +32204,8 @@
       <c r="A382" t="s">
         <v>417</v>
       </c>
-      <c r="B382" s="11" t="s">
-        <v>18</v>
+      <c r="B382" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C382" s="11" t="s">
         <v>3</v>
@@ -32293,8 +32281,8 @@
       <c r="A383" t="s">
         <v>418</v>
       </c>
-      <c r="B383" s="11" t="s">
-        <v>18</v>
+      <c r="B383" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C383" s="11" t="s">
         <v>3</v>
@@ -32370,8 +32358,8 @@
       <c r="A384" t="s">
         <v>419</v>
       </c>
-      <c r="B384" s="11" t="s">
-        <v>18</v>
+      <c r="B384" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C384" s="11" t="s">
         <v>3</v>
@@ -32447,8 +32435,8 @@
       <c r="A385" t="s">
         <v>420</v>
       </c>
-      <c r="B385" s="11" t="s">
-        <v>18</v>
+      <c r="B385" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C385" s="11" t="s">
         <v>3</v>
@@ -32524,8 +32512,8 @@
       <c r="A386" t="s">
         <v>421</v>
       </c>
-      <c r="B386" s="11" t="s">
-        <v>18</v>
+      <c r="B386" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C386" s="11" t="s">
         <v>3</v>
@@ -32601,8 +32589,8 @@
       <c r="A387" t="s">
         <v>422</v>
       </c>
-      <c r="B387" s="11" t="s">
-        <v>18</v>
+      <c r="B387" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C387" s="11" t="s">
         <v>3</v>
@@ -32678,8 +32666,8 @@
       <c r="A388" t="s">
         <v>423</v>
       </c>
-      <c r="B388" s="11" t="s">
-        <v>18</v>
+      <c r="B388" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C388" s="11" t="s">
         <v>3</v>
@@ -32755,8 +32743,8 @@
       <c r="A389" t="s">
         <v>424</v>
       </c>
-      <c r="B389" s="11" t="s">
-        <v>18</v>
+      <c r="B389" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C389" s="11" t="s">
         <v>3</v>
@@ -32832,8 +32820,8 @@
       <c r="A390" s="4" t="s">
         <v>425</v>
       </c>
-      <c r="B390" s="11" t="s">
-        <v>18</v>
+      <c r="B390" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C390" s="11" t="s">
         <v>3</v>
@@ -32909,8 +32897,8 @@
       <c r="A391" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="B391" s="11" t="s">
-        <v>18</v>
+      <c r="B391" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C391" s="11" t="s">
         <v>3</v>
@@ -32986,8 +32974,8 @@
       <c r="A392" s="4" t="s">
         <v>427</v>
       </c>
-      <c r="B392" s="11" t="s">
-        <v>18</v>
+      <c r="B392" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C392" s="11" t="s">
         <v>3</v>
@@ -33063,8 +33051,8 @@
       <c r="A393" s="4" t="s">
         <v>428</v>
       </c>
-      <c r="B393" s="11" t="s">
-        <v>18</v>
+      <c r="B393" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C393" s="11" t="s">
         <v>3</v>
@@ -33140,8 +33128,8 @@
       <c r="A394" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="B394" s="11" t="s">
-        <v>18</v>
+      <c r="B394" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C394" s="11" t="s">
         <v>3</v>
@@ -33217,8 +33205,8 @@
       <c r="A395" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="B395" s="11" t="s">
-        <v>18</v>
+      <c r="B395" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C395" s="11" t="s">
         <v>3</v>
@@ -33294,8 +33282,8 @@
       <c r="A396" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="B396" s="11" t="s">
-        <v>18</v>
+      <c r="B396" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C396" s="11" t="s">
         <v>3</v>
@@ -33371,8 +33359,8 @@
       <c r="A397" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="B397" s="11" t="s">
-        <v>18</v>
+      <c r="B397" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C397" s="11" t="s">
         <v>3</v>
@@ -33448,8 +33436,8 @@
       <c r="A398" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="B398" s="11" t="s">
-        <v>18</v>
+      <c r="B398" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C398" s="11" t="s">
         <v>3</v>
@@ -33525,8 +33513,8 @@
       <c r="A399" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="B399" s="11" t="s">
-        <v>18</v>
+      <c r="B399" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C399" s="11" t="s">
         <v>3</v>
@@ -33602,8 +33590,8 @@
       <c r="A400" s="4" t="s">
         <v>435</v>
       </c>
-      <c r="B400" s="11" t="s">
-        <v>18</v>
+      <c r="B400" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C400" s="11" t="s">
         <v>3</v>
@@ -33679,8 +33667,8 @@
       <c r="A401" s="4" t="s">
         <v>436</v>
       </c>
-      <c r="B401" s="11" t="s">
-        <v>18</v>
+      <c r="B401" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C401" s="11" t="s">
         <v>3</v>
@@ -33756,8 +33744,8 @@
       <c r="A402" s="4" t="s">
         <v>437</v>
       </c>
-      <c r="B402" s="11" t="s">
-        <v>18</v>
+      <c r="B402" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C402" s="11" t="s">
         <v>3</v>
@@ -33833,8 +33821,8 @@
       <c r="A403" s="4" t="s">
         <v>438</v>
       </c>
-      <c r="B403" s="11" t="s">
-        <v>18</v>
+      <c r="B403" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C403" s="11" t="s">
         <v>3</v>
@@ -33910,8 +33898,8 @@
       <c r="A404" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="B404" s="11" t="s">
-        <v>18</v>
+      <c r="B404" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C404" s="11" t="s">
         <v>3</v>
@@ -33987,8 +33975,8 @@
       <c r="A405" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="B405" s="11" t="s">
-        <v>18</v>
+      <c r="B405" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C405" s="11" t="s">
         <v>3</v>
@@ -34064,8 +34052,8 @@
       <c r="A406" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="B406" s="11" t="s">
-        <v>18</v>
+      <c r="B406" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C406" s="11" t="s">
         <v>3</v>
@@ -34141,8 +34129,8 @@
       <c r="A407" s="4" t="s">
         <v>442</v>
       </c>
-      <c r="B407" s="11" t="s">
-        <v>18</v>
+      <c r="B407" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C407" s="11" t="s">
         <v>3</v>
@@ -34218,8 +34206,8 @@
       <c r="A408" s="4" t="s">
         <v>443</v>
       </c>
-      <c r="B408" s="11" t="s">
-        <v>18</v>
+      <c r="B408" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C408" s="11" t="s">
         <v>3</v>
@@ -34295,8 +34283,8 @@
       <c r="A409" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="B409" s="11" t="s">
-        <v>18</v>
+      <c r="B409" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C409" s="11" t="s">
         <v>3</v>
@@ -34372,8 +34360,8 @@
       <c r="A410" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="B410" s="11" t="s">
-        <v>18</v>
+      <c r="B410" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C410" s="11" t="s">
         <v>3</v>
@@ -34449,8 +34437,8 @@
       <c r="A411" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="B411" s="11" t="s">
-        <v>18</v>
+      <c r="B411" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C411" s="11" t="s">
         <v>3</v>
@@ -34526,8 +34514,8 @@
       <c r="A412" s="4" t="s">
         <v>447</v>
       </c>
-      <c r="B412" s="11" t="s">
-        <v>18</v>
+      <c r="B412" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C412" s="11" t="s">
         <v>3</v>
@@ -34603,8 +34591,8 @@
       <c r="A413" s="4" t="s">
         <v>448</v>
       </c>
-      <c r="B413" s="11" t="s">
-        <v>18</v>
+      <c r="B413" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C413" s="11" t="s">
         <v>3</v>
@@ -34680,8 +34668,8 @@
       <c r="A414" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="B414" s="11" t="s">
-        <v>18</v>
+      <c r="B414" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C414" s="11" t="s">
         <v>3</v>
@@ -34757,8 +34745,8 @@
       <c r="A415" s="4" t="s">
         <v>450</v>
       </c>
-      <c r="B415" s="11" t="s">
-        <v>18</v>
+      <c r="B415" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C415" s="11" t="s">
         <v>3</v>
@@ -34834,8 +34822,8 @@
       <c r="A416" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="B416" s="11" t="s">
-        <v>18</v>
+      <c r="B416" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C416" s="11" t="s">
         <v>3</v>
@@ -34911,8 +34899,8 @@
       <c r="A417" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="B417" s="11" t="s">
-        <v>18</v>
+      <c r="B417" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C417" s="11" t="s">
         <v>3</v>
@@ -34988,8 +34976,8 @@
       <c r="A418" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="B418" s="11" t="s">
-        <v>18</v>
+      <c r="B418" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C418" s="11" t="s">
         <v>3</v>
@@ -35065,8 +35053,8 @@
       <c r="A419" s="4" t="s">
         <v>454</v>
       </c>
-      <c r="B419" s="11" t="s">
-        <v>18</v>
+      <c r="B419" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C419" s="11" t="s">
         <v>3</v>
@@ -35142,8 +35130,8 @@
       <c r="A420" s="4" t="s">
         <v>455</v>
       </c>
-      <c r="B420" s="11" t="s">
-        <v>18</v>
+      <c r="B420" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C420" s="11" t="s">
         <v>3</v>
@@ -35219,8 +35207,8 @@
       <c r="A421" s="4" t="s">
         <v>456</v>
       </c>
-      <c r="B421" s="11" t="s">
-        <v>18</v>
+      <c r="B421" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C421" s="11" t="s">
         <v>3</v>
@@ -35296,8 +35284,8 @@
       <c r="A422" s="4" t="s">
         <v>457</v>
       </c>
-      <c r="B422" s="11" t="s">
-        <v>18</v>
+      <c r="B422" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C422" s="11" t="s">
         <v>3</v>
@@ -35373,8 +35361,8 @@
       <c r="A423" s="4" t="s">
         <v>458</v>
       </c>
-      <c r="B423" s="11" t="s">
-        <v>18</v>
+      <c r="B423" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C423" s="11" t="s">
         <v>3</v>
@@ -35450,8 +35438,8 @@
       <c r="A424" s="4" t="s">
         <v>459</v>
       </c>
-      <c r="B424" s="11" t="s">
-        <v>18</v>
+      <c r="B424" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C424" s="11" t="s">
         <v>3</v>
@@ -35527,8 +35515,8 @@
       <c r="A425" s="4" t="s">
         <v>460</v>
       </c>
-      <c r="B425" s="11" t="s">
-        <v>18</v>
+      <c r="B425" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C425" s="11" t="s">
         <v>3</v>
@@ -35604,8 +35592,8 @@
       <c r="A426" s="4" t="s">
         <v>461</v>
       </c>
-      <c r="B426" s="11" t="s">
-        <v>18</v>
+      <c r="B426" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C426" s="11" t="s">
         <v>3</v>
@@ -35681,8 +35669,8 @@
       <c r="A427" s="4" t="s">
         <v>462</v>
       </c>
-      <c r="B427" s="11" t="s">
-        <v>18</v>
+      <c r="B427" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C427" s="11" t="s">
         <v>3</v>
@@ -35758,8 +35746,8 @@
       <c r="A428" s="4" t="s">
         <v>463</v>
       </c>
-      <c r="B428" s="11" t="s">
-        <v>18</v>
+      <c r="B428" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C428" s="11" t="s">
         <v>3</v>
@@ -35835,8 +35823,8 @@
       <c r="A429" s="4" t="s">
         <v>464</v>
       </c>
-      <c r="B429" s="11" t="s">
-        <v>18</v>
+      <c r="B429" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C429" s="11" t="s">
         <v>3</v>
@@ -35912,8 +35900,8 @@
       <c r="A430" s="4" t="s">
         <v>465</v>
       </c>
-      <c r="B430" s="11" t="s">
-        <v>18</v>
+      <c r="B430" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C430" s="11" t="s">
         <v>3</v>
@@ -35989,8 +35977,8 @@
       <c r="A431" s="4" t="s">
         <v>466</v>
       </c>
-      <c r="B431" s="11" t="s">
-        <v>18</v>
+      <c r="B431" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C431" s="11" t="s">
         <v>3</v>
@@ -36066,8 +36054,8 @@
       <c r="A432" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="B432" s="11" t="s">
-        <v>18</v>
+      <c r="B432" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C432" s="11" t="s">
         <v>3</v>
@@ -36143,8 +36131,8 @@
       <c r="A433" s="4" t="s">
         <v>468</v>
       </c>
-      <c r="B433" s="11" t="s">
-        <v>18</v>
+      <c r="B433" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C433" s="11" t="s">
         <v>3</v>
@@ -36220,8 +36208,8 @@
       <c r="A434" s="4" t="s">
         <v>469</v>
       </c>
-      <c r="B434" s="11" t="s">
-        <v>18</v>
+      <c r="B434" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C434" s="11" t="s">
         <v>3</v>
@@ -36297,8 +36285,8 @@
       <c r="A435" s="4" t="s">
         <v>470</v>
       </c>
-      <c r="B435" s="11" t="s">
-        <v>18</v>
+      <c r="B435" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C435" s="11" t="s">
         <v>3</v>
@@ -36374,8 +36362,8 @@
       <c r="A436" s="4" t="s">
         <v>471</v>
       </c>
-      <c r="B436" s="11" t="s">
-        <v>18</v>
+      <c r="B436" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C436" s="11" t="s">
         <v>3</v>
@@ -36451,8 +36439,8 @@
       <c r="A437" s="4" t="s">
         <v>472</v>
       </c>
-      <c r="B437" s="11" t="s">
-        <v>18</v>
+      <c r="B437" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C437" s="11" t="s">
         <v>3</v>
@@ -36528,8 +36516,8 @@
       <c r="A438" s="4" t="s">
         <v>473</v>
       </c>
-      <c r="B438" s="11" t="s">
-        <v>18</v>
+      <c r="B438" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C438" s="11" t="s">
         <v>3</v>
@@ -36605,8 +36593,8 @@
       <c r="A439" s="4" t="s">
         <v>474</v>
       </c>
-      <c r="B439" s="11" t="s">
-        <v>18</v>
+      <c r="B439" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C439" s="11" t="s">
         <v>3</v>
@@ -36682,8 +36670,8 @@
       <c r="A440" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="B440" s="11" t="s">
-        <v>18</v>
+      <c r="B440" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C440" s="11" t="s">
         <v>3</v>
@@ -36759,8 +36747,8 @@
       <c r="A441" s="4" t="s">
         <v>476</v>
       </c>
-      <c r="B441" s="11" t="s">
-        <v>18</v>
+      <c r="B441" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C441" s="11" t="s">
         <v>3</v>
@@ -36836,8 +36824,8 @@
       <c r="A442" s="4" t="s">
         <v>477</v>
       </c>
-      <c r="B442" s="11" t="s">
-        <v>18</v>
+      <c r="B442" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C442" s="11" t="s">
         <v>3</v>
@@ -36913,8 +36901,8 @@
       <c r="A443" s="4" t="s">
         <v>478</v>
       </c>
-      <c r="B443" s="11" t="s">
-        <v>18</v>
+      <c r="B443" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C443" s="11" t="s">
         <v>3</v>
@@ -36990,8 +36978,8 @@
       <c r="A444" s="4" t="s">
         <v>479</v>
       </c>
-      <c r="B444" s="11" t="s">
-        <v>18</v>
+      <c r="B444" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C444" s="11" t="s">
         <v>3</v>
@@ -37067,8 +37055,8 @@
       <c r="A445" s="4" t="s">
         <v>480</v>
       </c>
-      <c r="B445" s="11" t="s">
-        <v>18</v>
+      <c r="B445" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C445" s="11" t="s">
         <v>3</v>
@@ -37144,8 +37132,8 @@
       <c r="A446" s="4" t="s">
         <v>481</v>
       </c>
-      <c r="B446" s="11" t="s">
-        <v>18</v>
+      <c r="B446" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C446" s="11" t="s">
         <v>3</v>
@@ -37221,8 +37209,8 @@
       <c r="A447" s="4" t="s">
         <v>482</v>
       </c>
-      <c r="B447" s="11" t="s">
-        <v>18</v>
+      <c r="B447" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C447" s="11" t="s">
         <v>3</v>
@@ -37298,8 +37286,8 @@
       <c r="A448" s="4" t="s">
         <v>483</v>
       </c>
-      <c r="B448" s="11" t="s">
-        <v>18</v>
+      <c r="B448" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C448" s="11" t="s">
         <v>3</v>
@@ -37375,8 +37363,8 @@
       <c r="A449" s="4" t="s">
         <v>484</v>
       </c>
-      <c r="B449" s="11" t="s">
-        <v>18</v>
+      <c r="B449" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C449" s="11" t="s">
         <v>3</v>
@@ -37452,8 +37440,8 @@
       <c r="A450" s="4" t="s">
         <v>485</v>
       </c>
-      <c r="B450" s="11" t="s">
-        <v>18</v>
+      <c r="B450" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C450" s="11" t="s">
         <v>3</v>
@@ -37529,8 +37517,8 @@
       <c r="A451" s="4" t="s">
         <v>486</v>
       </c>
-      <c r="B451" s="11" t="s">
-        <v>18</v>
+      <c r="B451" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C451" s="11" t="s">
         <v>3</v>
@@ -37606,8 +37594,8 @@
       <c r="A452" s="4" t="s">
         <v>487</v>
       </c>
-      <c r="B452" s="11" t="s">
-        <v>18</v>
+      <c r="B452" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C452" s="11" t="s">
         <v>3</v>
@@ -37683,8 +37671,8 @@
       <c r="A453" s="4" t="s">
         <v>488</v>
       </c>
-      <c r="B453" s="11" t="s">
-        <v>18</v>
+      <c r="B453" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C453" s="11" t="s">
         <v>3</v>
@@ -37760,8 +37748,8 @@
       <c r="A454" s="4" t="s">
         <v>489</v>
       </c>
-      <c r="B454" s="11" t="s">
-        <v>18</v>
+      <c r="B454" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C454" s="11" t="s">
         <v>3</v>
@@ -37837,8 +37825,8 @@
       <c r="A455" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="B455" s="11" t="s">
-        <v>18</v>
+      <c r="B455" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C455" s="11" t="s">
         <v>3</v>
@@ -37914,8 +37902,8 @@
       <c r="A456" s="4" t="s">
         <v>491</v>
       </c>
-      <c r="B456" s="11" t="s">
-        <v>18</v>
+      <c r="B456" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C456" s="11" t="s">
         <v>3</v>
@@ -37991,8 +37979,8 @@
       <c r="A457" s="4" t="s">
         <v>492</v>
       </c>
-      <c r="B457" s="11" t="s">
-        <v>18</v>
+      <c r="B457" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C457" s="11" t="s">
         <v>3</v>
@@ -38068,8 +38056,8 @@
       <c r="A458" s="4" t="s">
         <v>493</v>
       </c>
-      <c r="B458" s="11" t="s">
-        <v>18</v>
+      <c r="B458" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C458" s="11" t="s">
         <v>3</v>
@@ -38145,8 +38133,8 @@
       <c r="A459" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="B459" s="11" t="s">
-        <v>18</v>
+      <c r="B459" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C459" s="11" t="s">
         <v>3</v>
@@ -38222,8 +38210,8 @@
       <c r="A460" s="4" t="s">
         <v>495</v>
       </c>
-      <c r="B460" s="11" t="s">
-        <v>18</v>
+      <c r="B460" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C460" s="11" t="s">
         <v>3</v>
@@ -38299,8 +38287,8 @@
       <c r="A461" s="4" t="s">
         <v>496</v>
       </c>
-      <c r="B461" s="11" t="s">
-        <v>18</v>
+      <c r="B461" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C461" s="11" t="s">
         <v>3</v>
@@ -38376,8 +38364,8 @@
       <c r="A462" s="4" t="s">
         <v>497</v>
       </c>
-      <c r="B462" s="11" t="s">
-        <v>18</v>
+      <c r="B462" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C462" s="11" t="s">
         <v>3</v>
@@ -38453,8 +38441,8 @@
       <c r="A463" s="4" t="s">
         <v>498</v>
       </c>
-      <c r="B463" s="11" t="s">
-        <v>18</v>
+      <c r="B463" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C463" s="11" t="s">
         <v>3</v>
@@ -38530,8 +38518,8 @@
       <c r="A464" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="B464" s="11" t="s">
-        <v>18</v>
+      <c r="B464" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C464" s="11" t="s">
         <v>3</v>
@@ -38607,8 +38595,8 @@
       <c r="A465" s="4" t="s">
         <v>500</v>
       </c>
-      <c r="B465" s="11" t="s">
-        <v>18</v>
+      <c r="B465" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C465" s="11" t="s">
         <v>3</v>
@@ -38684,8 +38672,8 @@
       <c r="A466" s="4" t="s">
         <v>501</v>
       </c>
-      <c r="B466" s="11" t="s">
-        <v>18</v>
+      <c r="B466" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C466" s="11" t="s">
         <v>3</v>
@@ -38761,8 +38749,8 @@
       <c r="A467" s="4" t="s">
         <v>502</v>
       </c>
-      <c r="B467" s="11" t="s">
-        <v>18</v>
+      <c r="B467" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C467" s="11" t="s">
         <v>3</v>
@@ -38838,8 +38826,8 @@
       <c r="A468" s="4" t="s">
         <v>503</v>
       </c>
-      <c r="B468" s="11" t="s">
-        <v>18</v>
+      <c r="B468" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C468" s="11" t="s">
         <v>3</v>
@@ -38915,8 +38903,8 @@
       <c r="A469" s="4" t="s">
         <v>504</v>
       </c>
-      <c r="B469" s="11" t="s">
-        <v>18</v>
+      <c r="B469" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C469" s="11" t="s">
         <v>3</v>
@@ -38992,8 +38980,8 @@
       <c r="A470" s="4" t="s">
         <v>505</v>
       </c>
-      <c r="B470" s="11" t="s">
-        <v>18</v>
+      <c r="B470" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C470" s="11" t="s">
         <v>3</v>
@@ -39069,8 +39057,8 @@
       <c r="A471" s="4" t="s">
         <v>506</v>
       </c>
-      <c r="B471" s="11" t="s">
-        <v>18</v>
+      <c r="B471" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C471" s="11" t="s">
         <v>3</v>
@@ -39146,8 +39134,8 @@
       <c r="A472" s="4" t="s">
         <v>507</v>
       </c>
-      <c r="B472" s="11" t="s">
-        <v>18</v>
+      <c r="B472" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C472" s="11" t="s">
         <v>3</v>
@@ -39223,8 +39211,8 @@
       <c r="A473" s="4" t="s">
         <v>508</v>
       </c>
-      <c r="B473" s="11" t="s">
-        <v>18</v>
+      <c r="B473" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C473" s="11" t="s">
         <v>3</v>
@@ -39300,8 +39288,8 @@
       <c r="A474" s="4" t="s">
         <v>509</v>
       </c>
-      <c r="B474" s="11" t="s">
-        <v>18</v>
+      <c r="B474" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C474" s="11" t="s">
         <v>3</v>
@@ -39377,8 +39365,8 @@
       <c r="A475" s="4" t="s">
         <v>510</v>
       </c>
-      <c r="B475" s="11" t="s">
-        <v>18</v>
+      <c r="B475" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C475" s="11" t="s">
         <v>3</v>
@@ -39454,8 +39442,8 @@
       <c r="A476" s="4" t="s">
         <v>511</v>
       </c>
-      <c r="B476" s="11" t="s">
-        <v>18</v>
+      <c r="B476" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C476" s="11" t="s">
         <v>3</v>
@@ -39531,8 +39519,8 @@
       <c r="A477" s="4" t="s">
         <v>512</v>
       </c>
-      <c r="B477" s="11" t="s">
-        <v>18</v>
+      <c r="B477" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C477" s="11" t="s">
         <v>3</v>
@@ -39608,8 +39596,8 @@
       <c r="A478" s="4" t="s">
         <v>513</v>
       </c>
-      <c r="B478" s="11" t="s">
-        <v>18</v>
+      <c r="B478" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C478" s="11" t="s">
         <v>3</v>
@@ -39685,8 +39673,8 @@
       <c r="A479" s="4" t="s">
         <v>514</v>
       </c>
-      <c r="B479" s="11" t="s">
-        <v>18</v>
+      <c r="B479" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C479" s="11" t="s">
         <v>3</v>
@@ -39762,8 +39750,8 @@
       <c r="A480" s="4" t="s">
         <v>515</v>
       </c>
-      <c r="B480" s="11" t="s">
-        <v>18</v>
+      <c r="B480" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C480" s="11" t="s">
         <v>3</v>
@@ -39839,8 +39827,8 @@
       <c r="A481" s="4" t="s">
         <v>516</v>
       </c>
-      <c r="B481" s="11" t="s">
-        <v>18</v>
+      <c r="B481" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C481" s="11" t="s">
         <v>3</v>
@@ -39916,8 +39904,8 @@
       <c r="A482" s="4" t="s">
         <v>517</v>
       </c>
-      <c r="B482" s="11" t="s">
-        <v>18</v>
+      <c r="B482" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C482" s="11" t="s">
         <v>3</v>
@@ -39993,8 +39981,8 @@
       <c r="A483" s="4" t="s">
         <v>518</v>
       </c>
-      <c r="B483" s="11" t="s">
-        <v>18</v>
+      <c r="B483" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C483" s="11" t="s">
         <v>3</v>
@@ -40070,8 +40058,8 @@
       <c r="A484" s="4" t="s">
         <v>519</v>
       </c>
-      <c r="B484" s="11" t="s">
-        <v>18</v>
+      <c r="B484" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C484" s="11" t="s">
         <v>3</v>
@@ -40147,8 +40135,8 @@
       <c r="A485" s="4" t="s">
         <v>520</v>
       </c>
-      <c r="B485" s="11" t="s">
-        <v>18</v>
+      <c r="B485" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C485" s="11" t="s">
         <v>3</v>
@@ -40224,8 +40212,8 @@
       <c r="A486" s="4" t="s">
         <v>521</v>
       </c>
-      <c r="B486" s="11" t="s">
-        <v>18</v>
+      <c r="B486" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C486" s="11" t="s">
         <v>3</v>
@@ -40301,8 +40289,8 @@
       <c r="A487" s="4" t="s">
         <v>522</v>
       </c>
-      <c r="B487" s="11" t="s">
-        <v>18</v>
+      <c r="B487" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C487" s="11" t="s">
         <v>3</v>
@@ -40378,8 +40366,8 @@
       <c r="A488" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="B488" s="11" t="s">
-        <v>18</v>
+      <c r="B488" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C488" s="11" t="s">
         <v>3</v>
@@ -40455,8 +40443,8 @@
       <c r="A489" s="4" t="s">
         <v>524</v>
       </c>
-      <c r="B489" s="11" t="s">
-        <v>18</v>
+      <c r="B489" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C489" s="11" t="s">
         <v>3</v>
@@ -40532,8 +40520,8 @@
       <c r="A490" s="4" t="s">
         <v>525</v>
       </c>
-      <c r="B490" s="11" t="s">
-        <v>18</v>
+      <c r="B490" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C490" s="11" t="s">
         <v>3</v>
@@ -40609,8 +40597,8 @@
       <c r="A491" s="4" t="s">
         <v>526</v>
       </c>
-      <c r="B491" s="11" t="s">
-        <v>18</v>
+      <c r="B491" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C491" s="11" t="s">
         <v>3</v>
@@ -40686,8 +40674,8 @@
       <c r="A492" s="4" t="s">
         <v>527</v>
       </c>
-      <c r="B492" s="11" t="s">
-        <v>18</v>
+      <c r="B492" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C492" s="11" t="s">
         <v>3</v>
@@ -40763,8 +40751,8 @@
       <c r="A493" s="4" t="s">
         <v>528</v>
       </c>
-      <c r="B493" s="11" t="s">
-        <v>18</v>
+      <c r="B493" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C493" s="11" t="s">
         <v>3</v>
@@ -40840,8 +40828,8 @@
       <c r="A494" s="4" t="s">
         <v>529</v>
       </c>
-      <c r="B494" s="11" t="s">
-        <v>18</v>
+      <c r="B494" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C494" s="11" t="s">
         <v>3</v>
@@ -40917,8 +40905,8 @@
       <c r="A495" s="4" t="s">
         <v>530</v>
       </c>
-      <c r="B495" s="11" t="s">
-        <v>18</v>
+      <c r="B495" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C495" s="11" t="s">
         <v>3</v>
@@ -40994,8 +40982,8 @@
       <c r="A496" s="4" t="s">
         <v>531</v>
       </c>
-      <c r="B496" s="11" t="s">
-        <v>18</v>
+      <c r="B496" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C496" s="11" t="s">
         <v>3</v>
@@ -41071,8 +41059,8 @@
       <c r="A497" s="4" t="s">
         <v>532</v>
       </c>
-      <c r="B497" s="11" t="s">
-        <v>18</v>
+      <c r="B497" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C497" s="11" t="s">
         <v>3</v>
@@ -41148,8 +41136,8 @@
       <c r="A498" s="4" t="s">
         <v>533</v>
       </c>
-      <c r="B498" s="11" t="s">
-        <v>18</v>
+      <c r="B498" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C498" s="11" t="s">
         <v>3</v>
@@ -41225,8 +41213,8 @@
       <c r="A499" s="4" t="s">
         <v>534</v>
       </c>
-      <c r="B499" s="11" t="s">
-        <v>18</v>
+      <c r="B499" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C499" s="11" t="s">
         <v>3</v>
@@ -41302,8 +41290,8 @@
       <c r="A500" s="4" t="s">
         <v>535</v>
       </c>
-      <c r="B500" s="11" t="s">
-        <v>18</v>
+      <c r="B500" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C500" s="11" t="s">
         <v>3</v>
@@ -41379,8 +41367,8 @@
       <c r="A501" s="4" t="s">
         <v>536</v>
       </c>
-      <c r="B501" s="11" t="s">
-        <v>18</v>
+      <c r="B501" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C501" s="11" t="s">
         <v>3</v>
@@ -41456,8 +41444,8 @@
       <c r="A502" s="4" t="s">
         <v>537</v>
       </c>
-      <c r="B502" s="11" t="s">
-        <v>18</v>
+      <c r="B502" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C502" s="11" t="s">
         <v>3</v>
@@ -41533,8 +41521,8 @@
       <c r="A503" s="4" t="s">
         <v>538</v>
       </c>
-      <c r="B503" s="11" t="s">
-        <v>18</v>
+      <c r="B503" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C503" s="11" t="s">
         <v>3</v>
@@ -41610,8 +41598,8 @@
       <c r="A504" s="4" t="s">
         <v>539</v>
       </c>
-      <c r="B504" s="11" t="s">
-        <v>18</v>
+      <c r="B504" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C504" s="11" t="s">
         <v>3</v>
@@ -41687,8 +41675,8 @@
       <c r="A505" s="4" t="s">
         <v>540</v>
       </c>
-      <c r="B505" s="11" t="s">
-        <v>18</v>
+      <c r="B505" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C505" s="11" t="s">
         <v>3</v>
@@ -41764,8 +41752,8 @@
       <c r="A506" s="4" t="s">
         <v>541</v>
       </c>
-      <c r="B506" s="11" t="s">
-        <v>18</v>
+      <c r="B506" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C506" s="11" t="s">
         <v>3</v>
@@ -41841,8 +41829,8 @@
       <c r="A507" s="4" t="s">
         <v>542</v>
       </c>
-      <c r="B507" s="11" t="s">
-        <v>18</v>
+      <c r="B507" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C507" s="11" t="s">
         <v>3</v>
@@ -41918,8 +41906,8 @@
       <c r="A508" s="4" t="s">
         <v>543</v>
       </c>
-      <c r="B508" s="11" t="s">
-        <v>18</v>
+      <c r="B508" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C508" s="11" t="s">
         <v>3</v>
@@ -41995,8 +41983,8 @@
       <c r="A509" s="4" t="s">
         <v>544</v>
       </c>
-      <c r="B509" s="11" t="s">
-        <v>18</v>
+      <c r="B509" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C509" s="11" t="s">
         <v>3</v>
@@ -42072,8 +42060,8 @@
       <c r="A510" s="4" t="s">
         <v>545</v>
       </c>
-      <c r="B510" s="11" t="s">
-        <v>18</v>
+      <c r="B510" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C510" s="11" t="s">
         <v>3</v>
@@ -42149,8 +42137,8 @@
       <c r="A511" s="4" t="s">
         <v>546</v>
       </c>
-      <c r="B511" s="11" t="s">
-        <v>18</v>
+      <c r="B511" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C511" s="11" t="s">
         <v>3</v>
@@ -42226,8 +42214,8 @@
       <c r="A512" s="4" t="s">
         <v>547</v>
       </c>
-      <c r="B512" s="11" t="s">
-        <v>18</v>
+      <c r="B512" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C512" s="11" t="s">
         <v>3</v>
@@ -42303,8 +42291,8 @@
       <c r="A513" s="4" t="s">
         <v>548</v>
       </c>
-      <c r="B513" s="11" t="s">
-        <v>18</v>
+      <c r="B513" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C513" s="11" t="s">
         <v>3</v>
@@ -42380,8 +42368,8 @@
       <c r="A514" s="4" t="s">
         <v>549</v>
       </c>
-      <c r="B514" s="11" t="s">
-        <v>18</v>
+      <c r="B514" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C514" s="11" t="s">
         <v>3</v>
@@ -42457,8 +42445,8 @@
       <c r="A515" s="4" t="s">
         <v>550</v>
       </c>
-      <c r="B515" s="11" t="s">
-        <v>18</v>
+      <c r="B515" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C515" s="11" t="s">
         <v>3</v>
@@ -42534,8 +42522,8 @@
       <c r="A516" s="4" t="s">
         <v>551</v>
       </c>
-      <c r="B516" s="11" t="s">
-        <v>18</v>
+      <c r="B516" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C516" s="11" t="s">
         <v>3</v>
@@ -42611,8 +42599,8 @@
       <c r="A517" s="4" t="s">
         <v>552</v>
       </c>
-      <c r="B517" s="11" t="s">
-        <v>18</v>
+      <c r="B517" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C517" s="11" t="s">
         <v>3</v>
@@ -42688,8 +42676,8 @@
       <c r="A518" s="4" t="s">
         <v>553</v>
       </c>
-      <c r="B518" s="11" t="s">
-        <v>18</v>
+      <c r="B518" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C518" s="11" t="s">
         <v>3</v>
@@ -42765,8 +42753,8 @@
       <c r="A519" s="4" t="s">
         <v>554</v>
       </c>
-      <c r="B519" s="11" t="s">
-        <v>18</v>
+      <c r="B519" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C519" s="11" t="s">
         <v>3</v>
@@ -42842,8 +42830,8 @@
       <c r="A520" s="4" t="s">
         <v>555</v>
       </c>
-      <c r="B520" s="11" t="s">
-        <v>18</v>
+      <c r="B520" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C520" s="11" t="s">
         <v>3</v>
@@ -42919,8 +42907,8 @@
       <c r="A521" s="4" t="s">
         <v>556</v>
       </c>
-      <c r="B521" s="11" t="s">
-        <v>18</v>
+      <c r="B521" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C521" s="11" t="s">
         <v>3</v>
@@ -42996,8 +42984,8 @@
       <c r="A522" s="4" t="s">
         <v>557</v>
       </c>
-      <c r="B522" s="11" t="s">
-        <v>18</v>
+      <c r="B522" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C522" s="11" t="s">
         <v>3</v>
@@ -43073,8 +43061,8 @@
       <c r="A523" s="4" t="s">
         <v>558</v>
       </c>
-      <c r="B523" s="11" t="s">
-        <v>18</v>
+      <c r="B523" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C523" s="11" t="s">
         <v>3</v>
@@ -43150,8 +43138,8 @@
       <c r="A524" s="4" t="s">
         <v>559</v>
       </c>
-      <c r="B524" s="11" t="s">
-        <v>18</v>
+      <c r="B524" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C524" s="11" t="s">
         <v>3</v>
@@ -43227,8 +43215,8 @@
       <c r="A525" s="4" t="s">
         <v>560</v>
       </c>
-      <c r="B525" s="11" t="s">
-        <v>18</v>
+      <c r="B525" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C525" s="11" t="s">
         <v>3</v>
@@ -43304,8 +43292,8 @@
       <c r="A526" s="4" t="s">
         <v>561</v>
       </c>
-      <c r="B526" s="11" t="s">
-        <v>18</v>
+      <c r="B526" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C526" s="11" t="s">
         <v>3</v>
@@ -43381,8 +43369,8 @@
       <c r="A527" s="4" t="s">
         <v>562</v>
       </c>
-      <c r="B527" s="11" t="s">
-        <v>18</v>
+      <c r="B527" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C527" s="11" t="s">
         <v>3</v>
@@ -43458,8 +43446,8 @@
       <c r="A528" s="4" t="s">
         <v>563</v>
       </c>
-      <c r="B528" s="11" t="s">
-        <v>18</v>
+      <c r="B528" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C528" s="11" t="s">
         <v>3</v>
@@ -43535,8 +43523,8 @@
       <c r="A529" s="4" t="s">
         <v>564</v>
       </c>
-      <c r="B529" s="11" t="s">
-        <v>18</v>
+      <c r="B529" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C529" s="11" t="s">
         <v>3</v>
@@ -43612,8 +43600,8 @@
       <c r="A530" s="4" t="s">
         <v>565</v>
       </c>
-      <c r="B530" s="11" t="s">
-        <v>18</v>
+      <c r="B530" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C530" s="11" t="s">
         <v>3</v>
@@ -43689,8 +43677,8 @@
       <c r="A531" s="4" t="s">
         <v>566</v>
       </c>
-      <c r="B531" s="11" t="s">
-        <v>18</v>
+      <c r="B531" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C531" s="11" t="s">
         <v>3</v>
@@ -43766,8 +43754,8 @@
       <c r="A532" s="4" t="s">
         <v>567</v>
       </c>
-      <c r="B532" s="11" t="s">
-        <v>18</v>
+      <c r="B532" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C532" s="11" t="s">
         <v>3</v>
@@ -43843,8 +43831,8 @@
       <c r="A533" s="4" t="s">
         <v>568</v>
       </c>
-      <c r="B533" s="11" t="s">
-        <v>18</v>
+      <c r="B533" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C533" s="11" t="s">
         <v>3</v>
@@ -43925,7 +43913,7 @@
     <mergeCell ref="P1:R1"/>
   </mergeCells>
   <conditionalFormatting sqref="A3:A533">
-    <cfRule type="duplicateValues" dxfId="2" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="5"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -43935,31 +43923,31 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>Settings!$D$3:$D$4</xm:f>
           </x14:formula1>
           <xm:sqref>W3:W1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>Settings!$A$3:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>B3:B1048576</xm:sqref>
+          <xm:sqref>B534:B1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
             <xm:f>Settings!$B$3:$B$4</xm:f>
           </x14:formula1>
           <xm:sqref>C3:C1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
           <x14:formula1>
             <xm:f>Settings!$C$3:$C$4</xm:f>
           </x14:formula1>
           <xm:sqref>S3:S1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000004000000}">
           <x14:formula1>
             <xm:f>Settings!$E$3:$E$4</xm:f>
           </x14:formula1>
@@ -43972,11 +43960,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/ProjectFiles/Mikilua/PyDSS Settings/HP-VV-B2/pyControllerList/PV Controller.xlsx
+++ b/ProjectFiles/Mikilua/PyDSS Settings/HP-VV-B2/pyControllerList/PV Controller.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10523"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2594E122-D933-5444-8B1A-5C7CAAF67BA8}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED45F95F-8847-AF44-BAF3-D303E766FDE4}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4240" yWindow="4880" windowWidth="28080" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2000,7 +2000,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2065,7 +2065,6 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="15">
     <cellStyle name="20% - Accent1" xfId="11" builtinId="30"/>
@@ -2097,9 +2096,9 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
+        <color theme="1"/>
         <name val="Courier New"/>
-        <family val="1"/>
+        <family val="3"/>
         <scheme val="none"/>
       </font>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2208,6 +2207,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Courier New"/>
+        <family val="3"/>
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2494,10 +2494,17 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FFFFFFFF"/>
         <name val="Courier New"/>
+        <family val="1"/>
         <scheme val="none"/>
       </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF2F75B5"/>
+          <bgColor rgb="FF2F75B5"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2582,8 +2589,8 @@
   <autoFilter ref="A2:X533" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="24">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Controlled PV" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Qcontrol" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Pcontrol" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Qcontrol" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Pcontrol" dataDxfId="0"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="pf" dataDxfId="21"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="pfMin" dataDxfId="20"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="pfMax" dataDxfId="19"/>
@@ -2875,8 +2882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y533"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A510" zoomScale="111" zoomScaleNormal="111" workbookViewId="0">
-      <selection activeCell="B533" sqref="B533"/>
+    <sheetView tabSelected="1" zoomScale="111" zoomScaleNormal="111" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3021,7 +3028,7 @@
       <c r="A3" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="11" t="s">
@@ -3073,7 +3080,7 @@
         <v>10</v>
       </c>
       <c r="S3" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T3" s="11">
         <v>10</v>
@@ -3098,7 +3105,7 @@
       <c r="A4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="11" t="s">
@@ -3150,7 +3157,7 @@
         <v>10</v>
       </c>
       <c r="S4" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T4" s="11">
         <v>10</v>
@@ -3175,7 +3182,7 @@
       <c r="A5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="11" t="s">
@@ -3227,7 +3234,7 @@
         <v>10</v>
       </c>
       <c r="S5" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T5" s="11">
         <v>10</v>
@@ -3252,7 +3259,7 @@
       <c r="A6" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="11" t="s">
@@ -3304,7 +3311,7 @@
         <v>10</v>
       </c>
       <c r="S6" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T6" s="11">
         <v>10</v>
@@ -3329,7 +3336,7 @@
       <c r="A7" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="11" t="s">
@@ -3381,7 +3388,7 @@
         <v>10</v>
       </c>
       <c r="S7" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T7" s="11">
         <v>10</v>
@@ -3406,7 +3413,7 @@
       <c r="A8" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C8" s="11" t="s">
@@ -3458,7 +3465,7 @@
         <v>10</v>
       </c>
       <c r="S8" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T8" s="11">
         <v>10</v>
@@ -3483,7 +3490,7 @@
       <c r="A9" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C9" s="11" t="s">
@@ -3535,7 +3542,7 @@
         <v>10</v>
       </c>
       <c r="S9" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T9" s="11">
         <v>10</v>
@@ -3560,7 +3567,7 @@
       <c r="A10" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C10" s="11" t="s">
@@ -3612,7 +3619,7 @@
         <v>10</v>
       </c>
       <c r="S10" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T10" s="11">
         <v>10</v>
@@ -3637,7 +3644,7 @@
       <c r="A11" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C11" s="11" t="s">
@@ -3689,7 +3696,7 @@
         <v>10</v>
       </c>
       <c r="S11" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T11" s="11">
         <v>10</v>
@@ -3714,7 +3721,7 @@
       <c r="A12" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C12" s="11" t="s">
@@ -3766,7 +3773,7 @@
         <v>10</v>
       </c>
       <c r="S12" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T12" s="11">
         <v>10</v>
@@ -3791,7 +3798,7 @@
       <c r="A13" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C13" s="11" t="s">
@@ -3843,7 +3850,7 @@
         <v>10</v>
       </c>
       <c r="S13" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T13" s="11">
         <v>10</v>
@@ -3868,7 +3875,7 @@
       <c r="A14" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C14" s="11" t="s">
@@ -3920,7 +3927,7 @@
         <v>10</v>
       </c>
       <c r="S14" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T14" s="11">
         <v>10</v>
@@ -3945,7 +3952,7 @@
       <c r="A15" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C15" s="11" t="s">
@@ -3997,7 +4004,7 @@
         <v>10</v>
       </c>
       <c r="S15" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T15" s="11">
         <v>10</v>
@@ -4022,7 +4029,7 @@
       <c r="A16" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C16" s="11" t="s">
@@ -4074,7 +4081,7 @@
         <v>10</v>
       </c>
       <c r="S16" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T16" s="11">
         <v>10</v>
@@ -4099,7 +4106,7 @@
       <c r="A17" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C17" s="11" t="s">
@@ -4151,7 +4158,7 @@
         <v>10</v>
       </c>
       <c r="S17" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T17" s="11">
         <v>10</v>
@@ -4176,7 +4183,7 @@
       <c r="A18" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C18" s="11" t="s">
@@ -4228,7 +4235,7 @@
         <v>10</v>
       </c>
       <c r="S18" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T18" s="11">
         <v>10</v>
@@ -4253,7 +4260,7 @@
       <c r="A19" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C19" s="11" t="s">
@@ -4305,7 +4312,7 @@
         <v>10</v>
       </c>
       <c r="S19" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T19" s="11">
         <v>10</v>
@@ -4330,7 +4337,7 @@
       <c r="A20" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C20" s="11" t="s">
@@ -4382,7 +4389,7 @@
         <v>10</v>
       </c>
       <c r="S20" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T20" s="11">
         <v>10</v>
@@ -4407,7 +4414,7 @@
       <c r="A21" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B21" s="30" t="s">
+      <c r="B21" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C21" s="11" t="s">
@@ -4459,7 +4466,7 @@
         <v>10</v>
       </c>
       <c r="S21" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T21" s="11">
         <v>10</v>
@@ -4484,7 +4491,7 @@
       <c r="A22" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B22" s="30" t="s">
+      <c r="B22" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C22" s="11" t="s">
@@ -4536,7 +4543,7 @@
         <v>10</v>
       </c>
       <c r="S22" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T22" s="11">
         <v>10</v>
@@ -4561,7 +4568,7 @@
       <c r="A23" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C23" s="11" t="s">
@@ -4613,7 +4620,7 @@
         <v>10</v>
       </c>
       <c r="S23" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T23" s="11">
         <v>10</v>
@@ -4638,7 +4645,7 @@
       <c r="A24" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B24" s="30" t="s">
+      <c r="B24" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C24" s="11" t="s">
@@ -4690,7 +4697,7 @@
         <v>10</v>
       </c>
       <c r="S24" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T24" s="11">
         <v>10</v>
@@ -4715,7 +4722,7 @@
       <c r="A25" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="30" t="s">
+      <c r="B25" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C25" s="11" t="s">
@@ -4767,7 +4774,7 @@
         <v>10</v>
       </c>
       <c r="S25" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T25" s="11">
         <v>10</v>
@@ -4792,7 +4799,7 @@
       <c r="A26" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B26" s="30" t="s">
+      <c r="B26" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C26" s="11" t="s">
@@ -4844,7 +4851,7 @@
         <v>10</v>
       </c>
       <c r="S26" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T26" s="11">
         <v>10</v>
@@ -4869,7 +4876,7 @@
       <c r="A27" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B27" s="30" t="s">
+      <c r="B27" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C27" s="11" t="s">
@@ -4921,7 +4928,7 @@
         <v>10</v>
       </c>
       <c r="S27" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T27" s="11">
         <v>10</v>
@@ -4946,7 +4953,7 @@
       <c r="A28" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B28" s="30" t="s">
+      <c r="B28" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C28" s="11" t="s">
@@ -4998,7 +5005,7 @@
         <v>10</v>
       </c>
       <c r="S28" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T28" s="11">
         <v>10</v>
@@ -5023,7 +5030,7 @@
       <c r="A29" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B29" s="30" t="s">
+      <c r="B29" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C29" s="11" t="s">
@@ -5075,7 +5082,7 @@
         <v>10</v>
       </c>
       <c r="S29" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T29" s="11">
         <v>10</v>
@@ -5100,7 +5107,7 @@
       <c r="A30" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B30" s="30" t="s">
+      <c r="B30" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C30" s="11" t="s">
@@ -5152,7 +5159,7 @@
         <v>10</v>
       </c>
       <c r="S30" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T30" s="11">
         <v>10</v>
@@ -5177,7 +5184,7 @@
       <c r="A31" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B31" s="30" t="s">
+      <c r="B31" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C31" s="11" t="s">
@@ -5229,7 +5236,7 @@
         <v>10</v>
       </c>
       <c r="S31" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T31" s="11">
         <v>10</v>
@@ -5254,7 +5261,7 @@
       <c r="A32" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B32" s="30" t="s">
+      <c r="B32" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C32" s="11" t="s">
@@ -5306,7 +5313,7 @@
         <v>10</v>
       </c>
       <c r="S32" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T32" s="11">
         <v>10</v>
@@ -5331,7 +5338,7 @@
       <c r="A33" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B33" s="30" t="s">
+      <c r="B33" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C33" s="11" t="s">
@@ -5383,7 +5390,7 @@
         <v>10</v>
       </c>
       <c r="S33" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T33" s="11">
         <v>10</v>
@@ -5408,7 +5415,7 @@
       <c r="A34" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B34" s="30" t="s">
+      <c r="B34" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C34" s="11" t="s">
@@ -5460,7 +5467,7 @@
         <v>10</v>
       </c>
       <c r="S34" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T34" s="11">
         <v>10</v>
@@ -5485,7 +5492,7 @@
       <c r="A35" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B35" s="30" t="s">
+      <c r="B35" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C35" s="11" t="s">
@@ -5537,7 +5544,7 @@
         <v>10</v>
       </c>
       <c r="S35" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T35" s="11">
         <v>10</v>
@@ -5562,7 +5569,7 @@
       <c r="A36" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B36" s="30" t="s">
+      <c r="B36" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C36" s="11" t="s">
@@ -5614,7 +5621,7 @@
         <v>10</v>
       </c>
       <c r="S36" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T36" s="11">
         <v>10</v>
@@ -5639,7 +5646,7 @@
       <c r="A37" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B37" s="30" t="s">
+      <c r="B37" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C37" s="11" t="s">
@@ -5691,7 +5698,7 @@
         <v>10</v>
       </c>
       <c r="S37" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T37" s="11">
         <v>10</v>
@@ -5716,7 +5723,7 @@
       <c r="A38" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B38" s="30" t="s">
+      <c r="B38" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C38" s="11" t="s">
@@ -5768,7 +5775,7 @@
         <v>10</v>
       </c>
       <c r="S38" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T38" s="11">
         <v>10</v>
@@ -5793,7 +5800,7 @@
       <c r="A39" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B39" s="30" t="s">
+      <c r="B39" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C39" s="11" t="s">
@@ -5845,7 +5852,7 @@
         <v>10</v>
       </c>
       <c r="S39" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T39" s="11">
         <v>10</v>
@@ -5870,7 +5877,7 @@
       <c r="A40" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B40" s="30" t="s">
+      <c r="B40" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C40" s="11" t="s">
@@ -5922,7 +5929,7 @@
         <v>10</v>
       </c>
       <c r="S40" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T40" s="11">
         <v>10</v>
@@ -5947,7 +5954,7 @@
       <c r="A41" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B41" s="30" t="s">
+      <c r="B41" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C41" s="11" t="s">
@@ -5999,7 +6006,7 @@
         <v>10</v>
       </c>
       <c r="S41" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T41" s="11">
         <v>10</v>
@@ -6024,7 +6031,7 @@
       <c r="A42" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B42" s="30" t="s">
+      <c r="B42" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C42" s="11" t="s">
@@ -6076,7 +6083,7 @@
         <v>10</v>
       </c>
       <c r="S42" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T42" s="11">
         <v>10</v>
@@ -6101,7 +6108,7 @@
       <c r="A43" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B43" s="30" t="s">
+      <c r="B43" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C43" s="11" t="s">
@@ -6153,7 +6160,7 @@
         <v>10</v>
       </c>
       <c r="S43" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T43" s="11">
         <v>10</v>
@@ -6178,7 +6185,7 @@
       <c r="A44" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B44" s="30" t="s">
+      <c r="B44" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C44" s="11" t="s">
@@ -6230,7 +6237,7 @@
         <v>10</v>
       </c>
       <c r="S44" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T44" s="11">
         <v>10</v>
@@ -6255,7 +6262,7 @@
       <c r="A45" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B45" s="30" t="s">
+      <c r="B45" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C45" s="11" t="s">
@@ -6307,7 +6314,7 @@
         <v>10</v>
       </c>
       <c r="S45" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T45" s="11">
         <v>10</v>
@@ -6332,7 +6339,7 @@
       <c r="A46" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B46" s="30" t="s">
+      <c r="B46" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C46" s="11" t="s">
@@ -6384,7 +6391,7 @@
         <v>10</v>
       </c>
       <c r="S46" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T46" s="11">
         <v>10</v>
@@ -6409,7 +6416,7 @@
       <c r="A47" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B47" s="30" t="s">
+      <c r="B47" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C47" s="11" t="s">
@@ -6461,7 +6468,7 @@
         <v>10</v>
       </c>
       <c r="S47" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T47" s="11">
         <v>10</v>
@@ -6486,7 +6493,7 @@
       <c r="A48" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B48" s="30" t="s">
+      <c r="B48" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C48" s="11" t="s">
@@ -6538,7 +6545,7 @@
         <v>10</v>
       </c>
       <c r="S48" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T48" s="11">
         <v>10</v>
@@ -6563,7 +6570,7 @@
       <c r="A49" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B49" s="30" t="s">
+      <c r="B49" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C49" s="11" t="s">
@@ -6615,7 +6622,7 @@
         <v>10</v>
       </c>
       <c r="S49" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T49" s="11">
         <v>10</v>
@@ -6640,7 +6647,7 @@
       <c r="A50" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B50" s="30" t="s">
+      <c r="B50" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C50" s="11" t="s">
@@ -6692,7 +6699,7 @@
         <v>10</v>
       </c>
       <c r="S50" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T50" s="11">
         <v>10</v>
@@ -6717,7 +6724,7 @@
       <c r="A51" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B51" s="30" t="s">
+      <c r="B51" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C51" s="11" t="s">
@@ -6769,7 +6776,7 @@
         <v>10</v>
       </c>
       <c r="S51" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T51" s="11">
         <v>10</v>
@@ -6794,7 +6801,7 @@
       <c r="A52" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B52" s="30" t="s">
+      <c r="B52" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C52" s="11" t="s">
@@ -6846,7 +6853,7 @@
         <v>10</v>
       </c>
       <c r="S52" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T52" s="11">
         <v>10</v>
@@ -6871,7 +6878,7 @@
       <c r="A53" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B53" s="30" t="s">
+      <c r="B53" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C53" s="11" t="s">
@@ -6923,7 +6930,7 @@
         <v>10</v>
       </c>
       <c r="S53" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T53" s="11">
         <v>10</v>
@@ -6948,7 +6955,7 @@
       <c r="A54" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B54" s="30" t="s">
+      <c r="B54" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C54" s="11" t="s">
@@ -7000,7 +7007,7 @@
         <v>10</v>
       </c>
       <c r="S54" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T54" s="11">
         <v>10</v>
@@ -7025,7 +7032,7 @@
       <c r="A55" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B55" s="30" t="s">
+      <c r="B55" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C55" s="11" t="s">
@@ -7077,7 +7084,7 @@
         <v>10</v>
       </c>
       <c r="S55" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T55" s="11">
         <v>10</v>
@@ -7102,7 +7109,7 @@
       <c r="A56" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B56" s="30" t="s">
+      <c r="B56" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C56" s="11" t="s">
@@ -7154,7 +7161,7 @@
         <v>10</v>
       </c>
       <c r="S56" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T56" s="11">
         <v>10</v>
@@ -7179,7 +7186,7 @@
       <c r="A57" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B57" s="30" t="s">
+      <c r="B57" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C57" s="11" t="s">
@@ -7231,7 +7238,7 @@
         <v>10</v>
       </c>
       <c r="S57" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T57" s="11">
         <v>10</v>
@@ -7256,7 +7263,7 @@
       <c r="A58" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B58" s="30" t="s">
+      <c r="B58" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C58" s="11" t="s">
@@ -7308,7 +7315,7 @@
         <v>10</v>
       </c>
       <c r="S58" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T58" s="11">
         <v>10</v>
@@ -7333,7 +7340,7 @@
       <c r="A59" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B59" s="30" t="s">
+      <c r="B59" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C59" s="11" t="s">
@@ -7385,7 +7392,7 @@
         <v>10</v>
       </c>
       <c r="S59" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T59" s="11">
         <v>10</v>
@@ -7410,7 +7417,7 @@
       <c r="A60" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B60" s="30" t="s">
+      <c r="B60" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C60" s="11" t="s">
@@ -7462,7 +7469,7 @@
         <v>10</v>
       </c>
       <c r="S60" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T60" s="11">
         <v>10</v>
@@ -7487,7 +7494,7 @@
       <c r="A61" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B61" s="30" t="s">
+      <c r="B61" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C61" s="11" t="s">
@@ -7539,7 +7546,7 @@
         <v>10</v>
       </c>
       <c r="S61" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T61" s="11">
         <v>10</v>
@@ -7564,7 +7571,7 @@
       <c r="A62" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B62" s="30" t="s">
+      <c r="B62" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C62" s="11" t="s">
@@ -7616,7 +7623,7 @@
         <v>10</v>
       </c>
       <c r="S62" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T62" s="11">
         <v>10</v>
@@ -7641,7 +7648,7 @@
       <c r="A63" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B63" s="30" t="s">
+      <c r="B63" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C63" s="11" t="s">
@@ -7693,7 +7700,7 @@
         <v>10</v>
       </c>
       <c r="S63" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T63" s="11">
         <v>10</v>
@@ -7718,7 +7725,7 @@
       <c r="A64" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B64" s="30" t="s">
+      <c r="B64" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C64" s="11" t="s">
@@ -7770,7 +7777,7 @@
         <v>10</v>
       </c>
       <c r="S64" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T64" s="11">
         <v>10</v>
@@ -7795,7 +7802,7 @@
       <c r="A65" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B65" s="30" t="s">
+      <c r="B65" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C65" s="11" t="s">
@@ -7847,7 +7854,7 @@
         <v>10</v>
       </c>
       <c r="S65" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T65" s="11">
         <v>10</v>
@@ -7872,7 +7879,7 @@
       <c r="A66" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B66" s="30" t="s">
+      <c r="B66" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C66" s="11" t="s">
@@ -7924,7 +7931,7 @@
         <v>10</v>
       </c>
       <c r="S66" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T66" s="11">
         <v>10</v>
@@ -7949,7 +7956,7 @@
       <c r="A67" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B67" s="30" t="s">
+      <c r="B67" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C67" s="11" t="s">
@@ -8001,7 +8008,7 @@
         <v>10</v>
       </c>
       <c r="S67" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T67" s="11">
         <v>10</v>
@@ -8026,7 +8033,7 @@
       <c r="A68" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B68" s="30" t="s">
+      <c r="B68" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C68" s="11" t="s">
@@ -8078,7 +8085,7 @@
         <v>10</v>
       </c>
       <c r="S68" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T68" s="11">
         <v>10</v>
@@ -8103,7 +8110,7 @@
       <c r="A69" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B69" s="30" t="s">
+      <c r="B69" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C69" s="11" t="s">
@@ -8155,7 +8162,7 @@
         <v>10</v>
       </c>
       <c r="S69" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T69" s="11">
         <v>10</v>
@@ -8180,7 +8187,7 @@
       <c r="A70" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B70" s="30" t="s">
+      <c r="B70" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C70" s="11" t="s">
@@ -8232,7 +8239,7 @@
         <v>10</v>
       </c>
       <c r="S70" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T70" s="11">
         <v>10</v>
@@ -8257,7 +8264,7 @@
       <c r="A71" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B71" s="30" t="s">
+      <c r="B71" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C71" s="11" t="s">
@@ -8309,7 +8316,7 @@
         <v>10</v>
       </c>
       <c r="S71" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T71" s="11">
         <v>10</v>
@@ -8334,7 +8341,7 @@
       <c r="A72" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B72" s="30" t="s">
+      <c r="B72" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C72" s="11" t="s">
@@ -8386,7 +8393,7 @@
         <v>10</v>
       </c>
       <c r="S72" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T72" s="11">
         <v>10</v>
@@ -8411,7 +8418,7 @@
       <c r="A73" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B73" s="30" t="s">
+      <c r="B73" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C73" s="11" t="s">
@@ -8463,7 +8470,7 @@
         <v>10</v>
       </c>
       <c r="S73" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T73" s="11">
         <v>10</v>
@@ -8488,7 +8495,7 @@
       <c r="A74" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B74" s="30" t="s">
+      <c r="B74" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C74" s="11" t="s">
@@ -8540,7 +8547,7 @@
         <v>10</v>
       </c>
       <c r="S74" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T74" s="11">
         <v>10</v>
@@ -8565,7 +8572,7 @@
       <c r="A75" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B75" s="30" t="s">
+      <c r="B75" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C75" s="11" t="s">
@@ -8617,7 +8624,7 @@
         <v>10</v>
       </c>
       <c r="S75" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T75" s="11">
         <v>10</v>
@@ -8642,7 +8649,7 @@
       <c r="A76" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B76" s="30" t="s">
+      <c r="B76" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C76" s="11" t="s">
@@ -8694,7 +8701,7 @@
         <v>10</v>
       </c>
       <c r="S76" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T76" s="11">
         <v>10</v>
@@ -8719,7 +8726,7 @@
       <c r="A77" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B77" s="30" t="s">
+      <c r="B77" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C77" s="11" t="s">
@@ -8771,7 +8778,7 @@
         <v>10</v>
       </c>
       <c r="S77" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T77" s="11">
         <v>10</v>
@@ -8796,7 +8803,7 @@
       <c r="A78" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B78" s="30" t="s">
+      <c r="B78" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C78" s="11" t="s">
@@ -8848,7 +8855,7 @@
         <v>10</v>
       </c>
       <c r="S78" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T78" s="11">
         <v>10</v>
@@ -8873,7 +8880,7 @@
       <c r="A79" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B79" s="30" t="s">
+      <c r="B79" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C79" s="11" t="s">
@@ -8925,7 +8932,7 @@
         <v>10</v>
       </c>
       <c r="S79" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T79" s="11">
         <v>10</v>
@@ -8950,7 +8957,7 @@
       <c r="A80" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B80" s="30" t="s">
+      <c r="B80" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C80" s="11" t="s">
@@ -9002,7 +9009,7 @@
         <v>10</v>
       </c>
       <c r="S80" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T80" s="11">
         <v>10</v>
@@ -9027,7 +9034,7 @@
       <c r="A81" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B81" s="30" t="s">
+      <c r="B81" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C81" s="11" t="s">
@@ -9079,7 +9086,7 @@
         <v>10</v>
       </c>
       <c r="S81" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T81" s="11">
         <v>10</v>
@@ -9104,7 +9111,7 @@
       <c r="A82" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B82" s="30" t="s">
+      <c r="B82" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C82" s="11" t="s">
@@ -9156,7 +9163,7 @@
         <v>10</v>
       </c>
       <c r="S82" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T82" s="11">
         <v>10</v>
@@ -9181,7 +9188,7 @@
       <c r="A83" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B83" s="30" t="s">
+      <c r="B83" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C83" s="11" t="s">
@@ -9233,7 +9240,7 @@
         <v>10</v>
       </c>
       <c r="S83" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T83" s="11">
         <v>10</v>
@@ -9258,7 +9265,7 @@
       <c r="A84" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B84" s="30" t="s">
+      <c r="B84" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C84" s="11" t="s">
@@ -9310,7 +9317,7 @@
         <v>10</v>
       </c>
       <c r="S84" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T84" s="11">
         <v>10</v>
@@ -9335,7 +9342,7 @@
       <c r="A85" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B85" s="30" t="s">
+      <c r="B85" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C85" s="11" t="s">
@@ -9387,7 +9394,7 @@
         <v>10</v>
       </c>
       <c r="S85" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T85" s="11">
         <v>10</v>
@@ -9412,7 +9419,7 @@
       <c r="A86" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B86" s="30" t="s">
+      <c r="B86" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C86" s="11" t="s">
@@ -9464,7 +9471,7 @@
         <v>10</v>
       </c>
       <c r="S86" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T86" s="11">
         <v>10</v>
@@ -9489,7 +9496,7 @@
       <c r="A87" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B87" s="30" t="s">
+      <c r="B87" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C87" s="11" t="s">
@@ -9541,7 +9548,7 @@
         <v>10</v>
       </c>
       <c r="S87" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T87" s="11">
         <v>10</v>
@@ -9566,7 +9573,7 @@
       <c r="A88" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B88" s="30" t="s">
+      <c r="B88" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C88" s="11" t="s">
@@ -9618,7 +9625,7 @@
         <v>10</v>
       </c>
       <c r="S88" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T88" s="11">
         <v>10</v>
@@ -9643,7 +9650,7 @@
       <c r="A89" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B89" s="30" t="s">
+      <c r="B89" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C89" s="11" t="s">
@@ -9695,7 +9702,7 @@
         <v>10</v>
       </c>
       <c r="S89" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T89" s="11">
         <v>10</v>
@@ -9720,7 +9727,7 @@
       <c r="A90" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B90" s="30" t="s">
+      <c r="B90" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C90" s="11" t="s">
@@ -9772,7 +9779,7 @@
         <v>10</v>
       </c>
       <c r="S90" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T90" s="11">
         <v>10</v>
@@ -9797,7 +9804,7 @@
       <c r="A91" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="B91" s="30" t="s">
+      <c r="B91" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C91" s="11" t="s">
@@ -9849,7 +9856,7 @@
         <v>10</v>
       </c>
       <c r="S91" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T91" s="11">
         <v>10</v>
@@ -9874,7 +9881,7 @@
       <c r="A92" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B92" s="30" t="s">
+      <c r="B92" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C92" s="11" t="s">
@@ -9926,7 +9933,7 @@
         <v>10</v>
       </c>
       <c r="S92" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T92" s="11">
         <v>10</v>
@@ -9951,7 +9958,7 @@
       <c r="A93" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B93" s="30" t="s">
+      <c r="B93" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C93" s="11" t="s">
@@ -10003,7 +10010,7 @@
         <v>10</v>
       </c>
       <c r="S93" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T93" s="11">
         <v>10</v>
@@ -10028,7 +10035,7 @@
       <c r="A94" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B94" s="30" t="s">
+      <c r="B94" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C94" s="11" t="s">
@@ -10080,7 +10087,7 @@
         <v>10</v>
       </c>
       <c r="S94" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T94" s="11">
         <v>10</v>
@@ -10105,7 +10112,7 @@
       <c r="A95" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B95" s="30" t="s">
+      <c r="B95" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C95" s="11" t="s">
@@ -10157,7 +10164,7 @@
         <v>10</v>
       </c>
       <c r="S95" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T95" s="11">
         <v>10</v>
@@ -10182,7 +10189,7 @@
       <c r="A96" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="B96" s="30" t="s">
+      <c r="B96" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C96" s="11" t="s">
@@ -10234,7 +10241,7 @@
         <v>10</v>
       </c>
       <c r="S96" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T96" s="11">
         <v>10</v>
@@ -10259,7 +10266,7 @@
       <c r="A97" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="B97" s="30" t="s">
+      <c r="B97" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C97" s="11" t="s">
@@ -10311,7 +10318,7 @@
         <v>10</v>
       </c>
       <c r="S97" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T97" s="11">
         <v>10</v>
@@ -10336,7 +10343,7 @@
       <c r="A98" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B98" s="30" t="s">
+      <c r="B98" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C98" s="11" t="s">
@@ -10388,7 +10395,7 @@
         <v>10</v>
       </c>
       <c r="S98" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T98" s="11">
         <v>10</v>
@@ -10413,7 +10420,7 @@
       <c r="A99" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="B99" s="30" t="s">
+      <c r="B99" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C99" s="11" t="s">
@@ -10465,7 +10472,7 @@
         <v>10</v>
       </c>
       <c r="S99" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T99" s="11">
         <v>10</v>
@@ -10490,7 +10497,7 @@
       <c r="A100" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B100" s="30" t="s">
+      <c r="B100" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C100" s="11" t="s">
@@ -10542,7 +10549,7 @@
         <v>10</v>
       </c>
       <c r="S100" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T100" s="11">
         <v>10</v>
@@ -10567,7 +10574,7 @@
       <c r="A101" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="B101" s="30" t="s">
+      <c r="B101" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C101" s="11" t="s">
@@ -10619,7 +10626,7 @@
         <v>10</v>
       </c>
       <c r="S101" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T101" s="11">
         <v>10</v>
@@ -10644,7 +10651,7 @@
       <c r="A102" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="B102" s="30" t="s">
+      <c r="B102" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C102" s="11" t="s">
@@ -10696,7 +10703,7 @@
         <v>10</v>
       </c>
       <c r="S102" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T102" s="11">
         <v>10</v>
@@ -10721,7 +10728,7 @@
       <c r="A103" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="B103" s="30" t="s">
+      <c r="B103" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C103" s="11" t="s">
@@ -10773,7 +10780,7 @@
         <v>10</v>
       </c>
       <c r="S103" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T103" s="11">
         <v>10</v>
@@ -10798,7 +10805,7 @@
       <c r="A104" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="B104" s="30" t="s">
+      <c r="B104" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C104" s="11" t="s">
@@ -10850,7 +10857,7 @@
         <v>10</v>
       </c>
       <c r="S104" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T104" s="11">
         <v>10</v>
@@ -10875,7 +10882,7 @@
       <c r="A105" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="B105" s="30" t="s">
+      <c r="B105" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C105" s="11" t="s">
@@ -10927,7 +10934,7 @@
         <v>10</v>
       </c>
       <c r="S105" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T105" s="11">
         <v>10</v>
@@ -10952,7 +10959,7 @@
       <c r="A106" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="B106" s="30" t="s">
+      <c r="B106" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C106" s="11" t="s">
@@ -11004,7 +11011,7 @@
         <v>10</v>
       </c>
       <c r="S106" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T106" s="11">
         <v>10</v>
@@ -11029,7 +11036,7 @@
       <c r="A107" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="B107" s="30" t="s">
+      <c r="B107" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C107" s="11" t="s">
@@ -11081,7 +11088,7 @@
         <v>10</v>
       </c>
       <c r="S107" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T107" s="11">
         <v>10</v>
@@ -11106,7 +11113,7 @@
       <c r="A108" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="B108" s="30" t="s">
+      <c r="B108" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C108" s="11" t="s">
@@ -11158,7 +11165,7 @@
         <v>10</v>
       </c>
       <c r="S108" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T108" s="11">
         <v>10</v>
@@ -11183,7 +11190,7 @@
       <c r="A109" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="B109" s="30" t="s">
+      <c r="B109" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C109" s="11" t="s">
@@ -11235,7 +11242,7 @@
         <v>10</v>
       </c>
       <c r="S109" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T109" s="11">
         <v>10</v>
@@ -11260,7 +11267,7 @@
       <c r="A110" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="B110" s="30" t="s">
+      <c r="B110" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C110" s="11" t="s">
@@ -11312,7 +11319,7 @@
         <v>10</v>
       </c>
       <c r="S110" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T110" s="11">
         <v>10</v>
@@ -11337,7 +11344,7 @@
       <c r="A111" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="B111" s="30" t="s">
+      <c r="B111" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C111" s="11" t="s">
@@ -11389,7 +11396,7 @@
         <v>10</v>
       </c>
       <c r="S111" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T111" s="11">
         <v>10</v>
@@ -11414,7 +11421,7 @@
       <c r="A112" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="B112" s="30" t="s">
+      <c r="B112" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C112" s="11" t="s">
@@ -11466,7 +11473,7 @@
         <v>10</v>
       </c>
       <c r="S112" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T112" s="11">
         <v>10</v>
@@ -11491,7 +11498,7 @@
       <c r="A113" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="B113" s="30" t="s">
+      <c r="B113" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C113" s="11" t="s">
@@ -11543,7 +11550,7 @@
         <v>10</v>
       </c>
       <c r="S113" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T113" s="11">
         <v>10</v>
@@ -11568,7 +11575,7 @@
       <c r="A114" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="B114" s="30" t="s">
+      <c r="B114" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C114" s="11" t="s">
@@ -11620,7 +11627,7 @@
         <v>10</v>
       </c>
       <c r="S114" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T114" s="11">
         <v>10</v>
@@ -11645,7 +11652,7 @@
       <c r="A115" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="B115" s="30" t="s">
+      <c r="B115" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C115" s="11" t="s">
@@ -11697,7 +11704,7 @@
         <v>10</v>
       </c>
       <c r="S115" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T115" s="11">
         <v>10</v>
@@ -11722,7 +11729,7 @@
       <c r="A116" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="B116" s="30" t="s">
+      <c r="B116" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C116" s="11" t="s">
@@ -11774,7 +11781,7 @@
         <v>10</v>
       </c>
       <c r="S116" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T116" s="11">
         <v>10</v>
@@ -11799,7 +11806,7 @@
       <c r="A117" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="B117" s="30" t="s">
+      <c r="B117" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C117" s="11" t="s">
@@ -11851,7 +11858,7 @@
         <v>10</v>
       </c>
       <c r="S117" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T117" s="11">
         <v>10</v>
@@ -11876,7 +11883,7 @@
       <c r="A118" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="B118" s="30" t="s">
+      <c r="B118" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C118" s="11" t="s">
@@ -11928,7 +11935,7 @@
         <v>10</v>
       </c>
       <c r="S118" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T118" s="11">
         <v>10</v>
@@ -11953,7 +11960,7 @@
       <c r="A119" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="B119" s="30" t="s">
+      <c r="B119" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C119" s="11" t="s">
@@ -12005,7 +12012,7 @@
         <v>10</v>
       </c>
       <c r="S119" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T119" s="11">
         <v>10</v>
@@ -12030,7 +12037,7 @@
       <c r="A120" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="B120" s="30" t="s">
+      <c r="B120" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C120" s="11" t="s">
@@ -12082,7 +12089,7 @@
         <v>10</v>
       </c>
       <c r="S120" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T120" s="11">
         <v>10</v>
@@ -12107,7 +12114,7 @@
       <c r="A121" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="B121" s="30" t="s">
+      <c r="B121" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C121" s="11" t="s">
@@ -12159,7 +12166,7 @@
         <v>10</v>
       </c>
       <c r="S121" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T121" s="11">
         <v>10</v>
@@ -12184,7 +12191,7 @@
       <c r="A122" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="B122" s="30" t="s">
+      <c r="B122" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C122" s="11" t="s">
@@ -12236,7 +12243,7 @@
         <v>10</v>
       </c>
       <c r="S122" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T122" s="11">
         <v>10</v>
@@ -12261,7 +12268,7 @@
       <c r="A123" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="B123" s="30" t="s">
+      <c r="B123" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C123" s="11" t="s">
@@ -12313,7 +12320,7 @@
         <v>10</v>
       </c>
       <c r="S123" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T123" s="11">
         <v>10</v>
@@ -12338,7 +12345,7 @@
       <c r="A124" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="B124" s="30" t="s">
+      <c r="B124" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C124" s="11" t="s">
@@ -12390,7 +12397,7 @@
         <v>10</v>
       </c>
       <c r="S124" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T124" s="11">
         <v>10</v>
@@ -12415,7 +12422,7 @@
       <c r="A125" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="B125" s="30" t="s">
+      <c r="B125" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C125" s="11" t="s">
@@ -12467,7 +12474,7 @@
         <v>10</v>
       </c>
       <c r="S125" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T125" s="11">
         <v>10</v>
@@ -12492,7 +12499,7 @@
       <c r="A126" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="B126" s="30" t="s">
+      <c r="B126" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C126" s="11" t="s">
@@ -12544,7 +12551,7 @@
         <v>10</v>
       </c>
       <c r="S126" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T126" s="11">
         <v>10</v>
@@ -12569,7 +12576,7 @@
       <c r="A127" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="B127" s="30" t="s">
+      <c r="B127" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C127" s="11" t="s">
@@ -12621,7 +12628,7 @@
         <v>10</v>
       </c>
       <c r="S127" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T127" s="11">
         <v>10</v>
@@ -12646,7 +12653,7 @@
       <c r="A128" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="B128" s="30" t="s">
+      <c r="B128" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C128" s="11" t="s">
@@ -12698,7 +12705,7 @@
         <v>10</v>
       </c>
       <c r="S128" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T128" s="11">
         <v>10</v>
@@ -12723,7 +12730,7 @@
       <c r="A129" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="B129" s="30" t="s">
+      <c r="B129" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C129" s="11" t="s">
@@ -12775,7 +12782,7 @@
         <v>10</v>
       </c>
       <c r="S129" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T129" s="11">
         <v>10</v>
@@ -12800,7 +12807,7 @@
       <c r="A130" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="B130" s="30" t="s">
+      <c r="B130" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C130" s="11" t="s">
@@ -12852,7 +12859,7 @@
         <v>10</v>
       </c>
       <c r="S130" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T130" s="11">
         <v>10</v>
@@ -12877,7 +12884,7 @@
       <c r="A131" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="B131" s="30" t="s">
+      <c r="B131" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C131" s="11" t="s">
@@ -12929,7 +12936,7 @@
         <v>10</v>
       </c>
       <c r="S131" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T131" s="11">
         <v>10</v>
@@ -12954,7 +12961,7 @@
       <c r="A132" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="B132" s="30" t="s">
+      <c r="B132" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C132" s="11" t="s">
@@ -13006,7 +13013,7 @@
         <v>10</v>
       </c>
       <c r="S132" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T132" s="11">
         <v>10</v>
@@ -13031,7 +13038,7 @@
       <c r="A133" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="B133" s="30" t="s">
+      <c r="B133" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C133" s="11" t="s">
@@ -13083,7 +13090,7 @@
         <v>10</v>
       </c>
       <c r="S133" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T133" s="11">
         <v>10</v>
@@ -13108,7 +13115,7 @@
       <c r="A134" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="B134" s="30" t="s">
+      <c r="B134" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C134" s="11" t="s">
@@ -13160,7 +13167,7 @@
         <v>10</v>
       </c>
       <c r="S134" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T134" s="11">
         <v>10</v>
@@ -13185,7 +13192,7 @@
       <c r="A135" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="B135" s="30" t="s">
+      <c r="B135" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C135" s="11" t="s">
@@ -13237,7 +13244,7 @@
         <v>10</v>
       </c>
       <c r="S135" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T135" s="11">
         <v>10</v>
@@ -13262,7 +13269,7 @@
       <c r="A136" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="B136" s="30" t="s">
+      <c r="B136" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C136" s="11" t="s">
@@ -13314,7 +13321,7 @@
         <v>10</v>
       </c>
       <c r="S136" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T136" s="11">
         <v>10</v>
@@ -13339,7 +13346,7 @@
       <c r="A137" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="B137" s="30" t="s">
+      <c r="B137" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C137" s="11" t="s">
@@ -13391,7 +13398,7 @@
         <v>10</v>
       </c>
       <c r="S137" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T137" s="11">
         <v>10</v>
@@ -13416,7 +13423,7 @@
       <c r="A138" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="B138" s="30" t="s">
+      <c r="B138" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C138" s="11" t="s">
@@ -13468,7 +13475,7 @@
         <v>10</v>
       </c>
       <c r="S138" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T138" s="11">
         <v>10</v>
@@ -13493,7 +13500,7 @@
       <c r="A139" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="B139" s="30" t="s">
+      <c r="B139" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C139" s="11" t="s">
@@ -13545,7 +13552,7 @@
         <v>10</v>
       </c>
       <c r="S139" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T139" s="11">
         <v>10</v>
@@ -13570,7 +13577,7 @@
       <c r="A140" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="B140" s="30" t="s">
+      <c r="B140" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C140" s="11" t="s">
@@ -13622,7 +13629,7 @@
         <v>10</v>
       </c>
       <c r="S140" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T140" s="11">
         <v>10</v>
@@ -13647,7 +13654,7 @@
       <c r="A141" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="B141" s="30" t="s">
+      <c r="B141" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C141" s="11" t="s">
@@ -13699,7 +13706,7 @@
         <v>10</v>
       </c>
       <c r="S141" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T141" s="11">
         <v>10</v>
@@ -13724,7 +13731,7 @@
       <c r="A142" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="B142" s="30" t="s">
+      <c r="B142" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C142" s="11" t="s">
@@ -13776,7 +13783,7 @@
         <v>10</v>
       </c>
       <c r="S142" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T142" s="11">
         <v>10</v>
@@ -13801,7 +13808,7 @@
       <c r="A143" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="B143" s="30" t="s">
+      <c r="B143" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C143" s="11" t="s">
@@ -13853,7 +13860,7 @@
         <v>10</v>
       </c>
       <c r="S143" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T143" s="11">
         <v>10</v>
@@ -13878,7 +13885,7 @@
       <c r="A144" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="B144" s="30" t="s">
+      <c r="B144" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C144" s="11" t="s">
@@ -13930,7 +13937,7 @@
         <v>10</v>
       </c>
       <c r="S144" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T144" s="11">
         <v>10</v>
@@ -13955,7 +13962,7 @@
       <c r="A145" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="B145" s="30" t="s">
+      <c r="B145" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C145" s="11" t="s">
@@ -14007,7 +14014,7 @@
         <v>10</v>
       </c>
       <c r="S145" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T145" s="11">
         <v>10</v>
@@ -14032,7 +14039,7 @@
       <c r="A146" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="B146" s="30" t="s">
+      <c r="B146" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C146" s="11" t="s">
@@ -14084,7 +14091,7 @@
         <v>10</v>
       </c>
       <c r="S146" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T146" s="11">
         <v>10</v>
@@ -14109,7 +14116,7 @@
       <c r="A147" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="B147" s="30" t="s">
+      <c r="B147" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C147" s="11" t="s">
@@ -14161,7 +14168,7 @@
         <v>10</v>
       </c>
       <c r="S147" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T147" s="11">
         <v>10</v>
@@ -14186,7 +14193,7 @@
       <c r="A148" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="B148" s="30" t="s">
+      <c r="B148" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C148" s="11" t="s">
@@ -14238,7 +14245,7 @@
         <v>10</v>
       </c>
       <c r="S148" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T148" s="11">
         <v>10</v>
@@ -14263,7 +14270,7 @@
       <c r="A149" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="B149" s="30" t="s">
+      <c r="B149" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C149" s="11" t="s">
@@ -14315,7 +14322,7 @@
         <v>10</v>
       </c>
       <c r="S149" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T149" s="11">
         <v>10</v>
@@ -14340,7 +14347,7 @@
       <c r="A150" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="B150" s="30" t="s">
+      <c r="B150" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C150" s="11" t="s">
@@ -14392,7 +14399,7 @@
         <v>10</v>
       </c>
       <c r="S150" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T150" s="11">
         <v>10</v>
@@ -14417,7 +14424,7 @@
       <c r="A151" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="B151" s="30" t="s">
+      <c r="B151" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C151" s="11" t="s">
@@ -14469,7 +14476,7 @@
         <v>10</v>
       </c>
       <c r="S151" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T151" s="11">
         <v>10</v>
@@ -14494,7 +14501,7 @@
       <c r="A152" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="B152" s="30" t="s">
+      <c r="B152" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C152" s="11" t="s">
@@ -14546,7 +14553,7 @@
         <v>10</v>
       </c>
       <c r="S152" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T152" s="11">
         <v>10</v>
@@ -14571,7 +14578,7 @@
       <c r="A153" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="B153" s="30" t="s">
+      <c r="B153" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C153" s="11" t="s">
@@ -14623,7 +14630,7 @@
         <v>10</v>
       </c>
       <c r="S153" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T153" s="11">
         <v>10</v>
@@ -14648,7 +14655,7 @@
       <c r="A154" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="B154" s="30" t="s">
+      <c r="B154" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C154" s="11" t="s">
@@ -14700,7 +14707,7 @@
         <v>10</v>
       </c>
       <c r="S154" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T154" s="11">
         <v>10</v>
@@ -14725,7 +14732,7 @@
       <c r="A155" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="B155" s="30" t="s">
+      <c r="B155" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C155" s="11" t="s">
@@ -14777,7 +14784,7 @@
         <v>10</v>
       </c>
       <c r="S155" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T155" s="11">
         <v>10</v>
@@ -14802,7 +14809,7 @@
       <c r="A156" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="B156" s="30" t="s">
+      <c r="B156" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C156" s="11" t="s">
@@ -14854,7 +14861,7 @@
         <v>10</v>
       </c>
       <c r="S156" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T156" s="11">
         <v>10</v>
@@ -14879,7 +14886,7 @@
       <c r="A157" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="B157" s="30" t="s">
+      <c r="B157" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C157" s="11" t="s">
@@ -14931,7 +14938,7 @@
         <v>10</v>
       </c>
       <c r="S157" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T157" s="11">
         <v>10</v>
@@ -14956,7 +14963,7 @@
       <c r="A158" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="B158" s="30" t="s">
+      <c r="B158" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C158" s="11" t="s">
@@ -15008,7 +15015,7 @@
         <v>10</v>
       </c>
       <c r="S158" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T158" s="11">
         <v>10</v>
@@ -15033,7 +15040,7 @@
       <c r="A159" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="B159" s="30" t="s">
+      <c r="B159" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C159" s="11" t="s">
@@ -15085,7 +15092,7 @@
         <v>10</v>
       </c>
       <c r="S159" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T159" s="11">
         <v>10</v>
@@ -15110,7 +15117,7 @@
       <c r="A160" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="B160" s="30" t="s">
+      <c r="B160" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C160" s="11" t="s">
@@ -15162,7 +15169,7 @@
         <v>10</v>
       </c>
       <c r="S160" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T160" s="11">
         <v>10</v>
@@ -15187,7 +15194,7 @@
       <c r="A161" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="B161" s="30" t="s">
+      <c r="B161" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C161" s="11" t="s">
@@ -15239,7 +15246,7 @@
         <v>10</v>
       </c>
       <c r="S161" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T161" s="11">
         <v>10</v>
@@ -15264,7 +15271,7 @@
       <c r="A162" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="B162" s="30" t="s">
+      <c r="B162" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C162" s="11" t="s">
@@ -15316,7 +15323,7 @@
         <v>10</v>
       </c>
       <c r="S162" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T162" s="11">
         <v>10</v>
@@ -15341,7 +15348,7 @@
       <c r="A163" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="B163" s="30" t="s">
+      <c r="B163" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C163" s="11" t="s">
@@ -15393,7 +15400,7 @@
         <v>10</v>
       </c>
       <c r="S163" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T163" s="11">
         <v>10</v>
@@ -15418,7 +15425,7 @@
       <c r="A164" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="B164" s="30" t="s">
+      <c r="B164" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C164" s="11" t="s">
@@ -15470,7 +15477,7 @@
         <v>10</v>
       </c>
       <c r="S164" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T164" s="11">
         <v>10</v>
@@ -15495,7 +15502,7 @@
       <c r="A165" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="B165" s="30" t="s">
+      <c r="B165" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C165" s="11" t="s">
@@ -15547,7 +15554,7 @@
         <v>10</v>
       </c>
       <c r="S165" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T165" s="11">
         <v>10</v>
@@ -15572,7 +15579,7 @@
       <c r="A166" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="B166" s="30" t="s">
+      <c r="B166" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C166" s="11" t="s">
@@ -15624,7 +15631,7 @@
         <v>10</v>
       </c>
       <c r="S166" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T166" s="11">
         <v>10</v>
@@ -15649,7 +15656,7 @@
       <c r="A167" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="B167" s="30" t="s">
+      <c r="B167" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C167" s="11" t="s">
@@ -15701,7 +15708,7 @@
         <v>10</v>
       </c>
       <c r="S167" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T167" s="11">
         <v>10</v>
@@ -15726,7 +15733,7 @@
       <c r="A168" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="B168" s="30" t="s">
+      <c r="B168" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C168" s="11" t="s">
@@ -15778,7 +15785,7 @@
         <v>10</v>
       </c>
       <c r="S168" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T168" s="11">
         <v>10</v>
@@ -15803,7 +15810,7 @@
       <c r="A169" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="B169" s="30" t="s">
+      <c r="B169" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C169" s="11" t="s">
@@ -15855,7 +15862,7 @@
         <v>10</v>
       </c>
       <c r="S169" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T169" s="11">
         <v>10</v>
@@ -15880,7 +15887,7 @@
       <c r="A170" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="B170" s="30" t="s">
+      <c r="B170" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C170" s="11" t="s">
@@ -15932,7 +15939,7 @@
         <v>10</v>
       </c>
       <c r="S170" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T170" s="11">
         <v>10</v>
@@ -15957,7 +15964,7 @@
       <c r="A171" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="B171" s="30" t="s">
+      <c r="B171" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C171" s="11" t="s">
@@ -16009,7 +16016,7 @@
         <v>10</v>
       </c>
       <c r="S171" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T171" s="11">
         <v>10</v>
@@ -16034,7 +16041,7 @@
       <c r="A172" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="B172" s="30" t="s">
+      <c r="B172" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C172" s="11" t="s">
@@ -16086,7 +16093,7 @@
         <v>10</v>
       </c>
       <c r="S172" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T172" s="11">
         <v>10</v>
@@ -16111,7 +16118,7 @@
       <c r="A173" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="B173" s="30" t="s">
+      <c r="B173" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C173" s="11" t="s">
@@ -16163,7 +16170,7 @@
         <v>10</v>
       </c>
       <c r="S173" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T173" s="11">
         <v>10</v>
@@ -16188,7 +16195,7 @@
       <c r="A174" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="B174" s="30" t="s">
+      <c r="B174" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C174" s="11" t="s">
@@ -16240,7 +16247,7 @@
         <v>10</v>
       </c>
       <c r="S174" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T174" s="11">
         <v>10</v>
@@ -16265,7 +16272,7 @@
       <c r="A175" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="B175" s="30" t="s">
+      <c r="B175" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C175" s="11" t="s">
@@ -16317,7 +16324,7 @@
         <v>10</v>
       </c>
       <c r="S175" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T175" s="11">
         <v>10</v>
@@ -16342,7 +16349,7 @@
       <c r="A176" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="B176" s="30" t="s">
+      <c r="B176" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C176" s="11" t="s">
@@ -16394,7 +16401,7 @@
         <v>10</v>
       </c>
       <c r="S176" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T176" s="11">
         <v>10</v>
@@ -16419,7 +16426,7 @@
       <c r="A177" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="B177" s="30" t="s">
+      <c r="B177" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C177" s="11" t="s">
@@ -16471,7 +16478,7 @@
         <v>10</v>
       </c>
       <c r="S177" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T177" s="11">
         <v>10</v>
@@ -16496,7 +16503,7 @@
       <c r="A178" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="B178" s="30" t="s">
+      <c r="B178" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C178" s="11" t="s">
@@ -16548,7 +16555,7 @@
         <v>10</v>
       </c>
       <c r="S178" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T178" s="11">
         <v>10</v>
@@ -16573,7 +16580,7 @@
       <c r="A179" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="B179" s="30" t="s">
+      <c r="B179" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C179" s="11" t="s">
@@ -16625,7 +16632,7 @@
         <v>10</v>
       </c>
       <c r="S179" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T179" s="11">
         <v>10</v>
@@ -16650,7 +16657,7 @@
       <c r="A180" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="B180" s="30" t="s">
+      <c r="B180" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C180" s="11" t="s">
@@ -16702,7 +16709,7 @@
         <v>10</v>
       </c>
       <c r="S180" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T180" s="11">
         <v>10</v>
@@ -16727,7 +16734,7 @@
       <c r="A181" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="B181" s="30" t="s">
+      <c r="B181" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C181" s="11" t="s">
@@ -16779,7 +16786,7 @@
         <v>10</v>
       </c>
       <c r="S181" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T181" s="11">
         <v>10</v>
@@ -16804,7 +16811,7 @@
       <c r="A182" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="B182" s="30" t="s">
+      <c r="B182" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C182" s="11" t="s">
@@ -16856,7 +16863,7 @@
         <v>10</v>
       </c>
       <c r="S182" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T182" s="11">
         <v>10</v>
@@ -16881,7 +16888,7 @@
       <c r="A183" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="B183" s="30" t="s">
+      <c r="B183" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C183" s="11" t="s">
@@ -16933,7 +16940,7 @@
         <v>10</v>
       </c>
       <c r="S183" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T183" s="11">
         <v>10</v>
@@ -16958,7 +16965,7 @@
       <c r="A184" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="B184" s="30" t="s">
+      <c r="B184" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C184" s="11" t="s">
@@ -17010,7 +17017,7 @@
         <v>10</v>
       </c>
       <c r="S184" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T184" s="11">
         <v>10</v>
@@ -17035,7 +17042,7 @@
       <c r="A185" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="B185" s="30" t="s">
+      <c r="B185" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C185" s="11" t="s">
@@ -17087,7 +17094,7 @@
         <v>10</v>
       </c>
       <c r="S185" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T185" s="11">
         <v>10</v>
@@ -17112,7 +17119,7 @@
       <c r="A186" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="B186" s="30" t="s">
+      <c r="B186" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C186" s="11" t="s">
@@ -17164,7 +17171,7 @@
         <v>10</v>
       </c>
       <c r="S186" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T186" s="11">
         <v>10</v>
@@ -17189,7 +17196,7 @@
       <c r="A187" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="B187" s="30" t="s">
+      <c r="B187" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C187" s="11" t="s">
@@ -17241,7 +17248,7 @@
         <v>10</v>
       </c>
       <c r="S187" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T187" s="11">
         <v>10</v>
@@ -17266,7 +17273,7 @@
       <c r="A188" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="B188" s="30" t="s">
+      <c r="B188" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C188" s="11" t="s">
@@ -17318,7 +17325,7 @@
         <v>10</v>
       </c>
       <c r="S188" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T188" s="11">
         <v>10</v>
@@ -17343,7 +17350,7 @@
       <c r="A189" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="B189" s="30" t="s">
+      <c r="B189" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C189" s="11" t="s">
@@ -17395,7 +17402,7 @@
         <v>10</v>
       </c>
       <c r="S189" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T189" s="11">
         <v>10</v>
@@ -17420,7 +17427,7 @@
       <c r="A190" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="B190" s="30" t="s">
+      <c r="B190" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C190" s="11" t="s">
@@ -17472,7 +17479,7 @@
         <v>10</v>
       </c>
       <c r="S190" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T190" s="11">
         <v>10</v>
@@ -17497,7 +17504,7 @@
       <c r="A191" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="B191" s="30" t="s">
+      <c r="B191" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C191" s="11" t="s">
@@ -17549,7 +17556,7 @@
         <v>10</v>
       </c>
       <c r="S191" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T191" s="11">
         <v>10</v>
@@ -17574,7 +17581,7 @@
       <c r="A192" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="B192" s="30" t="s">
+      <c r="B192" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C192" s="11" t="s">
@@ -17626,7 +17633,7 @@
         <v>10</v>
       </c>
       <c r="S192" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T192" s="11">
         <v>10</v>
@@ -17651,7 +17658,7 @@
       <c r="A193" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="B193" s="30" t="s">
+      <c r="B193" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C193" s="11" t="s">
@@ -17703,7 +17710,7 @@
         <v>10</v>
       </c>
       <c r="S193" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T193" s="11">
         <v>10</v>
@@ -17728,7 +17735,7 @@
       <c r="A194" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="B194" s="30" t="s">
+      <c r="B194" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C194" s="11" t="s">
@@ -17780,7 +17787,7 @@
         <v>10</v>
       </c>
       <c r="S194" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T194" s="11">
         <v>10</v>
@@ -17805,7 +17812,7 @@
       <c r="A195" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="B195" s="30" t="s">
+      <c r="B195" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C195" s="11" t="s">
@@ -17857,7 +17864,7 @@
         <v>10</v>
       </c>
       <c r="S195" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T195" s="11">
         <v>10</v>
@@ -17882,7 +17889,7 @@
       <c r="A196" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="B196" s="30" t="s">
+      <c r="B196" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C196" s="11" t="s">
@@ -17934,7 +17941,7 @@
         <v>10</v>
       </c>
       <c r="S196" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T196" s="11">
         <v>10</v>
@@ -17959,7 +17966,7 @@
       <c r="A197" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="B197" s="30" t="s">
+      <c r="B197" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C197" s="11" t="s">
@@ -18011,7 +18018,7 @@
         <v>10</v>
       </c>
       <c r="S197" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T197" s="11">
         <v>10</v>
@@ -18036,7 +18043,7 @@
       <c r="A198" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="B198" s="30" t="s">
+      <c r="B198" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C198" s="11" t="s">
@@ -18088,7 +18095,7 @@
         <v>10</v>
       </c>
       <c r="S198" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T198" s="11">
         <v>10</v>
@@ -18113,7 +18120,7 @@
       <c r="A199" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="B199" s="30" t="s">
+      <c r="B199" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C199" s="11" t="s">
@@ -18165,7 +18172,7 @@
         <v>10</v>
       </c>
       <c r="S199" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T199" s="11">
         <v>10</v>
@@ -18190,7 +18197,7 @@
       <c r="A200" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="B200" s="30" t="s">
+      <c r="B200" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C200" s="11" t="s">
@@ -18242,7 +18249,7 @@
         <v>10</v>
       </c>
       <c r="S200" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T200" s="11">
         <v>10</v>
@@ -18267,7 +18274,7 @@
       <c r="A201" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="B201" s="30" t="s">
+      <c r="B201" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C201" s="11" t="s">
@@ -18319,7 +18326,7 @@
         <v>10</v>
       </c>
       <c r="S201" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T201" s="11">
         <v>10</v>
@@ -18344,7 +18351,7 @@
       <c r="A202" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="B202" s="30" t="s">
+      <c r="B202" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C202" s="11" t="s">
@@ -18396,7 +18403,7 @@
         <v>10</v>
       </c>
       <c r="S202" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T202" s="11">
         <v>10</v>
@@ -18421,7 +18428,7 @@
       <c r="A203" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="B203" s="30" t="s">
+      <c r="B203" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C203" s="11" t="s">
@@ -18473,7 +18480,7 @@
         <v>10</v>
       </c>
       <c r="S203" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T203" s="11">
         <v>10</v>
@@ -18498,7 +18505,7 @@
       <c r="A204" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="B204" s="30" t="s">
+      <c r="B204" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C204" s="11" t="s">
@@ -18550,7 +18557,7 @@
         <v>10</v>
       </c>
       <c r="S204" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T204" s="11">
         <v>10</v>
@@ -18575,7 +18582,7 @@
       <c r="A205" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="B205" s="30" t="s">
+      <c r="B205" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C205" s="11" t="s">
@@ -18627,7 +18634,7 @@
         <v>10</v>
       </c>
       <c r="S205" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T205" s="11">
         <v>10</v>
@@ -18652,7 +18659,7 @@
       <c r="A206" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="B206" s="30" t="s">
+      <c r="B206" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C206" s="11" t="s">
@@ -18704,7 +18711,7 @@
         <v>10</v>
       </c>
       <c r="S206" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T206" s="11">
         <v>10</v>
@@ -18729,7 +18736,7 @@
       <c r="A207" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="B207" s="30" t="s">
+      <c r="B207" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C207" s="11" t="s">
@@ -18781,7 +18788,7 @@
         <v>10</v>
       </c>
       <c r="S207" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T207" s="11">
         <v>10</v>
@@ -18806,7 +18813,7 @@
       <c r="A208" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="B208" s="30" t="s">
+      <c r="B208" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C208" s="11" t="s">
@@ -18858,7 +18865,7 @@
         <v>10</v>
       </c>
       <c r="S208" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T208" s="11">
         <v>10</v>
@@ -18883,7 +18890,7 @@
       <c r="A209" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="B209" s="30" t="s">
+      <c r="B209" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C209" s="11" t="s">
@@ -18935,7 +18942,7 @@
         <v>10</v>
       </c>
       <c r="S209" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T209" s="11">
         <v>10</v>
@@ -18960,7 +18967,7 @@
       <c r="A210" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="B210" s="30" t="s">
+      <c r="B210" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C210" s="11" t="s">
@@ -19012,7 +19019,7 @@
         <v>10</v>
       </c>
       <c r="S210" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T210" s="11">
         <v>10</v>
@@ -19037,7 +19044,7 @@
       <c r="A211" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="B211" s="30" t="s">
+      <c r="B211" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C211" s="11" t="s">
@@ -19089,7 +19096,7 @@
         <v>10</v>
       </c>
       <c r="S211" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T211" s="11">
         <v>10</v>
@@ -19114,7 +19121,7 @@
       <c r="A212" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="B212" s="30" t="s">
+      <c r="B212" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C212" s="11" t="s">
@@ -19166,7 +19173,7 @@
         <v>10</v>
       </c>
       <c r="S212" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T212" s="11">
         <v>10</v>
@@ -19191,7 +19198,7 @@
       <c r="A213" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="B213" s="30" t="s">
+      <c r="B213" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C213" s="11" t="s">
@@ -19243,7 +19250,7 @@
         <v>10</v>
       </c>
       <c r="S213" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T213" s="11">
         <v>10</v>
@@ -19268,7 +19275,7 @@
       <c r="A214" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="B214" s="30" t="s">
+      <c r="B214" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C214" s="11" t="s">
@@ -19320,7 +19327,7 @@
         <v>10</v>
       </c>
       <c r="S214" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T214" s="11">
         <v>10</v>
@@ -19345,7 +19352,7 @@
       <c r="A215" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="B215" s="30" t="s">
+      <c r="B215" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C215" s="11" t="s">
@@ -19397,7 +19404,7 @@
         <v>10</v>
       </c>
       <c r="S215" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T215" s="11">
         <v>10</v>
@@ -19422,7 +19429,7 @@
       <c r="A216" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="B216" s="30" t="s">
+      <c r="B216" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C216" s="11" t="s">
@@ -19474,7 +19481,7 @@
         <v>10</v>
       </c>
       <c r="S216" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T216" s="11">
         <v>10</v>
@@ -19499,7 +19506,7 @@
       <c r="A217" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="B217" s="30" t="s">
+      <c r="B217" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C217" s="11" t="s">
@@ -19551,7 +19558,7 @@
         <v>10</v>
       </c>
       <c r="S217" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T217" s="11">
         <v>10</v>
@@ -19576,7 +19583,7 @@
       <c r="A218" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="B218" s="30" t="s">
+      <c r="B218" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C218" s="11" t="s">
@@ -19628,7 +19635,7 @@
         <v>10</v>
       </c>
       <c r="S218" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T218" s="11">
         <v>10</v>
@@ -19653,7 +19660,7 @@
       <c r="A219" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="B219" s="30" t="s">
+      <c r="B219" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C219" s="11" t="s">
@@ -19705,7 +19712,7 @@
         <v>10</v>
       </c>
       <c r="S219" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T219" s="11">
         <v>10</v>
@@ -19730,7 +19737,7 @@
       <c r="A220" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="B220" s="30" t="s">
+      <c r="B220" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C220" s="11" t="s">
@@ -19782,7 +19789,7 @@
         <v>10</v>
       </c>
       <c r="S220" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T220" s="11">
         <v>10</v>
@@ -19807,7 +19814,7 @@
       <c r="A221" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="B221" s="30" t="s">
+      <c r="B221" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C221" s="11" t="s">
@@ -19859,7 +19866,7 @@
         <v>10</v>
       </c>
       <c r="S221" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T221" s="11">
         <v>10</v>
@@ -19884,7 +19891,7 @@
       <c r="A222" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="B222" s="30" t="s">
+      <c r="B222" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C222" s="11" t="s">
@@ -19936,7 +19943,7 @@
         <v>10</v>
       </c>
       <c r="S222" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T222" s="11">
         <v>10</v>
@@ -19961,7 +19968,7 @@
       <c r="A223" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="B223" s="30" t="s">
+      <c r="B223" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C223" s="11" t="s">
@@ -20013,7 +20020,7 @@
         <v>10</v>
       </c>
       <c r="S223" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T223" s="11">
         <v>10</v>
@@ -20038,7 +20045,7 @@
       <c r="A224" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="B224" s="30" t="s">
+      <c r="B224" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C224" s="11" t="s">
@@ -20090,7 +20097,7 @@
         <v>10</v>
       </c>
       <c r="S224" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T224" s="11">
         <v>10</v>
@@ -20115,7 +20122,7 @@
       <c r="A225" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="B225" s="30" t="s">
+      <c r="B225" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C225" s="11" t="s">
@@ -20167,7 +20174,7 @@
         <v>10</v>
       </c>
       <c r="S225" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T225" s="11">
         <v>10</v>
@@ -20192,7 +20199,7 @@
       <c r="A226" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="B226" s="30" t="s">
+      <c r="B226" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C226" s="11" t="s">
@@ -20244,7 +20251,7 @@
         <v>10</v>
       </c>
       <c r="S226" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T226" s="11">
         <v>10</v>
@@ -20269,7 +20276,7 @@
       <c r="A227" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="B227" s="30" t="s">
+      <c r="B227" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C227" s="11" t="s">
@@ -20321,7 +20328,7 @@
         <v>10</v>
       </c>
       <c r="S227" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T227" s="11">
         <v>10</v>
@@ -20346,7 +20353,7 @@
       <c r="A228" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="B228" s="30" t="s">
+      <c r="B228" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C228" s="11" t="s">
@@ -20398,7 +20405,7 @@
         <v>10</v>
       </c>
       <c r="S228" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T228" s="11">
         <v>10</v>
@@ -20423,7 +20430,7 @@
       <c r="A229" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="B229" s="30" t="s">
+      <c r="B229" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C229" s="11" t="s">
@@ -20475,7 +20482,7 @@
         <v>10</v>
       </c>
       <c r="S229" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T229" s="11">
         <v>10</v>
@@ -20500,7 +20507,7 @@
       <c r="A230" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="B230" s="30" t="s">
+      <c r="B230" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C230" s="11" t="s">
@@ -20552,7 +20559,7 @@
         <v>10</v>
       </c>
       <c r="S230" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T230" s="11">
         <v>10</v>
@@ -20577,7 +20584,7 @@
       <c r="A231" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="B231" s="30" t="s">
+      <c r="B231" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C231" s="11" t="s">
@@ -20629,7 +20636,7 @@
         <v>10</v>
       </c>
       <c r="S231" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T231" s="11">
         <v>10</v>
@@ -20654,7 +20661,7 @@
       <c r="A232" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="B232" s="30" t="s">
+      <c r="B232" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C232" s="11" t="s">
@@ -20706,7 +20713,7 @@
         <v>10</v>
       </c>
       <c r="S232" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T232" s="11">
         <v>10</v>
@@ -20731,7 +20738,7 @@
       <c r="A233" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="B233" s="30" t="s">
+      <c r="B233" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C233" s="11" t="s">
@@ -20783,7 +20790,7 @@
         <v>10</v>
       </c>
       <c r="S233" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T233" s="11">
         <v>10</v>
@@ -20808,7 +20815,7 @@
       <c r="A234" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="B234" s="30" t="s">
+      <c r="B234" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C234" s="11" t="s">
@@ -20860,7 +20867,7 @@
         <v>10</v>
       </c>
       <c r="S234" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T234" s="11">
         <v>10</v>
@@ -20885,7 +20892,7 @@
       <c r="A235" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="B235" s="30" t="s">
+      <c r="B235" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C235" s="11" t="s">
@@ -20937,7 +20944,7 @@
         <v>10</v>
       </c>
       <c r="S235" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T235" s="11">
         <v>10</v>
@@ -20962,7 +20969,7 @@
       <c r="A236" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="B236" s="30" t="s">
+      <c r="B236" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C236" s="11" t="s">
@@ -21014,7 +21021,7 @@
         <v>10</v>
       </c>
       <c r="S236" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T236" s="11">
         <v>10</v>
@@ -21039,7 +21046,7 @@
       <c r="A237" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="B237" s="30" t="s">
+      <c r="B237" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C237" s="11" t="s">
@@ -21091,7 +21098,7 @@
         <v>10</v>
       </c>
       <c r="S237" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T237" s="11">
         <v>10</v>
@@ -21116,7 +21123,7 @@
       <c r="A238" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="B238" s="30" t="s">
+      <c r="B238" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C238" s="11" t="s">
@@ -21168,7 +21175,7 @@
         <v>10</v>
       </c>
       <c r="S238" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T238" s="11">
         <v>10</v>
@@ -21193,7 +21200,7 @@
       <c r="A239" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="B239" s="30" t="s">
+      <c r="B239" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C239" s="11" t="s">
@@ -21245,7 +21252,7 @@
         <v>10</v>
       </c>
       <c r="S239" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T239" s="11">
         <v>10</v>
@@ -21270,7 +21277,7 @@
       <c r="A240" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="B240" s="30" t="s">
+      <c r="B240" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C240" s="11" t="s">
@@ -21322,7 +21329,7 @@
         <v>10</v>
       </c>
       <c r="S240" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T240" s="11">
         <v>10</v>
@@ -21347,7 +21354,7 @@
       <c r="A241" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="B241" s="30" t="s">
+      <c r="B241" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C241" s="11" t="s">
@@ -21399,7 +21406,7 @@
         <v>10</v>
       </c>
       <c r="S241" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T241" s="11">
         <v>10</v>
@@ -21424,7 +21431,7 @@
       <c r="A242" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="B242" s="30" t="s">
+      <c r="B242" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C242" s="11" t="s">
@@ -21476,7 +21483,7 @@
         <v>10</v>
       </c>
       <c r="S242" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T242" s="11">
         <v>10</v>
@@ -21501,7 +21508,7 @@
       <c r="A243" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="B243" s="30" t="s">
+      <c r="B243" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C243" s="11" t="s">
@@ -21553,7 +21560,7 @@
         <v>10</v>
       </c>
       <c r="S243" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T243" s="11">
         <v>10</v>
@@ -21578,7 +21585,7 @@
       <c r="A244" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="B244" s="30" t="s">
+      <c r="B244" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C244" s="11" t="s">
@@ -21630,7 +21637,7 @@
         <v>10</v>
       </c>
       <c r="S244" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T244" s="11">
         <v>10</v>
@@ -21655,7 +21662,7 @@
       <c r="A245" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="B245" s="30" t="s">
+      <c r="B245" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C245" s="11" t="s">
@@ -21707,7 +21714,7 @@
         <v>10</v>
       </c>
       <c r="S245" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T245" s="11">
         <v>10</v>
@@ -21732,7 +21739,7 @@
       <c r="A246" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="B246" s="30" t="s">
+      <c r="B246" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C246" s="11" t="s">
@@ -21784,7 +21791,7 @@
         <v>10</v>
       </c>
       <c r="S246" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T246" s="11">
         <v>10</v>
@@ -21809,7 +21816,7 @@
       <c r="A247" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="B247" s="30" t="s">
+      <c r="B247" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C247" s="11" t="s">
@@ -21861,7 +21868,7 @@
         <v>10</v>
       </c>
       <c r="S247" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T247" s="11">
         <v>10</v>
@@ -21886,7 +21893,7 @@
       <c r="A248" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="B248" s="30" t="s">
+      <c r="B248" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C248" s="11" t="s">
@@ -21938,7 +21945,7 @@
         <v>10</v>
       </c>
       <c r="S248" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T248" s="11">
         <v>10</v>
@@ -21963,7 +21970,7 @@
       <c r="A249" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="B249" s="30" t="s">
+      <c r="B249" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C249" s="11" t="s">
@@ -22015,7 +22022,7 @@
         <v>10</v>
       </c>
       <c r="S249" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T249" s="11">
         <v>10</v>
@@ -22040,7 +22047,7 @@
       <c r="A250" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="B250" s="30" t="s">
+      <c r="B250" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C250" s="11" t="s">
@@ -22092,7 +22099,7 @@
         <v>10</v>
       </c>
       <c r="S250" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T250" s="11">
         <v>10</v>
@@ -22117,7 +22124,7 @@
       <c r="A251" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="B251" s="30" t="s">
+      <c r="B251" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C251" s="11" t="s">
@@ -22169,7 +22176,7 @@
         <v>10</v>
       </c>
       <c r="S251" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T251" s="11">
         <v>10</v>
@@ -22194,7 +22201,7 @@
       <c r="A252" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="B252" s="30" t="s">
+      <c r="B252" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C252" s="11" t="s">
@@ -22246,7 +22253,7 @@
         <v>10</v>
       </c>
       <c r="S252" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T252" s="11">
         <v>10</v>
@@ -22271,7 +22278,7 @@
       <c r="A253" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="B253" s="30" t="s">
+      <c r="B253" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C253" s="11" t="s">
@@ -22323,7 +22330,7 @@
         <v>10</v>
       </c>
       <c r="S253" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T253" s="11">
         <v>10</v>
@@ -22348,7 +22355,7 @@
       <c r="A254" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="B254" s="30" t="s">
+      <c r="B254" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C254" s="11" t="s">
@@ -22400,7 +22407,7 @@
         <v>10</v>
       </c>
       <c r="S254" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T254" s="11">
         <v>10</v>
@@ -22425,7 +22432,7 @@
       <c r="A255" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="B255" s="30" t="s">
+      <c r="B255" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C255" s="11" t="s">
@@ -22477,7 +22484,7 @@
         <v>10</v>
       </c>
       <c r="S255" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T255" s="11">
         <v>10</v>
@@ -22502,7 +22509,7 @@
       <c r="A256" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="B256" s="30" t="s">
+      <c r="B256" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C256" s="11" t="s">
@@ -22554,7 +22561,7 @@
         <v>10</v>
       </c>
       <c r="S256" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T256" s="11">
         <v>10</v>
@@ -22579,7 +22586,7 @@
       <c r="A257" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="B257" s="30" t="s">
+      <c r="B257" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C257" s="11" t="s">
@@ -22631,7 +22638,7 @@
         <v>10</v>
       </c>
       <c r="S257" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T257" s="11">
         <v>10</v>
@@ -22656,7 +22663,7 @@
       <c r="A258" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="B258" s="30" t="s">
+      <c r="B258" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C258" s="11" t="s">
@@ -22708,7 +22715,7 @@
         <v>10</v>
       </c>
       <c r="S258" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T258" s="11">
         <v>10</v>
@@ -22733,7 +22740,7 @@
       <c r="A259" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="B259" s="30" t="s">
+      <c r="B259" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C259" s="11" t="s">
@@ -22785,7 +22792,7 @@
         <v>10</v>
       </c>
       <c r="S259" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T259" s="11">
         <v>10</v>
@@ -22810,7 +22817,7 @@
       <c r="A260" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="B260" s="30" t="s">
+      <c r="B260" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C260" s="11" t="s">
@@ -22862,7 +22869,7 @@
         <v>10</v>
       </c>
       <c r="S260" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T260" s="11">
         <v>10</v>
@@ -22887,7 +22894,7 @@
       <c r="A261" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="B261" s="30" t="s">
+      <c r="B261" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C261" s="11" t="s">
@@ -22939,7 +22946,7 @@
         <v>10</v>
       </c>
       <c r="S261" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T261" s="11">
         <v>10</v>
@@ -22964,7 +22971,7 @@
       <c r="A262" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="B262" s="30" t="s">
+      <c r="B262" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C262" s="11" t="s">
@@ -23016,7 +23023,7 @@
         <v>10</v>
       </c>
       <c r="S262" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T262" s="11">
         <v>10</v>
@@ -23041,7 +23048,7 @@
       <c r="A263" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="B263" s="30" t="s">
+      <c r="B263" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C263" s="11" t="s">
@@ -23093,7 +23100,7 @@
         <v>10</v>
       </c>
       <c r="S263" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T263" s="11">
         <v>10</v>
@@ -23118,7 +23125,7 @@
       <c r="A264" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="B264" s="30" t="s">
+      <c r="B264" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C264" s="11" t="s">
@@ -23170,7 +23177,7 @@
         <v>10</v>
       </c>
       <c r="S264" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T264" s="11">
         <v>10</v>
@@ -23195,7 +23202,7 @@
       <c r="A265" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="B265" s="30" t="s">
+      <c r="B265" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C265" s="11" t="s">
@@ -23247,7 +23254,7 @@
         <v>10</v>
       </c>
       <c r="S265" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T265" s="11">
         <v>10</v>
@@ -23272,7 +23279,7 @@
       <c r="A266" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="B266" s="30" t="s">
+      <c r="B266" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C266" s="11" t="s">
@@ -23324,7 +23331,7 @@
         <v>10</v>
       </c>
       <c r="S266" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T266" s="11">
         <v>10</v>
@@ -23349,7 +23356,7 @@
       <c r="A267" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="B267" s="30" t="s">
+      <c r="B267" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C267" s="11" t="s">
@@ -23401,7 +23408,7 @@
         <v>10</v>
       </c>
       <c r="S267" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T267" s="11">
         <v>10</v>
@@ -23426,7 +23433,7 @@
       <c r="A268" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="B268" s="30" t="s">
+      <c r="B268" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C268" s="11" t="s">
@@ -23478,7 +23485,7 @@
         <v>10</v>
       </c>
       <c r="S268" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T268" s="11">
         <v>10</v>
@@ -23503,7 +23510,7 @@
       <c r="A269" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="B269" s="30" t="s">
+      <c r="B269" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C269" s="11" t="s">
@@ -23555,7 +23562,7 @@
         <v>10</v>
       </c>
       <c r="S269" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T269" s="11">
         <v>10</v>
@@ -23580,7 +23587,7 @@
       <c r="A270" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="B270" s="30" t="s">
+      <c r="B270" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C270" s="11" t="s">
@@ -23632,7 +23639,7 @@
         <v>10</v>
       </c>
       <c r="S270" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T270" s="11">
         <v>10</v>
@@ -23657,7 +23664,7 @@
       <c r="A271" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="B271" s="30" t="s">
+      <c r="B271" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C271" s="11" t="s">
@@ -23709,7 +23716,7 @@
         <v>10</v>
       </c>
       <c r="S271" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T271" s="11">
         <v>10</v>
@@ -23734,7 +23741,7 @@
       <c r="A272" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="B272" s="30" t="s">
+      <c r="B272" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C272" s="11" t="s">
@@ -23786,7 +23793,7 @@
         <v>10</v>
       </c>
       <c r="S272" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T272" s="11">
         <v>10</v>
@@ -23811,7 +23818,7 @@
       <c r="A273" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="B273" s="30" t="s">
+      <c r="B273" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C273" s="11" t="s">
@@ -23863,7 +23870,7 @@
         <v>10</v>
       </c>
       <c r="S273" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T273" s="11">
         <v>10</v>
@@ -23888,7 +23895,7 @@
       <c r="A274" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="B274" s="30" t="s">
+      <c r="B274" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C274" s="11" t="s">
@@ -23940,7 +23947,7 @@
         <v>10</v>
       </c>
       <c r="S274" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T274" s="11">
         <v>10</v>
@@ -23965,7 +23972,7 @@
       <c r="A275" t="s">
         <v>310</v>
       </c>
-      <c r="B275" s="30" t="s">
+      <c r="B275" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C275" s="11" t="s">
@@ -24017,7 +24024,7 @@
         <v>10</v>
       </c>
       <c r="S275" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T275" s="11">
         <v>10</v>
@@ -24042,7 +24049,7 @@
       <c r="A276" t="s">
         <v>311</v>
       </c>
-      <c r="B276" s="30" t="s">
+      <c r="B276" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C276" s="11" t="s">
@@ -24094,7 +24101,7 @@
         <v>10</v>
       </c>
       <c r="S276" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T276" s="11">
         <v>10</v>
@@ -24119,7 +24126,7 @@
       <c r="A277" t="s">
         <v>312</v>
       </c>
-      <c r="B277" s="30" t="s">
+      <c r="B277" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C277" s="11" t="s">
@@ -24171,7 +24178,7 @@
         <v>10</v>
       </c>
       <c r="S277" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T277" s="11">
         <v>10</v>
@@ -24196,7 +24203,7 @@
       <c r="A278" t="s">
         <v>313</v>
       </c>
-      <c r="B278" s="30" t="s">
+      <c r="B278" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C278" s="11" t="s">
@@ -24248,7 +24255,7 @@
         <v>10</v>
       </c>
       <c r="S278" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T278" s="11">
         <v>10</v>
@@ -24273,7 +24280,7 @@
       <c r="A279" t="s">
         <v>314</v>
       </c>
-      <c r="B279" s="30" t="s">
+      <c r="B279" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C279" s="11" t="s">
@@ -24325,7 +24332,7 @@
         <v>10</v>
       </c>
       <c r="S279" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T279" s="11">
         <v>10</v>
@@ -24350,7 +24357,7 @@
       <c r="A280" t="s">
         <v>315</v>
       </c>
-      <c r="B280" s="30" t="s">
+      <c r="B280" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C280" s="11" t="s">
@@ -24402,7 +24409,7 @@
         <v>10</v>
       </c>
       <c r="S280" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T280" s="11">
         <v>10</v>
@@ -24427,7 +24434,7 @@
       <c r="A281" t="s">
         <v>316</v>
       </c>
-      <c r="B281" s="30" t="s">
+      <c r="B281" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C281" s="11" t="s">
@@ -24479,7 +24486,7 @@
         <v>10</v>
       </c>
       <c r="S281" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T281" s="11">
         <v>10</v>
@@ -24504,7 +24511,7 @@
       <c r="A282" t="s">
         <v>317</v>
       </c>
-      <c r="B282" s="30" t="s">
+      <c r="B282" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C282" s="11" t="s">
@@ -24556,7 +24563,7 @@
         <v>10</v>
       </c>
       <c r="S282" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T282" s="11">
         <v>10</v>
@@ -24581,7 +24588,7 @@
       <c r="A283" t="s">
         <v>318</v>
       </c>
-      <c r="B283" s="30" t="s">
+      <c r="B283" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C283" s="11" t="s">
@@ -24633,7 +24640,7 @@
         <v>10</v>
       </c>
       <c r="S283" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T283" s="11">
         <v>10</v>
@@ -24658,7 +24665,7 @@
       <c r="A284" t="s">
         <v>319</v>
       </c>
-      <c r="B284" s="30" t="s">
+      <c r="B284" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C284" s="11" t="s">
@@ -24710,7 +24717,7 @@
         <v>10</v>
       </c>
       <c r="S284" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T284" s="11">
         <v>10</v>
@@ -24735,7 +24742,7 @@
       <c r="A285" t="s">
         <v>320</v>
       </c>
-      <c r="B285" s="30" t="s">
+      <c r="B285" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C285" s="11" t="s">
@@ -24787,7 +24794,7 @@
         <v>10</v>
       </c>
       <c r="S285" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T285" s="11">
         <v>10</v>
@@ -24812,7 +24819,7 @@
       <c r="A286" t="s">
         <v>321</v>
       </c>
-      <c r="B286" s="30" t="s">
+      <c r="B286" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C286" s="11" t="s">
@@ -24864,7 +24871,7 @@
         <v>10</v>
       </c>
       <c r="S286" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T286" s="11">
         <v>10</v>
@@ -24889,7 +24896,7 @@
       <c r="A287" t="s">
         <v>322</v>
       </c>
-      <c r="B287" s="30" t="s">
+      <c r="B287" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C287" s="11" t="s">
@@ -24941,7 +24948,7 @@
         <v>10</v>
       </c>
       <c r="S287" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T287" s="11">
         <v>10</v>
@@ -24966,7 +24973,7 @@
       <c r="A288" t="s">
         <v>323</v>
       </c>
-      <c r="B288" s="30" t="s">
+      <c r="B288" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C288" s="11" t="s">
@@ -25018,7 +25025,7 @@
         <v>10</v>
       </c>
       <c r="S288" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T288" s="11">
         <v>10</v>
@@ -25043,7 +25050,7 @@
       <c r="A289" t="s">
         <v>324</v>
       </c>
-      <c r="B289" s="30" t="s">
+      <c r="B289" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C289" s="11" t="s">
@@ -25095,7 +25102,7 @@
         <v>10</v>
       </c>
       <c r="S289" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T289" s="11">
         <v>10</v>
@@ -25120,7 +25127,7 @@
       <c r="A290" t="s">
         <v>325</v>
       </c>
-      <c r="B290" s="30" t="s">
+      <c r="B290" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C290" s="11" t="s">
@@ -25172,7 +25179,7 @@
         <v>10</v>
       </c>
       <c r="S290" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T290" s="11">
         <v>10</v>
@@ -25197,7 +25204,7 @@
       <c r="A291" t="s">
         <v>326</v>
       </c>
-      <c r="B291" s="30" t="s">
+      <c r="B291" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C291" s="11" t="s">
@@ -25249,7 +25256,7 @@
         <v>10</v>
       </c>
       <c r="S291" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T291" s="11">
         <v>10</v>
@@ -25274,7 +25281,7 @@
       <c r="A292" t="s">
         <v>327</v>
       </c>
-      <c r="B292" s="30" t="s">
+      <c r="B292" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C292" s="11" t="s">
@@ -25326,7 +25333,7 @@
         <v>10</v>
       </c>
       <c r="S292" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T292" s="11">
         <v>10</v>
@@ -25351,7 +25358,7 @@
       <c r="A293" t="s">
         <v>328</v>
       </c>
-      <c r="B293" s="30" t="s">
+      <c r="B293" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C293" s="11" t="s">
@@ -25403,7 +25410,7 @@
         <v>10</v>
       </c>
       <c r="S293" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T293" s="11">
         <v>10</v>
@@ -25428,7 +25435,7 @@
       <c r="A294" t="s">
         <v>329</v>
       </c>
-      <c r="B294" s="30" t="s">
+      <c r="B294" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C294" s="11" t="s">
@@ -25480,7 +25487,7 @@
         <v>10</v>
       </c>
       <c r="S294" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T294" s="11">
         <v>10</v>
@@ -25505,7 +25512,7 @@
       <c r="A295" t="s">
         <v>330</v>
       </c>
-      <c r="B295" s="30" t="s">
+      <c r="B295" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C295" s="11" t="s">
@@ -25557,7 +25564,7 @@
         <v>10</v>
       </c>
       <c r="S295" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T295" s="11">
         <v>10</v>
@@ -25582,7 +25589,7 @@
       <c r="A296" t="s">
         <v>331</v>
       </c>
-      <c r="B296" s="30" t="s">
+      <c r="B296" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C296" s="11" t="s">
@@ -25634,7 +25641,7 @@
         <v>10</v>
       </c>
       <c r="S296" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T296" s="11">
         <v>10</v>
@@ -25659,7 +25666,7 @@
       <c r="A297" t="s">
         <v>332</v>
       </c>
-      <c r="B297" s="30" t="s">
+      <c r="B297" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C297" s="11" t="s">
@@ -25711,7 +25718,7 @@
         <v>10</v>
       </c>
       <c r="S297" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T297" s="11">
         <v>10</v>
@@ -25736,7 +25743,7 @@
       <c r="A298" t="s">
         <v>333</v>
       </c>
-      <c r="B298" s="30" t="s">
+      <c r="B298" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C298" s="11" t="s">
@@ -25788,7 +25795,7 @@
         <v>10</v>
       </c>
       <c r="S298" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T298" s="11">
         <v>10</v>
@@ -25813,7 +25820,7 @@
       <c r="A299" t="s">
         <v>334</v>
       </c>
-      <c r="B299" s="30" t="s">
+      <c r="B299" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C299" s="11" t="s">
@@ -25865,7 +25872,7 @@
         <v>10</v>
       </c>
       <c r="S299" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T299" s="11">
         <v>10</v>
@@ -25890,7 +25897,7 @@
       <c r="A300" t="s">
         <v>335</v>
       </c>
-      <c r="B300" s="30" t="s">
+      <c r="B300" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C300" s="11" t="s">
@@ -25942,7 +25949,7 @@
         <v>10</v>
       </c>
       <c r="S300" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T300" s="11">
         <v>10</v>
@@ -25967,7 +25974,7 @@
       <c r="A301" t="s">
         <v>336</v>
       </c>
-      <c r="B301" s="30" t="s">
+      <c r="B301" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C301" s="11" t="s">
@@ -26019,7 +26026,7 @@
         <v>10</v>
       </c>
       <c r="S301" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T301" s="11">
         <v>10</v>
@@ -26044,7 +26051,7 @@
       <c r="A302" t="s">
         <v>337</v>
       </c>
-      <c r="B302" s="30" t="s">
+      <c r="B302" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C302" s="11" t="s">
@@ -26096,7 +26103,7 @@
         <v>10</v>
       </c>
       <c r="S302" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T302" s="11">
         <v>10</v>
@@ -26121,7 +26128,7 @@
       <c r="A303" t="s">
         <v>338</v>
       </c>
-      <c r="B303" s="30" t="s">
+      <c r="B303" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C303" s="11" t="s">
@@ -26173,7 +26180,7 @@
         <v>10</v>
       </c>
       <c r="S303" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T303" s="11">
         <v>10</v>
@@ -26198,7 +26205,7 @@
       <c r="A304" t="s">
         <v>339</v>
       </c>
-      <c r="B304" s="30" t="s">
+      <c r="B304" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C304" s="11" t="s">
@@ -26250,7 +26257,7 @@
         <v>10</v>
       </c>
       <c r="S304" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T304" s="11">
         <v>10</v>
@@ -26275,7 +26282,7 @@
       <c r="A305" t="s">
         <v>340</v>
       </c>
-      <c r="B305" s="30" t="s">
+      <c r="B305" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C305" s="11" t="s">
@@ -26327,7 +26334,7 @@
         <v>10</v>
       </c>
       <c r="S305" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T305" s="11">
         <v>10</v>
@@ -26352,7 +26359,7 @@
       <c r="A306" t="s">
         <v>341</v>
       </c>
-      <c r="B306" s="30" t="s">
+      <c r="B306" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C306" s="11" t="s">
@@ -26404,7 +26411,7 @@
         <v>10</v>
       </c>
       <c r="S306" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T306" s="11">
         <v>10</v>
@@ -26429,7 +26436,7 @@
       <c r="A307" t="s">
         <v>342</v>
       </c>
-      <c r="B307" s="30" t="s">
+      <c r="B307" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C307" s="11" t="s">
@@ -26481,7 +26488,7 @@
         <v>10</v>
       </c>
       <c r="S307" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T307" s="11">
         <v>10</v>
@@ -26506,7 +26513,7 @@
       <c r="A308" t="s">
         <v>343</v>
       </c>
-      <c r="B308" s="30" t="s">
+      <c r="B308" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C308" s="11" t="s">
@@ -26558,7 +26565,7 @@
         <v>10</v>
       </c>
       <c r="S308" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T308" s="11">
         <v>10</v>
@@ -26583,7 +26590,7 @@
       <c r="A309" t="s">
         <v>344</v>
       </c>
-      <c r="B309" s="30" t="s">
+      <c r="B309" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C309" s="11" t="s">
@@ -26635,7 +26642,7 @@
         <v>10</v>
       </c>
       <c r="S309" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T309" s="11">
         <v>10</v>
@@ -26660,7 +26667,7 @@
       <c r="A310" t="s">
         <v>345</v>
       </c>
-      <c r="B310" s="30" t="s">
+      <c r="B310" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C310" s="11" t="s">
@@ -26712,7 +26719,7 @@
         <v>10</v>
       </c>
       <c r="S310" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T310" s="11">
         <v>10</v>
@@ -26737,7 +26744,7 @@
       <c r="A311" t="s">
         <v>346</v>
       </c>
-      <c r="B311" s="30" t="s">
+      <c r="B311" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C311" s="11" t="s">
@@ -26789,7 +26796,7 @@
         <v>10</v>
       </c>
       <c r="S311" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T311" s="11">
         <v>10</v>
@@ -26814,7 +26821,7 @@
       <c r="A312" t="s">
         <v>347</v>
       </c>
-      <c r="B312" s="30" t="s">
+      <c r="B312" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C312" s="11" t="s">
@@ -26866,7 +26873,7 @@
         <v>10</v>
       </c>
       <c r="S312" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T312" s="11">
         <v>10</v>
@@ -26891,7 +26898,7 @@
       <c r="A313" t="s">
         <v>348</v>
       </c>
-      <c r="B313" s="30" t="s">
+      <c r="B313" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C313" s="11" t="s">
@@ -26943,7 +26950,7 @@
         <v>10</v>
       </c>
       <c r="S313" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T313" s="11">
         <v>10</v>
@@ -26968,7 +26975,7 @@
       <c r="A314" t="s">
         <v>349</v>
       </c>
-      <c r="B314" s="30" t="s">
+      <c r="B314" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C314" s="11" t="s">
@@ -27020,7 +27027,7 @@
         <v>10</v>
       </c>
       <c r="S314" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T314" s="11">
         <v>10</v>
@@ -27045,7 +27052,7 @@
       <c r="A315" t="s">
         <v>350</v>
       </c>
-      <c r="B315" s="30" t="s">
+      <c r="B315" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C315" s="11" t="s">
@@ -27097,7 +27104,7 @@
         <v>10</v>
       </c>
       <c r="S315" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T315" s="11">
         <v>10</v>
@@ -27122,7 +27129,7 @@
       <c r="A316" t="s">
         <v>351</v>
       </c>
-      <c r="B316" s="30" t="s">
+      <c r="B316" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C316" s="11" t="s">
@@ -27174,7 +27181,7 @@
         <v>10</v>
       </c>
       <c r="S316" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T316" s="11">
         <v>10</v>
@@ -27199,7 +27206,7 @@
       <c r="A317" t="s">
         <v>352</v>
       </c>
-      <c r="B317" s="30" t="s">
+      <c r="B317" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C317" s="11" t="s">
@@ -27251,7 +27258,7 @@
         <v>10</v>
       </c>
       <c r="S317" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T317" s="11">
         <v>10</v>
@@ -27276,7 +27283,7 @@
       <c r="A318" t="s">
         <v>353</v>
       </c>
-      <c r="B318" s="30" t="s">
+      <c r="B318" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C318" s="11" t="s">
@@ -27328,7 +27335,7 @@
         <v>10</v>
       </c>
       <c r="S318" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T318" s="11">
         <v>10</v>
@@ -27353,7 +27360,7 @@
       <c r="A319" t="s">
         <v>354</v>
       </c>
-      <c r="B319" s="30" t="s">
+      <c r="B319" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C319" s="11" t="s">
@@ -27405,7 +27412,7 @@
         <v>10</v>
       </c>
       <c r="S319" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T319" s="11">
         <v>10</v>
@@ -27430,7 +27437,7 @@
       <c r="A320" t="s">
         <v>355</v>
       </c>
-      <c r="B320" s="30" t="s">
+      <c r="B320" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C320" s="11" t="s">
@@ -27482,7 +27489,7 @@
         <v>10</v>
       </c>
       <c r="S320" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T320" s="11">
         <v>10</v>
@@ -27507,7 +27514,7 @@
       <c r="A321" t="s">
         <v>356</v>
       </c>
-      <c r="B321" s="30" t="s">
+      <c r="B321" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C321" s="11" t="s">
@@ -27559,7 +27566,7 @@
         <v>10</v>
       </c>
       <c r="S321" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T321" s="11">
         <v>10</v>
@@ -27584,7 +27591,7 @@
       <c r="A322" t="s">
         <v>357</v>
       </c>
-      <c r="B322" s="30" t="s">
+      <c r="B322" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C322" s="11" t="s">
@@ -27636,7 +27643,7 @@
         <v>10</v>
       </c>
       <c r="S322" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T322" s="11">
         <v>10</v>
@@ -27661,7 +27668,7 @@
       <c r="A323" t="s">
         <v>358</v>
       </c>
-      <c r="B323" s="30" t="s">
+      <c r="B323" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C323" s="11" t="s">
@@ -27713,7 +27720,7 @@
         <v>10</v>
       </c>
       <c r="S323" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T323" s="11">
         <v>10</v>
@@ -27738,7 +27745,7 @@
       <c r="A324" t="s">
         <v>359</v>
       </c>
-      <c r="B324" s="30" t="s">
+      <c r="B324" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C324" s="11" t="s">
@@ -27790,7 +27797,7 @@
         <v>10</v>
       </c>
       <c r="S324" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T324" s="11">
         <v>10</v>
@@ -27815,7 +27822,7 @@
       <c r="A325" t="s">
         <v>360</v>
       </c>
-      <c r="B325" s="30" t="s">
+      <c r="B325" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C325" s="11" t="s">
@@ -27867,7 +27874,7 @@
         <v>10</v>
       </c>
       <c r="S325" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T325" s="11">
         <v>10</v>
@@ -27892,7 +27899,7 @@
       <c r="A326" t="s">
         <v>361</v>
       </c>
-      <c r="B326" s="30" t="s">
+      <c r="B326" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C326" s="11" t="s">
@@ -27944,7 +27951,7 @@
         <v>10</v>
       </c>
       <c r="S326" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T326" s="11">
         <v>10</v>
@@ -27969,7 +27976,7 @@
       <c r="A327" t="s">
         <v>362</v>
       </c>
-      <c r="B327" s="30" t="s">
+      <c r="B327" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C327" s="11" t="s">
@@ -28021,7 +28028,7 @@
         <v>10</v>
       </c>
       <c r="S327" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T327" s="11">
         <v>10</v>
@@ -28046,7 +28053,7 @@
       <c r="A328" t="s">
         <v>363</v>
       </c>
-      <c r="B328" s="30" t="s">
+      <c r="B328" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C328" s="11" t="s">
@@ -28098,7 +28105,7 @@
         <v>10</v>
       </c>
       <c r="S328" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T328" s="11">
         <v>10</v>
@@ -28123,7 +28130,7 @@
       <c r="A329" t="s">
         <v>364</v>
       </c>
-      <c r="B329" s="30" t="s">
+      <c r="B329" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C329" s="11" t="s">
@@ -28175,7 +28182,7 @@
         <v>10</v>
       </c>
       <c r="S329" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T329" s="11">
         <v>10</v>
@@ -28200,7 +28207,7 @@
       <c r="A330" t="s">
         <v>365</v>
       </c>
-      <c r="B330" s="30" t="s">
+      <c r="B330" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C330" s="11" t="s">
@@ -28252,7 +28259,7 @@
         <v>10</v>
       </c>
       <c r="S330" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T330" s="11">
         <v>10</v>
@@ -28277,7 +28284,7 @@
       <c r="A331" t="s">
         <v>366</v>
       </c>
-      <c r="B331" s="30" t="s">
+      <c r="B331" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C331" s="11" t="s">
@@ -28329,7 +28336,7 @@
         <v>10</v>
       </c>
       <c r="S331" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T331" s="11">
         <v>10</v>
@@ -28354,7 +28361,7 @@
       <c r="A332" t="s">
         <v>367</v>
       </c>
-      <c r="B332" s="30" t="s">
+      <c r="B332" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C332" s="11" t="s">
@@ -28406,7 +28413,7 @@
         <v>10</v>
       </c>
       <c r="S332" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T332" s="11">
         <v>10</v>
@@ -28431,7 +28438,7 @@
       <c r="A333" t="s">
         <v>368</v>
       </c>
-      <c r="B333" s="30" t="s">
+      <c r="B333" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C333" s="11" t="s">
@@ -28483,7 +28490,7 @@
         <v>10</v>
       </c>
       <c r="S333" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T333" s="11">
         <v>10</v>
@@ -28508,7 +28515,7 @@
       <c r="A334" t="s">
         <v>369</v>
       </c>
-      <c r="B334" s="30" t="s">
+      <c r="B334" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C334" s="11" t="s">
@@ -28560,7 +28567,7 @@
         <v>10</v>
       </c>
       <c r="S334" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T334" s="11">
         <v>10</v>
@@ -28585,7 +28592,7 @@
       <c r="A335" t="s">
         <v>370</v>
       </c>
-      <c r="B335" s="30" t="s">
+      <c r="B335" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C335" s="11" t="s">
@@ -28637,7 +28644,7 @@
         <v>10</v>
       </c>
       <c r="S335" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T335" s="11">
         <v>10</v>
@@ -28662,7 +28669,7 @@
       <c r="A336" t="s">
         <v>371</v>
       </c>
-      <c r="B336" s="30" t="s">
+      <c r="B336" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C336" s="11" t="s">
@@ -28714,7 +28721,7 @@
         <v>10</v>
       </c>
       <c r="S336" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T336" s="11">
         <v>10</v>
@@ -28739,7 +28746,7 @@
       <c r="A337" t="s">
         <v>372</v>
       </c>
-      <c r="B337" s="30" t="s">
+      <c r="B337" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C337" s="11" t="s">
@@ -28791,7 +28798,7 @@
         <v>10</v>
       </c>
       <c r="S337" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T337" s="11">
         <v>10</v>
@@ -28816,7 +28823,7 @@
       <c r="A338" t="s">
         <v>373</v>
       </c>
-      <c r="B338" s="30" t="s">
+      <c r="B338" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C338" s="11" t="s">
@@ -28868,7 +28875,7 @@
         <v>10</v>
       </c>
       <c r="S338" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T338" s="11">
         <v>10</v>
@@ -28893,7 +28900,7 @@
       <c r="A339" t="s">
         <v>374</v>
       </c>
-      <c r="B339" s="30" t="s">
+      <c r="B339" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C339" s="11" t="s">
@@ -28945,7 +28952,7 @@
         <v>10</v>
       </c>
       <c r="S339" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T339" s="11">
         <v>10</v>
@@ -28970,7 +28977,7 @@
       <c r="A340" t="s">
         <v>375</v>
       </c>
-      <c r="B340" s="30" t="s">
+      <c r="B340" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C340" s="11" t="s">
@@ -29022,7 +29029,7 @@
         <v>10</v>
       </c>
       <c r="S340" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T340" s="11">
         <v>10</v>
@@ -29047,7 +29054,7 @@
       <c r="A341" t="s">
         <v>376</v>
       </c>
-      <c r="B341" s="30" t="s">
+      <c r="B341" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C341" s="11" t="s">
@@ -29099,7 +29106,7 @@
         <v>10</v>
       </c>
       <c r="S341" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T341" s="11">
         <v>10</v>
@@ -29124,7 +29131,7 @@
       <c r="A342" t="s">
         <v>377</v>
       </c>
-      <c r="B342" s="30" t="s">
+      <c r="B342" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C342" s="11" t="s">
@@ -29176,7 +29183,7 @@
         <v>10</v>
       </c>
       <c r="S342" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T342" s="11">
         <v>10</v>
@@ -29201,7 +29208,7 @@
       <c r="A343" t="s">
         <v>378</v>
       </c>
-      <c r="B343" s="30" t="s">
+      <c r="B343" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C343" s="11" t="s">
@@ -29253,7 +29260,7 @@
         <v>10</v>
       </c>
       <c r="S343" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T343" s="11">
         <v>10</v>
@@ -29278,7 +29285,7 @@
       <c r="A344" t="s">
         <v>379</v>
       </c>
-      <c r="B344" s="30" t="s">
+      <c r="B344" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C344" s="11" t="s">
@@ -29330,7 +29337,7 @@
         <v>10</v>
       </c>
       <c r="S344" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T344" s="11">
         <v>10</v>
@@ -29355,7 +29362,7 @@
       <c r="A345" t="s">
         <v>380</v>
       </c>
-      <c r="B345" s="30" t="s">
+      <c r="B345" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C345" s="11" t="s">
@@ -29407,7 +29414,7 @@
         <v>10</v>
       </c>
       <c r="S345" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T345" s="11">
         <v>10</v>
@@ -29432,7 +29439,7 @@
       <c r="A346" t="s">
         <v>381</v>
       </c>
-      <c r="B346" s="30" t="s">
+      <c r="B346" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C346" s="11" t="s">
@@ -29484,7 +29491,7 @@
         <v>10</v>
       </c>
       <c r="S346" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T346" s="11">
         <v>10</v>
@@ -29509,7 +29516,7 @@
       <c r="A347" t="s">
         <v>382</v>
       </c>
-      <c r="B347" s="30" t="s">
+      <c r="B347" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C347" s="11" t="s">
@@ -29561,7 +29568,7 @@
         <v>10</v>
       </c>
       <c r="S347" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T347" s="11">
         <v>10</v>
@@ -29586,7 +29593,7 @@
       <c r="A348" t="s">
         <v>383</v>
       </c>
-      <c r="B348" s="30" t="s">
+      <c r="B348" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C348" s="11" t="s">
@@ -29638,7 +29645,7 @@
         <v>10</v>
       </c>
       <c r="S348" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T348" s="11">
         <v>10</v>
@@ -29663,7 +29670,7 @@
       <c r="A349" t="s">
         <v>384</v>
       </c>
-      <c r="B349" s="30" t="s">
+      <c r="B349" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C349" s="11" t="s">
@@ -29715,7 +29722,7 @@
         <v>10</v>
       </c>
       <c r="S349" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T349" s="11">
         <v>10</v>
@@ -29740,7 +29747,7 @@
       <c r="A350" t="s">
         <v>385</v>
       </c>
-      <c r="B350" s="30" t="s">
+      <c r="B350" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C350" s="11" t="s">
@@ -29792,7 +29799,7 @@
         <v>10</v>
       </c>
       <c r="S350" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T350" s="11">
         <v>10</v>
@@ -29817,7 +29824,7 @@
       <c r="A351" t="s">
         <v>386</v>
       </c>
-      <c r="B351" s="30" t="s">
+      <c r="B351" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C351" s="11" t="s">
@@ -29869,7 +29876,7 @@
         <v>10</v>
       </c>
       <c r="S351" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T351" s="11">
         <v>10</v>
@@ -29894,7 +29901,7 @@
       <c r="A352" t="s">
         <v>387</v>
       </c>
-      <c r="B352" s="30" t="s">
+      <c r="B352" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C352" s="11" t="s">
@@ -29946,7 +29953,7 @@
         <v>10</v>
       </c>
       <c r="S352" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T352" s="11">
         <v>10</v>
@@ -29971,7 +29978,7 @@
       <c r="A353" t="s">
         <v>388</v>
       </c>
-      <c r="B353" s="30" t="s">
+      <c r="B353" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C353" s="11" t="s">
@@ -30023,7 +30030,7 @@
         <v>10</v>
       </c>
       <c r="S353" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T353" s="11">
         <v>10</v>
@@ -30048,7 +30055,7 @@
       <c r="A354" t="s">
         <v>389</v>
       </c>
-      <c r="B354" s="30" t="s">
+      <c r="B354" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C354" s="11" t="s">
@@ -30100,7 +30107,7 @@
         <v>10</v>
       </c>
       <c r="S354" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T354" s="11">
         <v>10</v>
@@ -30125,7 +30132,7 @@
       <c r="A355" t="s">
         <v>390</v>
       </c>
-      <c r="B355" s="30" t="s">
+      <c r="B355" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C355" s="11" t="s">
@@ -30177,7 +30184,7 @@
         <v>10</v>
       </c>
       <c r="S355" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T355" s="11">
         <v>10</v>
@@ -30202,7 +30209,7 @@
       <c r="A356" t="s">
         <v>391</v>
       </c>
-      <c r="B356" s="30" t="s">
+      <c r="B356" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C356" s="11" t="s">
@@ -30254,7 +30261,7 @@
         <v>10</v>
       </c>
       <c r="S356" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T356" s="11">
         <v>10</v>
@@ -30279,7 +30286,7 @@
       <c r="A357" t="s">
         <v>392</v>
       </c>
-      <c r="B357" s="30" t="s">
+      <c r="B357" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C357" s="11" t="s">
@@ -30331,7 +30338,7 @@
         <v>10</v>
       </c>
       <c r="S357" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T357" s="11">
         <v>10</v>
@@ -30356,7 +30363,7 @@
       <c r="A358" t="s">
         <v>393</v>
       </c>
-      <c r="B358" s="30" t="s">
+      <c r="B358" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C358" s="11" t="s">
@@ -30408,7 +30415,7 @@
         <v>10</v>
       </c>
       <c r="S358" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T358" s="11">
         <v>10</v>
@@ -30433,7 +30440,7 @@
       <c r="A359" t="s">
         <v>394</v>
       </c>
-      <c r="B359" s="30" t="s">
+      <c r="B359" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C359" s="11" t="s">
@@ -30485,7 +30492,7 @@
         <v>10</v>
       </c>
       <c r="S359" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T359" s="11">
         <v>10</v>
@@ -30510,7 +30517,7 @@
       <c r="A360" t="s">
         <v>395</v>
       </c>
-      <c r="B360" s="30" t="s">
+      <c r="B360" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C360" s="11" t="s">
@@ -30562,7 +30569,7 @@
         <v>10</v>
       </c>
       <c r="S360" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T360" s="11">
         <v>10</v>
@@ -30587,7 +30594,7 @@
       <c r="A361" t="s">
         <v>396</v>
       </c>
-      <c r="B361" s="30" t="s">
+      <c r="B361" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C361" s="11" t="s">
@@ -30639,7 +30646,7 @@
         <v>10</v>
       </c>
       <c r="S361" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T361" s="11">
         <v>10</v>
@@ -30664,7 +30671,7 @@
       <c r="A362" t="s">
         <v>397</v>
       </c>
-      <c r="B362" s="30" t="s">
+      <c r="B362" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C362" s="11" t="s">
@@ -30716,7 +30723,7 @@
         <v>10</v>
       </c>
       <c r="S362" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T362" s="11">
         <v>10</v>
@@ -30741,7 +30748,7 @@
       <c r="A363" t="s">
         <v>398</v>
       </c>
-      <c r="B363" s="30" t="s">
+      <c r="B363" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C363" s="11" t="s">
@@ -30793,7 +30800,7 @@
         <v>10</v>
       </c>
       <c r="S363" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T363" s="11">
         <v>10</v>
@@ -30818,7 +30825,7 @@
       <c r="A364" t="s">
         <v>399</v>
       </c>
-      <c r="B364" s="30" t="s">
+      <c r="B364" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C364" s="11" t="s">
@@ -30870,7 +30877,7 @@
         <v>10</v>
       </c>
       <c r="S364" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T364" s="11">
         <v>10</v>
@@ -30895,7 +30902,7 @@
       <c r="A365" t="s">
         <v>400</v>
       </c>
-      <c r="B365" s="30" t="s">
+      <c r="B365" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C365" s="11" t="s">
@@ -30947,7 +30954,7 @@
         <v>10</v>
       </c>
       <c r="S365" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T365" s="11">
         <v>10</v>
@@ -30972,7 +30979,7 @@
       <c r="A366" t="s">
         <v>401</v>
       </c>
-      <c r="B366" s="30" t="s">
+      <c r="B366" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C366" s="11" t="s">
@@ -31024,7 +31031,7 @@
         <v>10</v>
       </c>
       <c r="S366" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T366" s="11">
         <v>10</v>
@@ -31049,7 +31056,7 @@
       <c r="A367" t="s">
         <v>402</v>
       </c>
-      <c r="B367" s="30" t="s">
+      <c r="B367" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C367" s="11" t="s">
@@ -31101,7 +31108,7 @@
         <v>10</v>
       </c>
       <c r="S367" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T367" s="11">
         <v>10</v>
@@ -31126,7 +31133,7 @@
       <c r="A368" t="s">
         <v>403</v>
       </c>
-      <c r="B368" s="30" t="s">
+      <c r="B368" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C368" s="11" t="s">
@@ -31178,7 +31185,7 @@
         <v>10</v>
       </c>
       <c r="S368" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T368" s="11">
         <v>10</v>
@@ -31203,7 +31210,7 @@
       <c r="A369" t="s">
         <v>404</v>
       </c>
-      <c r="B369" s="30" t="s">
+      <c r="B369" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C369" s="11" t="s">
@@ -31255,7 +31262,7 @@
         <v>10</v>
       </c>
       <c r="S369" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T369" s="11">
         <v>10</v>
@@ -31280,7 +31287,7 @@
       <c r="A370" t="s">
         <v>405</v>
       </c>
-      <c r="B370" s="30" t="s">
+      <c r="B370" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C370" s="11" t="s">
@@ -31332,7 +31339,7 @@
         <v>10</v>
       </c>
       <c r="S370" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T370" s="11">
         <v>10</v>
@@ -31357,7 +31364,7 @@
       <c r="A371" t="s">
         <v>406</v>
       </c>
-      <c r="B371" s="30" t="s">
+      <c r="B371" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C371" s="11" t="s">
@@ -31409,7 +31416,7 @@
         <v>10</v>
       </c>
       <c r="S371" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T371" s="11">
         <v>10</v>
@@ -31434,7 +31441,7 @@
       <c r="A372" t="s">
         <v>407</v>
       </c>
-      <c r="B372" s="30" t="s">
+      <c r="B372" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C372" s="11" t="s">
@@ -31486,7 +31493,7 @@
         <v>10</v>
       </c>
       <c r="S372" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T372" s="11">
         <v>10</v>
@@ -31511,7 +31518,7 @@
       <c r="A373" t="s">
         <v>408</v>
       </c>
-      <c r="B373" s="30" t="s">
+      <c r="B373" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C373" s="11" t="s">
@@ -31563,7 +31570,7 @@
         <v>10</v>
       </c>
       <c r="S373" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T373" s="11">
         <v>10</v>
@@ -31588,7 +31595,7 @@
       <c r="A374" t="s">
         <v>409</v>
       </c>
-      <c r="B374" s="30" t="s">
+      <c r="B374" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C374" s="11" t="s">
@@ -31640,7 +31647,7 @@
         <v>10</v>
       </c>
       <c r="S374" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T374" s="11">
         <v>10</v>
@@ -31665,7 +31672,7 @@
       <c r="A375" t="s">
         <v>410</v>
       </c>
-      <c r="B375" s="30" t="s">
+      <c r="B375" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C375" s="11" t="s">
@@ -31717,7 +31724,7 @@
         <v>10</v>
       </c>
       <c r="S375" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T375" s="11">
         <v>10</v>
@@ -31742,7 +31749,7 @@
       <c r="A376" t="s">
         <v>411</v>
       </c>
-      <c r="B376" s="30" t="s">
+      <c r="B376" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C376" s="11" t="s">
@@ -31794,7 +31801,7 @@
         <v>10</v>
       </c>
       <c r="S376" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T376" s="11">
         <v>10</v>
@@ -31819,7 +31826,7 @@
       <c r="A377" t="s">
         <v>412</v>
       </c>
-      <c r="B377" s="30" t="s">
+      <c r="B377" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C377" s="11" t="s">
@@ -31871,7 +31878,7 @@
         <v>10</v>
       </c>
       <c r="S377" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T377" s="11">
         <v>10</v>
@@ -31896,7 +31903,7 @@
       <c r="A378" t="s">
         <v>413</v>
       </c>
-      <c r="B378" s="30" t="s">
+      <c r="B378" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C378" s="11" t="s">
@@ -31948,7 +31955,7 @@
         <v>10</v>
       </c>
       <c r="S378" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T378" s="11">
         <v>10</v>
@@ -31973,7 +31980,7 @@
       <c r="A379" t="s">
         <v>414</v>
       </c>
-      <c r="B379" s="30" t="s">
+      <c r="B379" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C379" s="11" t="s">
@@ -32025,7 +32032,7 @@
         <v>10</v>
       </c>
       <c r="S379" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T379" s="11">
         <v>10</v>
@@ -32050,7 +32057,7 @@
       <c r="A380" t="s">
         <v>415</v>
       </c>
-      <c r="B380" s="30" t="s">
+      <c r="B380" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C380" s="11" t="s">
@@ -32102,7 +32109,7 @@
         <v>10</v>
       </c>
       <c r="S380" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T380" s="11">
         <v>10</v>
@@ -32127,7 +32134,7 @@
       <c r="A381" t="s">
         <v>416</v>
       </c>
-      <c r="B381" s="30" t="s">
+      <c r="B381" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C381" s="11" t="s">
@@ -32179,7 +32186,7 @@
         <v>10</v>
       </c>
       <c r="S381" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T381" s="11">
         <v>10</v>
@@ -32204,7 +32211,7 @@
       <c r="A382" t="s">
         <v>417</v>
       </c>
-      <c r="B382" s="30" t="s">
+      <c r="B382" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C382" s="11" t="s">
@@ -32256,7 +32263,7 @@
         <v>10</v>
       </c>
       <c r="S382" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T382" s="11">
         <v>10</v>
@@ -32281,7 +32288,7 @@
       <c r="A383" t="s">
         <v>418</v>
       </c>
-      <c r="B383" s="30" t="s">
+      <c r="B383" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C383" s="11" t="s">
@@ -32333,7 +32340,7 @@
         <v>10</v>
       </c>
       <c r="S383" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T383" s="11">
         <v>10</v>
@@ -32358,7 +32365,7 @@
       <c r="A384" t="s">
         <v>419</v>
       </c>
-      <c r="B384" s="30" t="s">
+      <c r="B384" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C384" s="11" t="s">
@@ -32410,7 +32417,7 @@
         <v>10</v>
       </c>
       <c r="S384" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T384" s="11">
         <v>10</v>
@@ -32435,7 +32442,7 @@
       <c r="A385" t="s">
         <v>420</v>
       </c>
-      <c r="B385" s="30" t="s">
+      <c r="B385" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C385" s="11" t="s">
@@ -32487,7 +32494,7 @@
         <v>10</v>
       </c>
       <c r="S385" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T385" s="11">
         <v>10</v>
@@ -32512,7 +32519,7 @@
       <c r="A386" t="s">
         <v>421</v>
       </c>
-      <c r="B386" s="30" t="s">
+      <c r="B386" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C386" s="11" t="s">
@@ -32564,7 +32571,7 @@
         <v>10</v>
       </c>
       <c r="S386" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T386" s="11">
         <v>10</v>
@@ -32589,7 +32596,7 @@
       <c r="A387" t="s">
         <v>422</v>
       </c>
-      <c r="B387" s="30" t="s">
+      <c r="B387" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C387" s="11" t="s">
@@ -32641,7 +32648,7 @@
         <v>10</v>
       </c>
       <c r="S387" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T387" s="11">
         <v>10</v>
@@ -32666,7 +32673,7 @@
       <c r="A388" t="s">
         <v>423</v>
       </c>
-      <c r="B388" s="30" t="s">
+      <c r="B388" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C388" s="11" t="s">
@@ -32718,7 +32725,7 @@
         <v>10</v>
       </c>
       <c r="S388" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T388" s="11">
         <v>10</v>
@@ -32743,7 +32750,7 @@
       <c r="A389" t="s">
         <v>424</v>
       </c>
-      <c r="B389" s="30" t="s">
+      <c r="B389" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C389" s="11" t="s">
@@ -32795,7 +32802,7 @@
         <v>10</v>
       </c>
       <c r="S389" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T389" s="11">
         <v>10</v>
@@ -32820,7 +32827,7 @@
       <c r="A390" s="4" t="s">
         <v>425</v>
       </c>
-      <c r="B390" s="30" t="s">
+      <c r="B390" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C390" s="11" t="s">
@@ -32872,7 +32879,7 @@
         <v>10</v>
       </c>
       <c r="S390" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T390" s="11">
         <v>10</v>
@@ -32897,7 +32904,7 @@
       <c r="A391" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="B391" s="30" t="s">
+      <c r="B391" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C391" s="11" t="s">
@@ -32949,7 +32956,7 @@
         <v>10</v>
       </c>
       <c r="S391" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T391" s="11">
         <v>10</v>
@@ -32974,7 +32981,7 @@
       <c r="A392" s="4" t="s">
         <v>427</v>
       </c>
-      <c r="B392" s="30" t="s">
+      <c r="B392" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C392" s="11" t="s">
@@ -33026,7 +33033,7 @@
         <v>10</v>
       </c>
       <c r="S392" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T392" s="11">
         <v>10</v>
@@ -33051,7 +33058,7 @@
       <c r="A393" s="4" t="s">
         <v>428</v>
       </c>
-      <c r="B393" s="30" t="s">
+      <c r="B393" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C393" s="11" t="s">
@@ -33103,7 +33110,7 @@
         <v>10</v>
       </c>
       <c r="S393" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T393" s="11">
         <v>10</v>
@@ -33128,7 +33135,7 @@
       <c r="A394" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="B394" s="30" t="s">
+      <c r="B394" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C394" s="11" t="s">
@@ -33180,7 +33187,7 @@
         <v>10</v>
       </c>
       <c r="S394" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T394" s="11">
         <v>10</v>
@@ -33205,7 +33212,7 @@
       <c r="A395" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="B395" s="30" t="s">
+      <c r="B395" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C395" s="11" t="s">
@@ -33257,7 +33264,7 @@
         <v>10</v>
       </c>
       <c r="S395" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T395" s="11">
         <v>10</v>
@@ -33282,7 +33289,7 @@
       <c r="A396" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="B396" s="30" t="s">
+      <c r="B396" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C396" s="11" t="s">
@@ -33334,7 +33341,7 @@
         <v>10</v>
       </c>
       <c r="S396" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T396" s="11">
         <v>10</v>
@@ -33359,7 +33366,7 @@
       <c r="A397" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="B397" s="30" t="s">
+      <c r="B397" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C397" s="11" t="s">
@@ -33411,7 +33418,7 @@
         <v>10</v>
       </c>
       <c r="S397" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T397" s="11">
         <v>10</v>
@@ -33436,7 +33443,7 @@
       <c r="A398" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="B398" s="30" t="s">
+      <c r="B398" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C398" s="11" t="s">
@@ -33488,7 +33495,7 @@
         <v>10</v>
       </c>
       <c r="S398" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T398" s="11">
         <v>10</v>
@@ -33513,7 +33520,7 @@
       <c r="A399" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="B399" s="30" t="s">
+      <c r="B399" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C399" s="11" t="s">
@@ -33565,7 +33572,7 @@
         <v>10</v>
       </c>
       <c r="S399" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T399" s="11">
         <v>10</v>
@@ -33590,7 +33597,7 @@
       <c r="A400" s="4" t="s">
         <v>435</v>
       </c>
-      <c r="B400" s="30" t="s">
+      <c r="B400" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C400" s="11" t="s">
@@ -33642,7 +33649,7 @@
         <v>10</v>
       </c>
       <c r="S400" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T400" s="11">
         <v>10</v>
@@ -33667,7 +33674,7 @@
       <c r="A401" s="4" t="s">
         <v>436</v>
       </c>
-      <c r="B401" s="30" t="s">
+      <c r="B401" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C401" s="11" t="s">
@@ -33719,7 +33726,7 @@
         <v>10</v>
       </c>
       <c r="S401" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T401" s="11">
         <v>10</v>
@@ -33744,7 +33751,7 @@
       <c r="A402" s="4" t="s">
         <v>437</v>
       </c>
-      <c r="B402" s="30" t="s">
+      <c r="B402" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C402" s="11" t="s">
@@ -33796,7 +33803,7 @@
         <v>10</v>
       </c>
       <c r="S402" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T402" s="11">
         <v>10</v>
@@ -33821,7 +33828,7 @@
       <c r="A403" s="4" t="s">
         <v>438</v>
       </c>
-      <c r="B403" s="30" t="s">
+      <c r="B403" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C403" s="11" t="s">
@@ -33873,7 +33880,7 @@
         <v>10</v>
       </c>
       <c r="S403" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T403" s="11">
         <v>10</v>
@@ -33898,7 +33905,7 @@
       <c r="A404" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="B404" s="30" t="s">
+      <c r="B404" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C404" s="11" t="s">
@@ -33950,7 +33957,7 @@
         <v>10</v>
       </c>
       <c r="S404" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T404" s="11">
         <v>10</v>
@@ -33975,7 +33982,7 @@
       <c r="A405" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="B405" s="30" t="s">
+      <c r="B405" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C405" s="11" t="s">
@@ -34027,7 +34034,7 @@
         <v>10</v>
       </c>
       <c r="S405" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T405" s="11">
         <v>10</v>
@@ -34052,7 +34059,7 @@
       <c r="A406" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="B406" s="30" t="s">
+      <c r="B406" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C406" s="11" t="s">
@@ -34104,7 +34111,7 @@
         <v>10</v>
       </c>
       <c r="S406" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T406" s="11">
         <v>10</v>
@@ -34129,7 +34136,7 @@
       <c r="A407" s="4" t="s">
         <v>442</v>
       </c>
-      <c r="B407" s="30" t="s">
+      <c r="B407" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C407" s="11" t="s">
@@ -34181,7 +34188,7 @@
         <v>10</v>
       </c>
       <c r="S407" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T407" s="11">
         <v>10</v>
@@ -34206,7 +34213,7 @@
       <c r="A408" s="4" t="s">
         <v>443</v>
       </c>
-      <c r="B408" s="30" t="s">
+      <c r="B408" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C408" s="11" t="s">
@@ -34258,7 +34265,7 @@
         <v>10</v>
       </c>
       <c r="S408" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T408" s="11">
         <v>10</v>
@@ -34283,7 +34290,7 @@
       <c r="A409" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="B409" s="30" t="s">
+      <c r="B409" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C409" s="11" t="s">
@@ -34335,7 +34342,7 @@
         <v>10</v>
       </c>
       <c r="S409" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T409" s="11">
         <v>10</v>
@@ -34360,7 +34367,7 @@
       <c r="A410" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="B410" s="30" t="s">
+      <c r="B410" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C410" s="11" t="s">
@@ -34412,7 +34419,7 @@
         <v>10</v>
       </c>
       <c r="S410" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T410" s="11">
         <v>10</v>
@@ -34437,7 +34444,7 @@
       <c r="A411" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="B411" s="30" t="s">
+      <c r="B411" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C411" s="11" t="s">
@@ -34489,7 +34496,7 @@
         <v>10</v>
       </c>
       <c r="S411" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T411" s="11">
         <v>10</v>
@@ -34514,7 +34521,7 @@
       <c r="A412" s="4" t="s">
         <v>447</v>
       </c>
-      <c r="B412" s="30" t="s">
+      <c r="B412" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C412" s="11" t="s">
@@ -34566,7 +34573,7 @@
         <v>10</v>
       </c>
       <c r="S412" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T412" s="11">
         <v>10</v>
@@ -34591,7 +34598,7 @@
       <c r="A413" s="4" t="s">
         <v>448</v>
       </c>
-      <c r="B413" s="30" t="s">
+      <c r="B413" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C413" s="11" t="s">
@@ -34643,7 +34650,7 @@
         <v>10</v>
       </c>
       <c r="S413" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T413" s="11">
         <v>10</v>
@@ -34668,7 +34675,7 @@
       <c r="A414" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="B414" s="30" t="s">
+      <c r="B414" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C414" s="11" t="s">
@@ -34720,7 +34727,7 @@
         <v>10</v>
       </c>
       <c r="S414" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T414" s="11">
         <v>10</v>
@@ -34745,7 +34752,7 @@
       <c r="A415" s="4" t="s">
         <v>450</v>
       </c>
-      <c r="B415" s="30" t="s">
+      <c r="B415" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C415" s="11" t="s">
@@ -34797,7 +34804,7 @@
         <v>10</v>
       </c>
       <c r="S415" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T415" s="11">
         <v>10</v>
@@ -34822,7 +34829,7 @@
       <c r="A416" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="B416" s="30" t="s">
+      <c r="B416" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C416" s="11" t="s">
@@ -34874,7 +34881,7 @@
         <v>10</v>
       </c>
       <c r="S416" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T416" s="11">
         <v>10</v>
@@ -34899,7 +34906,7 @@
       <c r="A417" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="B417" s="30" t="s">
+      <c r="B417" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C417" s="11" t="s">
@@ -34951,7 +34958,7 @@
         <v>10</v>
       </c>
       <c r="S417" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T417" s="11">
         <v>10</v>
@@ -34976,7 +34983,7 @@
       <c r="A418" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="B418" s="30" t="s">
+      <c r="B418" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C418" s="11" t="s">
@@ -35028,7 +35035,7 @@
         <v>10</v>
       </c>
       <c r="S418" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T418" s="11">
         <v>10</v>
@@ -35053,7 +35060,7 @@
       <c r="A419" s="4" t="s">
         <v>454</v>
       </c>
-      <c r="B419" s="30" t="s">
+      <c r="B419" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C419" s="11" t="s">
@@ -35105,7 +35112,7 @@
         <v>10</v>
       </c>
       <c r="S419" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T419" s="11">
         <v>10</v>
@@ -35130,7 +35137,7 @@
       <c r="A420" s="4" t="s">
         <v>455</v>
       </c>
-      <c r="B420" s="30" t="s">
+      <c r="B420" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C420" s="11" t="s">
@@ -35182,7 +35189,7 @@
         <v>10</v>
       </c>
       <c r="S420" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T420" s="11">
         <v>10</v>
@@ -35207,7 +35214,7 @@
       <c r="A421" s="4" t="s">
         <v>456</v>
       </c>
-      <c r="B421" s="30" t="s">
+      <c r="B421" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C421" s="11" t="s">
@@ -35259,7 +35266,7 @@
         <v>10</v>
       </c>
       <c r="S421" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T421" s="11">
         <v>10</v>
@@ -35284,7 +35291,7 @@
       <c r="A422" s="4" t="s">
         <v>457</v>
       </c>
-      <c r="B422" s="30" t="s">
+      <c r="B422" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C422" s="11" t="s">
@@ -35336,7 +35343,7 @@
         <v>10</v>
       </c>
       <c r="S422" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T422" s="11">
         <v>10</v>
@@ -35361,7 +35368,7 @@
       <c r="A423" s="4" t="s">
         <v>458</v>
       </c>
-      <c r="B423" s="30" t="s">
+      <c r="B423" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C423" s="11" t="s">
@@ -35413,7 +35420,7 @@
         <v>10</v>
       </c>
       <c r="S423" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T423" s="11">
         <v>10</v>
@@ -35438,7 +35445,7 @@
       <c r="A424" s="4" t="s">
         <v>459</v>
       </c>
-      <c r="B424" s="30" t="s">
+      <c r="B424" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C424" s="11" t="s">
@@ -35490,7 +35497,7 @@
         <v>10</v>
       </c>
       <c r="S424" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T424" s="11">
         <v>10</v>
@@ -35515,7 +35522,7 @@
       <c r="A425" s="4" t="s">
         <v>460</v>
       </c>
-      <c r="B425" s="30" t="s">
+      <c r="B425" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C425" s="11" t="s">
@@ -35567,7 +35574,7 @@
         <v>10</v>
       </c>
       <c r="S425" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T425" s="11">
         <v>10</v>
@@ -35592,7 +35599,7 @@
       <c r="A426" s="4" t="s">
         <v>461</v>
       </c>
-      <c r="B426" s="30" t="s">
+      <c r="B426" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C426" s="11" t="s">
@@ -35644,7 +35651,7 @@
         <v>10</v>
       </c>
       <c r="S426" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T426" s="11">
         <v>10</v>
@@ -35669,7 +35676,7 @@
       <c r="A427" s="4" t="s">
         <v>462</v>
       </c>
-      <c r="B427" s="30" t="s">
+      <c r="B427" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C427" s="11" t="s">
@@ -35721,7 +35728,7 @@
         <v>10</v>
       </c>
       <c r="S427" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T427" s="11">
         <v>10</v>
@@ -35746,7 +35753,7 @@
       <c r="A428" s="4" t="s">
         <v>463</v>
       </c>
-      <c r="B428" s="30" t="s">
+      <c r="B428" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C428" s="11" t="s">
@@ -35798,7 +35805,7 @@
         <v>10</v>
       </c>
       <c r="S428" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T428" s="11">
         <v>10</v>
@@ -35823,7 +35830,7 @@
       <c r="A429" s="4" t="s">
         <v>464</v>
       </c>
-      <c r="B429" s="30" t="s">
+      <c r="B429" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C429" s="11" t="s">
@@ -35875,7 +35882,7 @@
         <v>10</v>
       </c>
       <c r="S429" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T429" s="11">
         <v>10</v>
@@ -35900,7 +35907,7 @@
       <c r="A430" s="4" t="s">
         <v>465</v>
       </c>
-      <c r="B430" s="30" t="s">
+      <c r="B430" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C430" s="11" t="s">
@@ -35952,7 +35959,7 @@
         <v>10</v>
       </c>
       <c r="S430" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T430" s="11">
         <v>10</v>
@@ -35977,7 +35984,7 @@
       <c r="A431" s="4" t="s">
         <v>466</v>
       </c>
-      <c r="B431" s="30" t="s">
+      <c r="B431" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C431" s="11" t="s">
@@ -36029,7 +36036,7 @@
         <v>10</v>
       </c>
       <c r="S431" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T431" s="11">
         <v>10</v>
@@ -36054,7 +36061,7 @@
       <c r="A432" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="B432" s="30" t="s">
+      <c r="B432" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C432" s="11" t="s">
@@ -36106,7 +36113,7 @@
         <v>10</v>
       </c>
       <c r="S432" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T432" s="11">
         <v>10</v>
@@ -36131,7 +36138,7 @@
       <c r="A433" s="4" t="s">
         <v>468</v>
       </c>
-      <c r="B433" s="30" t="s">
+      <c r="B433" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C433" s="11" t="s">
@@ -36183,7 +36190,7 @@
         <v>10</v>
       </c>
       <c r="S433" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T433" s="11">
         <v>10</v>
@@ -36208,7 +36215,7 @@
       <c r="A434" s="4" t="s">
         <v>469</v>
       </c>
-      <c r="B434" s="30" t="s">
+      <c r="B434" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C434" s="11" t="s">
@@ -36260,7 +36267,7 @@
         <v>10</v>
       </c>
       <c r="S434" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T434" s="11">
         <v>10</v>
@@ -36285,7 +36292,7 @@
       <c r="A435" s="4" t="s">
         <v>470</v>
       </c>
-      <c r="B435" s="30" t="s">
+      <c r="B435" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C435" s="11" t="s">
@@ -36337,7 +36344,7 @@
         <v>10</v>
       </c>
       <c r="S435" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T435" s="11">
         <v>10</v>
@@ -36362,7 +36369,7 @@
       <c r="A436" s="4" t="s">
         <v>471</v>
       </c>
-      <c r="B436" s="30" t="s">
+      <c r="B436" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C436" s="11" t="s">
@@ -36414,7 +36421,7 @@
         <v>10</v>
       </c>
       <c r="S436" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T436" s="11">
         <v>10</v>
@@ -36439,7 +36446,7 @@
       <c r="A437" s="4" t="s">
         <v>472</v>
       </c>
-      <c r="B437" s="30" t="s">
+      <c r="B437" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C437" s="11" t="s">
@@ -36491,7 +36498,7 @@
         <v>10</v>
       </c>
       <c r="S437" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T437" s="11">
         <v>10</v>
@@ -36516,7 +36523,7 @@
       <c r="A438" s="4" t="s">
         <v>473</v>
       </c>
-      <c r="B438" s="30" t="s">
+      <c r="B438" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C438" s="11" t="s">
@@ -36568,7 +36575,7 @@
         <v>10</v>
       </c>
       <c r="S438" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T438" s="11">
         <v>10</v>
@@ -36593,7 +36600,7 @@
       <c r="A439" s="4" t="s">
         <v>474</v>
       </c>
-      <c r="B439" s="30" t="s">
+      <c r="B439" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C439" s="11" t="s">
@@ -36645,7 +36652,7 @@
         <v>10</v>
       </c>
       <c r="S439" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T439" s="11">
         <v>10</v>
@@ -36670,7 +36677,7 @@
       <c r="A440" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="B440" s="30" t="s">
+      <c r="B440" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C440" s="11" t="s">
@@ -36722,7 +36729,7 @@
         <v>10</v>
       </c>
       <c r="S440" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T440" s="11">
         <v>10</v>
@@ -36747,7 +36754,7 @@
       <c r="A441" s="4" t="s">
         <v>476</v>
       </c>
-      <c r="B441" s="30" t="s">
+      <c r="B441" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C441" s="11" t="s">
@@ -36799,7 +36806,7 @@
         <v>10</v>
       </c>
       <c r="S441" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T441" s="11">
         <v>10</v>
@@ -36824,7 +36831,7 @@
       <c r="A442" s="4" t="s">
         <v>477</v>
       </c>
-      <c r="B442" s="30" t="s">
+      <c r="B442" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C442" s="11" t="s">
@@ -36876,7 +36883,7 @@
         <v>10</v>
       </c>
       <c r="S442" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T442" s="11">
         <v>10</v>
@@ -36901,7 +36908,7 @@
       <c r="A443" s="4" t="s">
         <v>478</v>
       </c>
-      <c r="B443" s="30" t="s">
+      <c r="B443" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C443" s="11" t="s">
@@ -36953,7 +36960,7 @@
         <v>10</v>
       </c>
       <c r="S443" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T443" s="11">
         <v>10</v>
@@ -36978,7 +36985,7 @@
       <c r="A444" s="4" t="s">
         <v>479</v>
       </c>
-      <c r="B444" s="30" t="s">
+      <c r="B444" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C444" s="11" t="s">
@@ -37030,7 +37037,7 @@
         <v>10</v>
       </c>
       <c r="S444" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T444" s="11">
         <v>10</v>
@@ -37055,7 +37062,7 @@
       <c r="A445" s="4" t="s">
         <v>480</v>
       </c>
-      <c r="B445" s="30" t="s">
+      <c r="B445" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C445" s="11" t="s">
@@ -37107,7 +37114,7 @@
         <v>10</v>
       </c>
       <c r="S445" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T445" s="11">
         <v>10</v>
@@ -37132,7 +37139,7 @@
       <c r="A446" s="4" t="s">
         <v>481</v>
       </c>
-      <c r="B446" s="30" t="s">
+      <c r="B446" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C446" s="11" t="s">
@@ -37184,7 +37191,7 @@
         <v>10</v>
       </c>
       <c r="S446" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T446" s="11">
         <v>10</v>
@@ -37209,7 +37216,7 @@
       <c r="A447" s="4" t="s">
         <v>482</v>
       </c>
-      <c r="B447" s="30" t="s">
+      <c r="B447" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C447" s="11" t="s">
@@ -37261,7 +37268,7 @@
         <v>10</v>
       </c>
       <c r="S447" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T447" s="11">
         <v>10</v>
@@ -37286,7 +37293,7 @@
       <c r="A448" s="4" t="s">
         <v>483</v>
       </c>
-      <c r="B448" s="30" t="s">
+      <c r="B448" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C448" s="11" t="s">
@@ -37338,7 +37345,7 @@
         <v>10</v>
       </c>
       <c r="S448" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T448" s="11">
         <v>10</v>
@@ -37363,7 +37370,7 @@
       <c r="A449" s="4" t="s">
         <v>484</v>
       </c>
-      <c r="B449" s="30" t="s">
+      <c r="B449" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C449" s="11" t="s">
@@ -37415,7 +37422,7 @@
         <v>10</v>
       </c>
       <c r="S449" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T449" s="11">
         <v>10</v>
@@ -37440,7 +37447,7 @@
       <c r="A450" s="4" t="s">
         <v>485</v>
       </c>
-      <c r="B450" s="30" t="s">
+      <c r="B450" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C450" s="11" t="s">
@@ -37492,7 +37499,7 @@
         <v>10</v>
       </c>
       <c r="S450" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T450" s="11">
         <v>10</v>
@@ -37517,7 +37524,7 @@
       <c r="A451" s="4" t="s">
         <v>486</v>
       </c>
-      <c r="B451" s="30" t="s">
+      <c r="B451" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C451" s="11" t="s">
@@ -37569,7 +37576,7 @@
         <v>10</v>
       </c>
       <c r="S451" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T451" s="11">
         <v>10</v>
@@ -37594,7 +37601,7 @@
       <c r="A452" s="4" t="s">
         <v>487</v>
       </c>
-      <c r="B452" s="30" t="s">
+      <c r="B452" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C452" s="11" t="s">
@@ -37646,7 +37653,7 @@
         <v>10</v>
       </c>
       <c r="S452" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T452" s="11">
         <v>10</v>
@@ -37671,7 +37678,7 @@
       <c r="A453" s="4" t="s">
         <v>488</v>
       </c>
-      <c r="B453" s="30" t="s">
+      <c r="B453" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C453" s="11" t="s">
@@ -37723,7 +37730,7 @@
         <v>10</v>
       </c>
       <c r="S453" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T453" s="11">
         <v>10</v>
@@ -37748,7 +37755,7 @@
       <c r="A454" s="4" t="s">
         <v>489</v>
       </c>
-      <c r="B454" s="30" t="s">
+      <c r="B454" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C454" s="11" t="s">
@@ -37800,7 +37807,7 @@
         <v>10</v>
       </c>
       <c r="S454" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T454" s="11">
         <v>10</v>
@@ -37825,7 +37832,7 @@
       <c r="A455" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="B455" s="30" t="s">
+      <c r="B455" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C455" s="11" t="s">
@@ -37877,7 +37884,7 @@
         <v>10</v>
       </c>
       <c r="S455" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T455" s="11">
         <v>10</v>
@@ -37902,7 +37909,7 @@
       <c r="A456" s="4" t="s">
         <v>491</v>
       </c>
-      <c r="B456" s="30" t="s">
+      <c r="B456" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C456" s="11" t="s">
@@ -37954,7 +37961,7 @@
         <v>10</v>
       </c>
       <c r="S456" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T456" s="11">
         <v>10</v>
@@ -37979,7 +37986,7 @@
       <c r="A457" s="4" t="s">
         <v>492</v>
       </c>
-      <c r="B457" s="30" t="s">
+      <c r="B457" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C457" s="11" t="s">
@@ -38031,7 +38038,7 @@
         <v>10</v>
       </c>
       <c r="S457" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T457" s="11">
         <v>10</v>
@@ -38056,7 +38063,7 @@
       <c r="A458" s="4" t="s">
         <v>493</v>
       </c>
-      <c r="B458" s="30" t="s">
+      <c r="B458" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C458" s="11" t="s">
@@ -38108,7 +38115,7 @@
         <v>10</v>
       </c>
       <c r="S458" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T458" s="11">
         <v>10</v>
@@ -38133,7 +38140,7 @@
       <c r="A459" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="B459" s="30" t="s">
+      <c r="B459" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C459" s="11" t="s">
@@ -38185,7 +38192,7 @@
         <v>10</v>
       </c>
       <c r="S459" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T459" s="11">
         <v>10</v>
@@ -38210,7 +38217,7 @@
       <c r="A460" s="4" t="s">
         <v>495</v>
       </c>
-      <c r="B460" s="30" t="s">
+      <c r="B460" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C460" s="11" t="s">
@@ -38262,7 +38269,7 @@
         <v>10</v>
       </c>
       <c r="S460" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T460" s="11">
         <v>10</v>
@@ -38287,7 +38294,7 @@
       <c r="A461" s="4" t="s">
         <v>496</v>
       </c>
-      <c r="B461" s="30" t="s">
+      <c r="B461" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C461" s="11" t="s">
@@ -38339,7 +38346,7 @@
         <v>10</v>
       </c>
       <c r="S461" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T461" s="11">
         <v>10</v>
@@ -38364,7 +38371,7 @@
       <c r="A462" s="4" t="s">
         <v>497</v>
       </c>
-      <c r="B462" s="30" t="s">
+      <c r="B462" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C462" s="11" t="s">
@@ -38416,7 +38423,7 @@
         <v>10</v>
       </c>
       <c r="S462" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T462" s="11">
         <v>10</v>
@@ -38441,7 +38448,7 @@
       <c r="A463" s="4" t="s">
         <v>498</v>
       </c>
-      <c r="B463" s="30" t="s">
+      <c r="B463" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C463" s="11" t="s">
@@ -38493,7 +38500,7 @@
         <v>10</v>
       </c>
       <c r="S463" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T463" s="11">
         <v>10</v>
@@ -38518,7 +38525,7 @@
       <c r="A464" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="B464" s="30" t="s">
+      <c r="B464" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C464" s="11" t="s">
@@ -38570,7 +38577,7 @@
         <v>10</v>
       </c>
       <c r="S464" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T464" s="11">
         <v>10</v>
@@ -38595,7 +38602,7 @@
       <c r="A465" s="4" t="s">
         <v>500</v>
       </c>
-      <c r="B465" s="30" t="s">
+      <c r="B465" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C465" s="11" t="s">
@@ -38647,7 +38654,7 @@
         <v>10</v>
       </c>
       <c r="S465" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T465" s="11">
         <v>10</v>
@@ -38672,7 +38679,7 @@
       <c r="A466" s="4" t="s">
         <v>501</v>
       </c>
-      <c r="B466" s="30" t="s">
+      <c r="B466" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C466" s="11" t="s">
@@ -38724,7 +38731,7 @@
         <v>10</v>
       </c>
       <c r="S466" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T466" s="11">
         <v>10</v>
@@ -38749,7 +38756,7 @@
       <c r="A467" s="4" t="s">
         <v>502</v>
       </c>
-      <c r="B467" s="30" t="s">
+      <c r="B467" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C467" s="11" t="s">
@@ -38801,7 +38808,7 @@
         <v>10</v>
       </c>
       <c r="S467" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T467" s="11">
         <v>10</v>
@@ -38826,7 +38833,7 @@
       <c r="A468" s="4" t="s">
         <v>503</v>
       </c>
-      <c r="B468" s="30" t="s">
+      <c r="B468" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C468" s="11" t="s">
@@ -38878,7 +38885,7 @@
         <v>10</v>
       </c>
       <c r="S468" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T468" s="11">
         <v>10</v>
@@ -38903,7 +38910,7 @@
       <c r="A469" s="4" t="s">
         <v>504</v>
       </c>
-      <c r="B469" s="30" t="s">
+      <c r="B469" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C469" s="11" t="s">
@@ -38955,7 +38962,7 @@
         <v>10</v>
       </c>
       <c r="S469" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T469" s="11">
         <v>10</v>
@@ -38980,7 +38987,7 @@
       <c r="A470" s="4" t="s">
         <v>505</v>
       </c>
-      <c r="B470" s="30" t="s">
+      <c r="B470" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C470" s="11" t="s">
@@ -39032,7 +39039,7 @@
         <v>10</v>
       </c>
       <c r="S470" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T470" s="11">
         <v>10</v>
@@ -39057,7 +39064,7 @@
       <c r="A471" s="4" t="s">
         <v>506</v>
       </c>
-      <c r="B471" s="30" t="s">
+      <c r="B471" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C471" s="11" t="s">
@@ -39109,7 +39116,7 @@
         <v>10</v>
       </c>
       <c r="S471" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T471" s="11">
         <v>10</v>
@@ -39134,7 +39141,7 @@
       <c r="A472" s="4" t="s">
         <v>507</v>
       </c>
-      <c r="B472" s="30" t="s">
+      <c r="B472" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C472" s="11" t="s">
@@ -39186,7 +39193,7 @@
         <v>10</v>
       </c>
       <c r="S472" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T472" s="11">
         <v>10</v>
@@ -39211,7 +39218,7 @@
       <c r="A473" s="4" t="s">
         <v>508</v>
       </c>
-      <c r="B473" s="30" t="s">
+      <c r="B473" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C473" s="11" t="s">
@@ -39263,7 +39270,7 @@
         <v>10</v>
       </c>
       <c r="S473" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T473" s="11">
         <v>10</v>
@@ -39288,7 +39295,7 @@
       <c r="A474" s="4" t="s">
         <v>509</v>
       </c>
-      <c r="B474" s="30" t="s">
+      <c r="B474" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C474" s="11" t="s">
@@ -39340,7 +39347,7 @@
         <v>10</v>
       </c>
       <c r="S474" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T474" s="11">
         <v>10</v>
@@ -39365,7 +39372,7 @@
       <c r="A475" s="4" t="s">
         <v>510</v>
       </c>
-      <c r="B475" s="30" t="s">
+      <c r="B475" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C475" s="11" t="s">
@@ -39417,7 +39424,7 @@
         <v>10</v>
       </c>
       <c r="S475" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T475" s="11">
         <v>10</v>
@@ -39442,7 +39449,7 @@
       <c r="A476" s="4" t="s">
         <v>511</v>
       </c>
-      <c r="B476" s="30" t="s">
+      <c r="B476" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C476" s="11" t="s">
@@ -39494,7 +39501,7 @@
         <v>10</v>
       </c>
       <c r="S476" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T476" s="11">
         <v>10</v>
@@ -39519,7 +39526,7 @@
       <c r="A477" s="4" t="s">
         <v>512</v>
       </c>
-      <c r="B477" s="30" t="s">
+      <c r="B477" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C477" s="11" t="s">
@@ -39571,7 +39578,7 @@
         <v>10</v>
       </c>
       <c r="S477" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T477" s="11">
         <v>10</v>
@@ -39596,7 +39603,7 @@
       <c r="A478" s="4" t="s">
         <v>513</v>
       </c>
-      <c r="B478" s="30" t="s">
+      <c r="B478" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C478" s="11" t="s">
@@ -39648,7 +39655,7 @@
         <v>10</v>
       </c>
       <c r="S478" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T478" s="11">
         <v>10</v>
@@ -39673,7 +39680,7 @@
       <c r="A479" s="4" t="s">
         <v>514</v>
       </c>
-      <c r="B479" s="30" t="s">
+      <c r="B479" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C479" s="11" t="s">
@@ -39725,7 +39732,7 @@
         <v>10</v>
       </c>
       <c r="S479" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T479" s="11">
         <v>10</v>
@@ -39750,7 +39757,7 @@
       <c r="A480" s="4" t="s">
         <v>515</v>
       </c>
-      <c r="B480" s="30" t="s">
+      <c r="B480" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C480" s="11" t="s">
@@ -39802,7 +39809,7 @@
         <v>10</v>
       </c>
       <c r="S480" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T480" s="11">
         <v>10</v>
@@ -39827,7 +39834,7 @@
       <c r="A481" s="4" t="s">
         <v>516</v>
       </c>
-      <c r="B481" s="30" t="s">
+      <c r="B481" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C481" s="11" t="s">
@@ -39879,7 +39886,7 @@
         <v>10</v>
       </c>
       <c r="S481" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T481" s="11">
         <v>10</v>
@@ -39904,7 +39911,7 @@
       <c r="A482" s="4" t="s">
         <v>517</v>
       </c>
-      <c r="B482" s="30" t="s">
+      <c r="B482" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C482" s="11" t="s">
@@ -39956,7 +39963,7 @@
         <v>10</v>
       </c>
       <c r="S482" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T482" s="11">
         <v>10</v>
@@ -39981,7 +39988,7 @@
       <c r="A483" s="4" t="s">
         <v>518</v>
       </c>
-      <c r="B483" s="30" t="s">
+      <c r="B483" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C483" s="11" t="s">
@@ -40033,7 +40040,7 @@
         <v>10</v>
       </c>
       <c r="S483" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T483" s="11">
         <v>10</v>
@@ -40058,7 +40065,7 @@
       <c r="A484" s="4" t="s">
         <v>519</v>
       </c>
-      <c r="B484" s="30" t="s">
+      <c r="B484" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C484" s="11" t="s">
@@ -40110,7 +40117,7 @@
         <v>10</v>
       </c>
       <c r="S484" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T484" s="11">
         <v>10</v>
@@ -40135,7 +40142,7 @@
       <c r="A485" s="4" t="s">
         <v>520</v>
       </c>
-      <c r="B485" s="30" t="s">
+      <c r="B485" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C485" s="11" t="s">
@@ -40187,7 +40194,7 @@
         <v>10</v>
       </c>
       <c r="S485" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T485" s="11">
         <v>10</v>
@@ -40212,7 +40219,7 @@
       <c r="A486" s="4" t="s">
         <v>521</v>
       </c>
-      <c r="B486" s="30" t="s">
+      <c r="B486" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C486" s="11" t="s">
@@ -40264,7 +40271,7 @@
         <v>10</v>
       </c>
       <c r="S486" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T486" s="11">
         <v>10</v>
@@ -40289,7 +40296,7 @@
       <c r="A487" s="4" t="s">
         <v>522</v>
       </c>
-      <c r="B487" s="30" t="s">
+      <c r="B487" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C487" s="11" t="s">
@@ -40341,7 +40348,7 @@
         <v>10</v>
       </c>
       <c r="S487" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T487" s="11">
         <v>10</v>
@@ -40366,7 +40373,7 @@
       <c r="A488" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="B488" s="30" t="s">
+      <c r="B488" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C488" s="11" t="s">
@@ -40418,7 +40425,7 @@
         <v>10</v>
       </c>
       <c r="S488" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T488" s="11">
         <v>10</v>
@@ -40443,7 +40450,7 @@
       <c r="A489" s="4" t="s">
         <v>524</v>
       </c>
-      <c r="B489" s="30" t="s">
+      <c r="B489" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C489" s="11" t="s">
@@ -40495,7 +40502,7 @@
         <v>10</v>
       </c>
       <c r="S489" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T489" s="11">
         <v>10</v>
@@ -40520,7 +40527,7 @@
       <c r="A490" s="4" t="s">
         <v>525</v>
       </c>
-      <c r="B490" s="30" t="s">
+      <c r="B490" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C490" s="11" t="s">
@@ -40572,7 +40579,7 @@
         <v>10</v>
       </c>
       <c r="S490" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T490" s="11">
         <v>10</v>
@@ -40597,7 +40604,7 @@
       <c r="A491" s="4" t="s">
         <v>526</v>
       </c>
-      <c r="B491" s="30" t="s">
+      <c r="B491" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C491" s="11" t="s">
@@ -40649,7 +40656,7 @@
         <v>10</v>
       </c>
       <c r="S491" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T491" s="11">
         <v>10</v>
@@ -40674,7 +40681,7 @@
       <c r="A492" s="4" t="s">
         <v>527</v>
       </c>
-      <c r="B492" s="30" t="s">
+      <c r="B492" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C492" s="11" t="s">
@@ -40726,7 +40733,7 @@
         <v>10</v>
       </c>
       <c r="S492" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T492" s="11">
         <v>10</v>
@@ -40751,7 +40758,7 @@
       <c r="A493" s="4" t="s">
         <v>528</v>
       </c>
-      <c r="B493" s="30" t="s">
+      <c r="B493" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C493" s="11" t="s">
@@ -40803,7 +40810,7 @@
         <v>10</v>
       </c>
       <c r="S493" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T493" s="11">
         <v>10</v>
@@ -40828,7 +40835,7 @@
       <c r="A494" s="4" t="s">
         <v>529</v>
       </c>
-      <c r="B494" s="30" t="s">
+      <c r="B494" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C494" s="11" t="s">
@@ -40880,7 +40887,7 @@
         <v>10</v>
       </c>
       <c r="S494" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T494" s="11">
         <v>10</v>
@@ -40905,7 +40912,7 @@
       <c r="A495" s="4" t="s">
         <v>530</v>
       </c>
-      <c r="B495" s="30" t="s">
+      <c r="B495" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C495" s="11" t="s">
@@ -40957,7 +40964,7 @@
         <v>10</v>
       </c>
       <c r="S495" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T495" s="11">
         <v>10</v>
@@ -40982,7 +40989,7 @@
       <c r="A496" s="4" t="s">
         <v>531</v>
       </c>
-      <c r="B496" s="30" t="s">
+      <c r="B496" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C496" s="11" t="s">
@@ -41034,7 +41041,7 @@
         <v>10</v>
       </c>
       <c r="S496" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T496" s="11">
         <v>10</v>
@@ -41059,7 +41066,7 @@
       <c r="A497" s="4" t="s">
         <v>532</v>
       </c>
-      <c r="B497" s="30" t="s">
+      <c r="B497" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C497" s="11" t="s">
@@ -41111,7 +41118,7 @@
         <v>10</v>
       </c>
       <c r="S497" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T497" s="11">
         <v>10</v>
@@ -41136,7 +41143,7 @@
       <c r="A498" s="4" t="s">
         <v>533</v>
       </c>
-      <c r="B498" s="30" t="s">
+      <c r="B498" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C498" s="11" t="s">
@@ -41188,7 +41195,7 @@
         <v>10</v>
       </c>
       <c r="S498" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T498" s="11">
         <v>10</v>
@@ -41213,7 +41220,7 @@
       <c r="A499" s="4" t="s">
         <v>534</v>
       </c>
-      <c r="B499" s="30" t="s">
+      <c r="B499" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C499" s="11" t="s">
@@ -41265,7 +41272,7 @@
         <v>10</v>
       </c>
       <c r="S499" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T499" s="11">
         <v>10</v>
@@ -41290,7 +41297,7 @@
       <c r="A500" s="4" t="s">
         <v>535</v>
       </c>
-      <c r="B500" s="30" t="s">
+      <c r="B500" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C500" s="11" t="s">
@@ -41342,7 +41349,7 @@
         <v>10</v>
       </c>
       <c r="S500" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T500" s="11">
         <v>10</v>
@@ -41367,7 +41374,7 @@
       <c r="A501" s="4" t="s">
         <v>536</v>
       </c>
-      <c r="B501" s="30" t="s">
+      <c r="B501" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C501" s="11" t="s">
@@ -41419,7 +41426,7 @@
         <v>10</v>
       </c>
       <c r="S501" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T501" s="11">
         <v>10</v>
@@ -41444,7 +41451,7 @@
       <c r="A502" s="4" t="s">
         <v>537</v>
       </c>
-      <c r="B502" s="30" t="s">
+      <c r="B502" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C502" s="11" t="s">
@@ -41496,7 +41503,7 @@
         <v>10</v>
       </c>
       <c r="S502" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T502" s="11">
         <v>10</v>
@@ -41521,7 +41528,7 @@
       <c r="A503" s="4" t="s">
         <v>538</v>
       </c>
-      <c r="B503" s="30" t="s">
+      <c r="B503" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C503" s="11" t="s">
@@ -41573,7 +41580,7 @@
         <v>10</v>
       </c>
       <c r="S503" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T503" s="11">
         <v>10</v>
@@ -41598,7 +41605,7 @@
       <c r="A504" s="4" t="s">
         <v>539</v>
       </c>
-      <c r="B504" s="30" t="s">
+      <c r="B504" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C504" s="11" t="s">
@@ -41650,7 +41657,7 @@
         <v>10</v>
       </c>
       <c r="S504" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T504" s="11">
         <v>10</v>
@@ -41675,7 +41682,7 @@
       <c r="A505" s="4" t="s">
         <v>540</v>
       </c>
-      <c r="B505" s="30" t="s">
+      <c r="B505" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C505" s="11" t="s">
@@ -41727,7 +41734,7 @@
         <v>10</v>
       </c>
       <c r="S505" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T505" s="11">
         <v>10</v>
@@ -41752,7 +41759,7 @@
       <c r="A506" s="4" t="s">
         <v>541</v>
       </c>
-      <c r="B506" s="30" t="s">
+      <c r="B506" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C506" s="11" t="s">
@@ -41804,7 +41811,7 @@
         <v>10</v>
       </c>
       <c r="S506" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T506" s="11">
         <v>10</v>
@@ -41829,7 +41836,7 @@
       <c r="A507" s="4" t="s">
         <v>542</v>
       </c>
-      <c r="B507" s="30" t="s">
+      <c r="B507" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C507" s="11" t="s">
@@ -41881,7 +41888,7 @@
         <v>10</v>
       </c>
       <c r="S507" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T507" s="11">
         <v>10</v>
@@ -41906,7 +41913,7 @@
       <c r="A508" s="4" t="s">
         <v>543</v>
       </c>
-      <c r="B508" s="30" t="s">
+      <c r="B508" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C508" s="11" t="s">
@@ -41958,7 +41965,7 @@
         <v>10</v>
       </c>
       <c r="S508" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T508" s="11">
         <v>10</v>
@@ -41983,7 +41990,7 @@
       <c r="A509" s="4" t="s">
         <v>544</v>
       </c>
-      <c r="B509" s="30" t="s">
+      <c r="B509" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C509" s="11" t="s">
@@ -42035,7 +42042,7 @@
         <v>10</v>
       </c>
       <c r="S509" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T509" s="11">
         <v>10</v>
@@ -42060,7 +42067,7 @@
       <c r="A510" s="4" t="s">
         <v>545</v>
       </c>
-      <c r="B510" s="30" t="s">
+      <c r="B510" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C510" s="11" t="s">
@@ -42112,7 +42119,7 @@
         <v>10</v>
       </c>
       <c r="S510" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T510" s="11">
         <v>10</v>
@@ -42137,7 +42144,7 @@
       <c r="A511" s="4" t="s">
         <v>546</v>
       </c>
-      <c r="B511" s="30" t="s">
+      <c r="B511" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C511" s="11" t="s">
@@ -42189,7 +42196,7 @@
         <v>10</v>
       </c>
       <c r="S511" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T511" s="11">
         <v>10</v>
@@ -42214,7 +42221,7 @@
       <c r="A512" s="4" t="s">
         <v>547</v>
       </c>
-      <c r="B512" s="30" t="s">
+      <c r="B512" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C512" s="11" t="s">
@@ -42266,7 +42273,7 @@
         <v>10</v>
       </c>
       <c r="S512" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T512" s="11">
         <v>10</v>
@@ -42291,7 +42298,7 @@
       <c r="A513" s="4" t="s">
         <v>548</v>
       </c>
-      <c r="B513" s="30" t="s">
+      <c r="B513" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C513" s="11" t="s">
@@ -42343,7 +42350,7 @@
         <v>10</v>
       </c>
       <c r="S513" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T513" s="11">
         <v>10</v>
@@ -42368,7 +42375,7 @@
       <c r="A514" s="4" t="s">
         <v>549</v>
       </c>
-      <c r="B514" s="30" t="s">
+      <c r="B514" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C514" s="11" t="s">
@@ -42420,7 +42427,7 @@
         <v>10</v>
       </c>
       <c r="S514" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T514" s="11">
         <v>10</v>
@@ -42445,7 +42452,7 @@
       <c r="A515" s="4" t="s">
         <v>550</v>
       </c>
-      <c r="B515" s="30" t="s">
+      <c r="B515" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C515" s="11" t="s">
@@ -42497,7 +42504,7 @@
         <v>10</v>
       </c>
       <c r="S515" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T515" s="11">
         <v>10</v>
@@ -42522,7 +42529,7 @@
       <c r="A516" s="4" t="s">
         <v>551</v>
       </c>
-      <c r="B516" s="30" t="s">
+      <c r="B516" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C516" s="11" t="s">
@@ -42574,7 +42581,7 @@
         <v>10</v>
       </c>
       <c r="S516" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T516" s="11">
         <v>10</v>
@@ -42599,7 +42606,7 @@
       <c r="A517" s="4" t="s">
         <v>552</v>
       </c>
-      <c r="B517" s="30" t="s">
+      <c r="B517" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C517" s="11" t="s">
@@ -42651,7 +42658,7 @@
         <v>10</v>
       </c>
       <c r="S517" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T517" s="11">
         <v>10</v>
@@ -42676,7 +42683,7 @@
       <c r="A518" s="4" t="s">
         <v>553</v>
       </c>
-      <c r="B518" s="30" t="s">
+      <c r="B518" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C518" s="11" t="s">
@@ -42728,7 +42735,7 @@
         <v>10</v>
       </c>
       <c r="S518" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T518" s="11">
         <v>10</v>
@@ -42753,7 +42760,7 @@
       <c r="A519" s="4" t="s">
         <v>554</v>
       </c>
-      <c r="B519" s="30" t="s">
+      <c r="B519" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C519" s="11" t="s">
@@ -42805,7 +42812,7 @@
         <v>10</v>
       </c>
       <c r="S519" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T519" s="11">
         <v>10</v>
@@ -42830,7 +42837,7 @@
       <c r="A520" s="4" t="s">
         <v>555</v>
       </c>
-      <c r="B520" s="30" t="s">
+      <c r="B520" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C520" s="11" t="s">
@@ -42882,7 +42889,7 @@
         <v>10</v>
       </c>
       <c r="S520" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T520" s="11">
         <v>10</v>
@@ -42907,7 +42914,7 @@
       <c r="A521" s="4" t="s">
         <v>556</v>
       </c>
-      <c r="B521" s="30" t="s">
+      <c r="B521" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C521" s="11" t="s">
@@ -42959,7 +42966,7 @@
         <v>10</v>
       </c>
       <c r="S521" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T521" s="11">
         <v>10</v>
@@ -42984,7 +42991,7 @@
       <c r="A522" s="4" t="s">
         <v>557</v>
       </c>
-      <c r="B522" s="30" t="s">
+      <c r="B522" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C522" s="11" t="s">
@@ -43036,7 +43043,7 @@
         <v>10</v>
       </c>
       <c r="S522" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T522" s="11">
         <v>10</v>
@@ -43061,7 +43068,7 @@
       <c r="A523" s="4" t="s">
         <v>558</v>
       </c>
-      <c r="B523" s="30" t="s">
+      <c r="B523" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C523" s="11" t="s">
@@ -43113,7 +43120,7 @@
         <v>10</v>
       </c>
       <c r="S523" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T523" s="11">
         <v>10</v>
@@ -43138,7 +43145,7 @@
       <c r="A524" s="4" t="s">
         <v>559</v>
       </c>
-      <c r="B524" s="30" t="s">
+      <c r="B524" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C524" s="11" t="s">
@@ -43190,7 +43197,7 @@
         <v>10</v>
       </c>
       <c r="S524" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T524" s="11">
         <v>10</v>
@@ -43215,7 +43222,7 @@
       <c r="A525" s="4" t="s">
         <v>560</v>
       </c>
-      <c r="B525" s="30" t="s">
+      <c r="B525" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C525" s="11" t="s">
@@ -43267,7 +43274,7 @@
         <v>10</v>
       </c>
       <c r="S525" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T525" s="11">
         <v>10</v>
@@ -43292,7 +43299,7 @@
       <c r="A526" s="4" t="s">
         <v>561</v>
       </c>
-      <c r="B526" s="30" t="s">
+      <c r="B526" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C526" s="11" t="s">
@@ -43344,7 +43351,7 @@
         <v>10</v>
       </c>
       <c r="S526" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T526" s="11">
         <v>10</v>
@@ -43369,7 +43376,7 @@
       <c r="A527" s="4" t="s">
         <v>562</v>
       </c>
-      <c r="B527" s="30" t="s">
+      <c r="B527" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C527" s="11" t="s">
@@ -43421,7 +43428,7 @@
         <v>10</v>
       </c>
       <c r="S527" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T527" s="11">
         <v>10</v>
@@ -43446,7 +43453,7 @@
       <c r="A528" s="4" t="s">
         <v>563</v>
       </c>
-      <c r="B528" s="30" t="s">
+      <c r="B528" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C528" s="11" t="s">
@@ -43498,7 +43505,7 @@
         <v>10</v>
       </c>
       <c r="S528" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T528" s="11">
         <v>10</v>
@@ -43523,7 +43530,7 @@
       <c r="A529" s="4" t="s">
         <v>564</v>
       </c>
-      <c r="B529" s="30" t="s">
+      <c r="B529" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C529" s="11" t="s">
@@ -43575,7 +43582,7 @@
         <v>10</v>
       </c>
       <c r="S529" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T529" s="11">
         <v>10</v>
@@ -43600,7 +43607,7 @@
       <c r="A530" s="4" t="s">
         <v>565</v>
       </c>
-      <c r="B530" s="30" t="s">
+      <c r="B530" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C530" s="11" t="s">
@@ -43652,7 +43659,7 @@
         <v>10</v>
       </c>
       <c r="S530" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T530" s="11">
         <v>10</v>
@@ -43677,7 +43684,7 @@
       <c r="A531" s="4" t="s">
         <v>566</v>
       </c>
-      <c r="B531" s="30" t="s">
+      <c r="B531" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C531" s="11" t="s">
@@ -43729,7 +43736,7 @@
         <v>10</v>
       </c>
       <c r="S531" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T531" s="11">
         <v>10</v>
@@ -43754,7 +43761,7 @@
       <c r="A532" s="4" t="s">
         <v>567</v>
       </c>
-      <c r="B532" s="30" t="s">
+      <c r="B532" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C532" s="11" t="s">
@@ -43806,7 +43813,7 @@
         <v>10</v>
       </c>
       <c r="S532" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T532" s="11">
         <v>10</v>
@@ -43831,7 +43838,7 @@
       <c r="A533" s="4" t="s">
         <v>568</v>
       </c>
-      <c r="B533" s="30" t="s">
+      <c r="B533" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C533" s="11" t="s">
@@ -43883,7 +43890,7 @@
         <v>10</v>
       </c>
       <c r="S533" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T533" s="11">
         <v>10</v>
@@ -43933,7 +43940,7 @@
           <x14:formula1>
             <xm:f>Settings!$A$3:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>B534:B1048576</xm:sqref>
+          <xm:sqref>B3:B1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
@@ -43964,7 +43971,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
